--- a/dataset/Facility.xlsx
+++ b/dataset/Facility.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5384" uniqueCount="2539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5385" uniqueCount="2540">
   <si>
     <t>Name</t>
   </si>
@@ -7632,6 +7632,9 @@
   </si>
   <si>
     <t>成都市郫都区安靖镇方桥村六组309号</t>
+  </si>
+  <si>
+    <t>nb</t>
   </si>
 </sst>
 </file>
@@ -7639,11 +7642,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="mm/dd/yy;@"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="mm/dd/yy;@"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -7715,11 +7718,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -7732,39 +7734,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7801,7 +7771,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7809,9 +7779,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -7832,16 +7802,49 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -7854,19 +7857,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7878,25 +7881,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7914,37 +7929,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7962,7 +7947,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7974,49 +8019,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8028,13 +8031,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8066,23 +8069,56 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8114,49 +8150,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8168,10 +8171,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -8180,10 +8183,10 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -8192,19 +8195,22 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -8216,97 +8222,94 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -8687,7 +8690,7 @@
   <dimension ref="A1:J1039"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A953" workbookViewId="0">
-      <selection activeCell="I975" sqref="I975"/>
+      <selection activeCell="A976" sqref="A976"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4"/>
@@ -33820,7 +33823,10 @@
         <v>2538</v>
       </c>
     </row>
-    <row r="975" spans="7:9">
+    <row r="975" spans="1:9">
+      <c r="A975" s="1" t="s">
+        <v>2539</v>
+      </c>
       <c r="G975" s="3">
         <v>225</v>
       </c>

--- a/dataset/Facility.xlsx
+++ b/dataset/Facility.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5385" uniqueCount="2540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5322" uniqueCount="2505">
   <si>
     <t>Name</t>
   </si>
@@ -7527,111 +7527,6 @@
   </si>
   <si>
     <t>崇明县中兴镇红星路1号</t>
-  </si>
-  <si>
-    <t>成都美好家园养老中心</t>
-  </si>
-  <si>
-    <t>4/30/2016</t>
-  </si>
-  <si>
-    <t>成都</t>
-  </si>
-  <si>
-    <t>锦江区</t>
-  </si>
-  <si>
-    <t>四川省成都市锦江区经天二街336号</t>
-  </si>
-  <si>
-    <t>成都哺恩光华养老护理中心</t>
-  </si>
-  <si>
-    <t>青羊区</t>
-  </si>
-  <si>
-    <t>成都市青羊区瑞联路167号</t>
-  </si>
-  <si>
-    <t>成都哺恩平福养老护理中心</t>
-  </si>
-  <si>
-    <t>4/1/2019</t>
-  </si>
-  <si>
-    <t>金牛区</t>
-  </si>
-  <si>
-    <t>成都市金牛区解放路一段23号</t>
-  </si>
-  <si>
-    <t>成都哺恩堂养老护理中心</t>
-  </si>
-  <si>
-    <t>8/1/2017</t>
-  </si>
-  <si>
-    <t>成都市金牛区永陵路96号</t>
-  </si>
-  <si>
-    <t>康源美宏介护服务中心书院街长者屋</t>
-  </si>
-  <si>
-    <t>1/28/2019</t>
-  </si>
-  <si>
-    <t>成都市锦江区天涯石北街156号</t>
-  </si>
-  <si>
-    <t>亲睦家•鹭湖长者社区</t>
-  </si>
-  <si>
-    <t>4/1/2015</t>
-  </si>
-  <si>
-    <t>温江区</t>
-  </si>
-  <si>
-    <t>成都市温江区万春镇春江西路498号</t>
-  </si>
-  <si>
-    <t>亲睦家•护理院</t>
-  </si>
-  <si>
-    <t>成都市温江区永宁镇八一路北段18号</t>
-  </si>
-  <si>
-    <t>成都天府新区一暄康养养老中心</t>
-  </si>
-  <si>
-    <t>双流区</t>
-  </si>
-  <si>
-    <t>天府新区天府大道南段2039号</t>
-  </si>
-  <si>
-    <t>成都市双流区乐康养老服务中心</t>
-  </si>
-  <si>
-    <t>成都市双流区黄甲街道杨桥路202号</t>
-  </si>
-  <si>
-    <t>成都市郫都区虹满天康养有限公司</t>
-  </si>
-  <si>
-    <t>郫都区</t>
-  </si>
-  <si>
-    <t>四川省成都市郫都区犀浦镇犀团路109号</t>
-  </si>
-  <si>
-    <t>成都市颐园养老院</t>
-  </si>
-  <si>
-    <t>6/15/1995</t>
-  </si>
-  <si>
-    <t>成都市郫都区安靖镇方桥村六组309号</t>
   </si>
   <si>
     <t>nb</t>
@@ -7642,13 +7537,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="mm/dd/yy;@"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7691,26 +7586,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFF6700"/>
-      <name val="Microsoft YaHei"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9.75"/>
-      <color rgb="FF333333"/>
-      <name val="Microsoft YaHei"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -7732,9 +7607,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7743,6 +7617,37 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7770,8 +7675,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7779,9 +7685,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -7796,37 +7702,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7847,6 +7722,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -7857,7 +7739,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7869,7 +7757,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7881,25 +7829,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7911,133 +7919,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8075,21 +7957,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -8114,11 +7981,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8134,6 +8007,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8171,10 +8053,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -8183,137 +8065,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8360,12 +8242,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -8690,7 +8566,7 @@
   <dimension ref="A1:J1039"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A953" workbookViewId="0">
-      <selection activeCell="A976" sqref="A976"/>
+      <selection activeCell="A964" sqref="A964:I974"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4"/>
@@ -33571,261 +33447,129 @@
       <c r="J963" s="4"/>
     </row>
     <row r="964" spans="1:9">
-      <c r="A964" s="1" t="s">
-        <v>2504</v>
-      </c>
-      <c r="C964" s="2" t="s">
-        <v>2505</v>
-      </c>
-      <c r="D964" s="1" t="s">
-        <v>2506</v>
-      </c>
-      <c r="E964" s="3" t="s">
-        <v>2507</v>
-      </c>
-      <c r="F964" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G964" s="1">
-        <v>500</v>
-      </c>
-      <c r="H964" s="1">
-        <v>18000</v>
-      </c>
-      <c r="I964" s="17" t="s">
-        <v>2508</v>
-      </c>
+      <c r="A964"/>
+      <c r="B964"/>
+      <c r="C964"/>
+      <c r="D964"/>
+      <c r="E964"/>
+      <c r="F964"/>
+      <c r="G964"/>
+      <c r="H964"/>
+      <c r="I964"/>
     </row>
     <row r="965" spans="1:9">
-      <c r="A965" s="1" t="s">
-        <v>2509</v>
-      </c>
-      <c r="C965" s="2" t="s">
-        <v>1012</v>
-      </c>
-      <c r="D965" s="1" t="s">
-        <v>2506</v>
-      </c>
-      <c r="E965" s="3" t="s">
-        <v>2510</v>
-      </c>
-      <c r="F965" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G965" s="1">
-        <v>148</v>
-      </c>
-      <c r="I965" s="17" t="s">
-        <v>2511</v>
-      </c>
+      <c r="A965"/>
+      <c r="B965"/>
+      <c r="C965"/>
+      <c r="D965"/>
+      <c r="E965"/>
+      <c r="F965"/>
+      <c r="G965"/>
+      <c r="H965"/>
+      <c r="I965"/>
     </row>
     <row r="966" spans="1:9">
-      <c r="A966" s="1" t="s">
-        <v>2512</v>
-      </c>
-      <c r="C966" s="2" t="s">
-        <v>2513</v>
-      </c>
-      <c r="D966" s="1" t="s">
-        <v>2506</v>
-      </c>
-      <c r="E966" s="3" t="s">
-        <v>2514</v>
-      </c>
-      <c r="F966" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G966" s="1">
-        <v>120</v>
-      </c>
-      <c r="I966" s="17" t="s">
-        <v>2515</v>
-      </c>
+      <c r="A966"/>
+      <c r="B966"/>
+      <c r="C966"/>
+      <c r="D966"/>
+      <c r="E966"/>
+      <c r="F966"/>
+      <c r="G966"/>
+      <c r="H966"/>
+      <c r="I966"/>
     </row>
     <row r="967" spans="1:9">
-      <c r="A967" s="1" t="s">
-        <v>2516</v>
-      </c>
-      <c r="C967" s="2" t="s">
-        <v>2517</v>
-      </c>
-      <c r="D967" s="1" t="s">
-        <v>2506</v>
-      </c>
-      <c r="E967" s="3" t="s">
-        <v>2514</v>
-      </c>
-      <c r="F967" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G967" s="1">
-        <v>120</v>
-      </c>
-      <c r="I967" s="17" t="s">
-        <v>2518</v>
-      </c>
-    </row>
-    <row r="968" ht="34.8" spans="1:9">
-      <c r="A968" s="16" t="s">
-        <v>2519</v>
-      </c>
-      <c r="C968" s="2" t="s">
-        <v>2520</v>
-      </c>
-      <c r="D968" s="1" t="s">
-        <v>2506</v>
-      </c>
-      <c r="E968" s="3" t="s">
-        <v>2507</v>
-      </c>
-      <c r="F968" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G968" s="1">
-        <v>59</v>
-      </c>
-      <c r="I968" s="17" t="s">
-        <v>2521</v>
-      </c>
-    </row>
-    <row r="969" ht="17.4" spans="1:9">
-      <c r="A969" s="16" t="s">
-        <v>2522</v>
-      </c>
-      <c r="C969" s="2" t="s">
-        <v>2523</v>
-      </c>
-      <c r="D969" s="1" t="s">
-        <v>2506</v>
-      </c>
-      <c r="E969" s="3" t="s">
-        <v>2524</v>
-      </c>
-      <c r="F969" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G969" s="1">
-        <v>500</v>
-      </c>
-      <c r="I969" s="17" t="s">
-        <v>2525</v>
-      </c>
-    </row>
-    <row r="970" ht="17.4" spans="1:9">
-      <c r="A970" s="16" t="s">
-        <v>2526</v>
-      </c>
-      <c r="C970" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="D970" s="1" t="s">
-        <v>2506</v>
-      </c>
-      <c r="E970" s="3" t="s">
-        <v>2524</v>
-      </c>
-      <c r="F970" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G970" s="3">
-        <v>220</v>
-      </c>
-      <c r="I970" s="17" t="s">
-        <v>2527</v>
-      </c>
-    </row>
-    <row r="971" ht="17.4" spans="1:9">
-      <c r="A971" s="16" t="s">
-        <v>2528</v>
-      </c>
-      <c r="C971" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D971" s="1" t="s">
-        <v>2506</v>
-      </c>
-      <c r="E971" s="3" t="s">
-        <v>2529</v>
-      </c>
-      <c r="F971" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G971" s="3">
-        <v>100</v>
-      </c>
-      <c r="I971" s="17" t="s">
-        <v>2530</v>
-      </c>
-    </row>
-    <row r="972" ht="17.4" spans="1:9">
-      <c r="A972" s="16" t="s">
-        <v>2531</v>
-      </c>
-      <c r="D972" s="1" t="s">
-        <v>2506</v>
-      </c>
-      <c r="E972" s="3" t="s">
-        <v>2529</v>
-      </c>
-      <c r="F972" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G972" s="3">
-        <v>100</v>
-      </c>
-      <c r="I972" s="17" t="s">
-        <v>2532</v>
-      </c>
-    </row>
-    <row r="973" ht="17.4" spans="1:9">
-      <c r="A973" s="16" t="s">
-        <v>2533</v>
-      </c>
-      <c r="C973" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E973" s="3" t="s">
-        <v>2534</v>
-      </c>
-      <c r="F973" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G973" s="3">
-        <v>429</v>
-      </c>
-      <c r="H973" s="1">
-        <v>19000</v>
-      </c>
-      <c r="I973" s="17" t="s">
-        <v>2535</v>
-      </c>
-    </row>
-    <row r="974" ht="17.4" spans="1:9">
-      <c r="A974" s="16" t="s">
-        <v>2536</v>
-      </c>
-      <c r="C974" s="2" t="s">
-        <v>2537</v>
-      </c>
-      <c r="E974" s="3" t="s">
-        <v>2534</v>
-      </c>
-      <c r="F974" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G974" s="3">
-        <v>400</v>
-      </c>
-      <c r="H974" s="1">
-        <v>66666.7</v>
-      </c>
-      <c r="I974" s="17" t="s">
-        <v>2538</v>
-      </c>
+      <c r="A967"/>
+      <c r="B967"/>
+      <c r="C967"/>
+      <c r="D967"/>
+      <c r="E967"/>
+      <c r="F967"/>
+      <c r="G967"/>
+      <c r="H967"/>
+      <c r="I967"/>
+    </row>
+    <row r="968" spans="1:9">
+      <c r="A968"/>
+      <c r="B968"/>
+      <c r="C968"/>
+      <c r="D968"/>
+      <c r="E968"/>
+      <c r="F968"/>
+      <c r="G968"/>
+      <c r="H968"/>
+      <c r="I968"/>
+    </row>
+    <row r="969" spans="1:9">
+      <c r="A969"/>
+      <c r="B969"/>
+      <c r="C969"/>
+      <c r="D969"/>
+      <c r="E969"/>
+      <c r="F969"/>
+      <c r="G969"/>
+      <c r="H969"/>
+      <c r="I969"/>
+    </row>
+    <row r="970" spans="1:9">
+      <c r="A970"/>
+      <c r="B970"/>
+      <c r="C970"/>
+      <c r="D970"/>
+      <c r="E970"/>
+      <c r="F970"/>
+      <c r="G970"/>
+      <c r="H970"/>
+      <c r="I970"/>
+    </row>
+    <row r="971" spans="1:9">
+      <c r="A971"/>
+      <c r="B971"/>
+      <c r="C971"/>
+      <c r="D971"/>
+      <c r="E971"/>
+      <c r="F971"/>
+      <c r="G971"/>
+      <c r="H971"/>
+      <c r="I971"/>
+    </row>
+    <row r="972" spans="1:9">
+      <c r="A972"/>
+      <c r="B972"/>
+      <c r="C972"/>
+      <c r="D972"/>
+      <c r="E972"/>
+      <c r="F972"/>
+      <c r="G972"/>
+      <c r="H972"/>
+      <c r="I972"/>
+    </row>
+    <row r="973" spans="1:9">
+      <c r="A973"/>
+      <c r="B973"/>
+      <c r="C973"/>
+      <c r="D973"/>
+      <c r="E973"/>
+      <c r="F973"/>
+      <c r="G973"/>
+      <c r="H973"/>
+      <c r="I973"/>
+    </row>
+    <row r="974" spans="1:9">
+      <c r="A974"/>
+      <c r="B974"/>
+      <c r="C974"/>
+      <c r="D974"/>
+      <c r="E974"/>
+      <c r="F974"/>
+      <c r="G974"/>
+      <c r="H974"/>
+      <c r="I974"/>
     </row>
     <row r="975" spans="1:9">
       <c r="A975" s="1" t="s">
-        <v>2539</v>
+        <v>2504</v>
       </c>
       <c r="G975" s="3">
         <v>225</v>

--- a/dataset/Facility.xlsx
+++ b/dataset/Facility.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ztan1\Documents\2020research\2020research\dataset\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30362F1D-A3B7-4446-A537-A9BE0039C8C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="全国" sheetId="1" r:id="rId1"/>
@@ -15,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5517" uniqueCount="2554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5562" uniqueCount="2591">
   <si>
     <t>Name</t>
   </si>
@@ -7678,20 +7684,146 @@
   </si>
   <si>
     <t>青阳路与高刘路交叉口，元祥广场内</t>
+  </si>
+  <si>
+    <t>成都圣约瑟康复中心</t>
+  </si>
+  <si>
+    <t>成都高新区紫瑞大道168号</t>
+  </si>
+  <si>
+    <t>8/1/2016</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>武侯区</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>民办</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>邛崃市九九红养老服务管理有限公司</t>
+  </si>
+  <si>
+    <t>6/20/2018</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>四川省成都市邛崃市临济镇石头场粮农街116号</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>邛崃市</t>
+  </si>
+  <si>
+    <t>福邻养老公寓顺城苑</t>
+  </si>
+  <si>
+    <t>成都市顺城大街149号</t>
+  </si>
+  <si>
+    <t>1/1/2019</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>锦江区</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>亲睦家•社区医养中心</t>
+  </si>
+  <si>
+    <t>成都市温江区春江西路518号</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>5/1/2018</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>温江区</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙湖椿山万树-成都梵城颐年公寓</t>
+  </si>
+  <si>
+    <t>成都市成华区成华大道杉板桥路266号</t>
+  </si>
+  <si>
+    <t>6/1/2020</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>成华区</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>新颐园养老公寓</t>
+  </si>
+  <si>
+    <t>成都市郫都区方桥村五组</t>
+  </si>
+  <si>
+    <t>6/15/2007</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>郫都区</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>民办公助</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>都江堰沁夕养老服务中心</t>
+  </si>
+  <si>
+    <t>都江堰康复路72号</t>
+  </si>
+  <si>
+    <t>5/22/2017</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>都江堰市</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>四川雅阁居养老服务有限公司</t>
+  </si>
+  <si>
+    <t>成都市龙泉驿区大面镇玉石村八组</t>
+  </si>
+  <si>
+    <t>3/10/2018</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙泉驿区</t>
+  </si>
+  <si>
+    <t>四川福瑞居养老服务有限公司</t>
+  </si>
+  <si>
+    <t>成都市金牛区两河路555号</t>
+  </si>
+  <si>
+    <t>12/28/2018</t>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="mm/dd/yy;@"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="178" formatCode="mm/dd/yy;@"/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7750,7 +7882,7 @@
       <sz val="11"/>
       <color rgb="FF555555"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -7766,345 +7898,45 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF6700"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -8127,255 +7959,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8388,7 +7978,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
@@ -8397,7 +7987,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
@@ -8439,7 +8029,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -8451,62 +8041,33 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -8764,30 +8325,30 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:J973"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J982"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A961" workbookViewId="0">
-      <selection activeCell="I971" sqref="I971"/>
+      <selection activeCell="C982" sqref="C982"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="34.3796296296296" style="3" customWidth="1"/>
+    <col min="1" max="1" width="34.375" style="3" customWidth="1"/>
     <col min="2" max="2" width="9" style="3" customWidth="1"/>
     <col min="3" max="3" width="24.25" style="4" customWidth="1"/>
     <col min="4" max="4" width="3.75" style="3" customWidth="1"/>
-    <col min="5" max="5" width="7.37962962962963" style="5" customWidth="1"/>
+    <col min="5" max="5" width="7.375" style="5" customWidth="1"/>
     <col min="6" max="6" width="8.5" style="3" customWidth="1"/>
     <col min="7" max="7" width="5.75" style="3" customWidth="1"/>
-    <col min="8" max="8" width="8.87962962962963" style="3"/>
+    <col min="8" max="8" width="8.875" style="3"/>
     <col min="9" max="9" width="43" style="3" customWidth="1"/>
-    <col min="10" max="10" width="11.1296296296296" style="3" customWidth="1"/>
+    <col min="10" max="10" width="11.125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -11466,7 +11027,7 @@
       </c>
       <c r="J101" s="6"/>
     </row>
-    <row r="102" ht="24" spans="1:10">
+    <row r="102" spans="1:10" ht="24">
       <c r="A102" s="14" t="s">
         <v>287</v>
       </c>
@@ -13020,7 +12581,7 @@
       </c>
       <c r="J173" s="6"/>
     </row>
-    <row r="174" ht="24" spans="1:10">
+    <row r="174" spans="1:10" ht="24">
       <c r="A174" s="13" t="s">
         <v>448</v>
       </c>
@@ -13402,7 +12963,7 @@
       </c>
       <c r="J187" s="6"/>
     </row>
-    <row r="188" ht="15" spans="1:10">
+    <row r="188" spans="1:10" ht="16.5">
       <c r="A188" s="13" t="s">
         <v>489</v>
       </c>
@@ -18358,7 +17919,7 @@
         <v>60</v>
       </c>
       <c r="H378" s="6">
-        <v>1240.4</v>
+        <v>1240.4000000000001</v>
       </c>
       <c r="I378" s="17" t="s">
         <v>1004</v>
@@ -19172,7 +18733,7 @@
         <v>259</v>
       </c>
       <c r="H408" s="6">
-        <v>9982.53</v>
+        <v>9982.5300000000007</v>
       </c>
       <c r="I408" s="17" t="s">
         <v>1084</v>
@@ -23349,7 +22910,7 @@
       </c>
       <c r="J562" s="6"/>
     </row>
-    <row r="563" spans="1:10">
+    <row r="563" spans="1:10" ht="15">
       <c r="A563" s="17" t="s">
         <v>1497</v>
       </c>
@@ -23401,7 +22962,7 @@
       </c>
       <c r="J564" s="6"/>
     </row>
-    <row r="565" ht="24" spans="1:10">
+    <row r="565" spans="1:10">
       <c r="A565" s="17" t="s">
         <v>1502</v>
       </c>
@@ -23427,7 +22988,7 @@
       </c>
       <c r="J565" s="6"/>
     </row>
-    <row r="566" ht="24" spans="1:10">
+    <row r="566" spans="1:10">
       <c r="A566" s="17" t="s">
         <v>1505</v>
       </c>
@@ -23747,7 +23308,7 @@
       </c>
       <c r="J577" s="6"/>
     </row>
-    <row r="578" ht="24" spans="1:10">
+    <row r="578" spans="1:10">
       <c r="A578" s="17" t="s">
         <v>1534</v>
       </c>
@@ -23883,7 +23444,7 @@
       </c>
       <c r="J582" s="6"/>
     </row>
-    <row r="583" ht="24" spans="1:10">
+    <row r="583" spans="1:10">
       <c r="A583" s="17" t="s">
         <v>1549</v>
       </c>
@@ -23989,7 +23550,7 @@
       </c>
       <c r="J586" s="6"/>
     </row>
-    <row r="587" ht="24" spans="1:10">
+    <row r="587" spans="1:10">
       <c r="A587" s="17" t="s">
         <v>1559</v>
       </c>
@@ -24071,7 +23632,7 @@
       </c>
       <c r="J589" s="6"/>
     </row>
-    <row r="590" ht="24" spans="1:10">
+    <row r="590" spans="1:10" ht="24">
       <c r="A590" s="17" t="s">
         <v>1568</v>
       </c>
@@ -26128,7 +25689,7 @@
         <v>400</v>
       </c>
       <c r="H667" s="6">
-        <v>10455.3</v>
+        <v>10455.299999999999</v>
       </c>
       <c r="I667" s="17" t="s">
         <v>1765</v>
@@ -26643,7 +26204,7 @@
       </c>
       <c r="J686" s="6"/>
     </row>
-    <row r="687" ht="24" spans="1:10">
+    <row r="687" spans="1:10">
       <c r="A687" s="17" t="s">
         <v>1814</v>
       </c>
@@ -26751,7 +26312,7 @@
       </c>
       <c r="J690" s="6"/>
     </row>
-    <row r="691" ht="24" spans="1:10">
+    <row r="691" spans="1:10">
       <c r="A691" s="17" t="s">
         <v>1826</v>
       </c>
@@ -27241,7 +26802,7 @@
       </c>
       <c r="J709" s="6"/>
     </row>
-    <row r="710" ht="24" spans="1:10">
+    <row r="710" spans="1:10">
       <c r="A710" s="17" t="s">
         <v>1872</v>
       </c>
@@ -28176,7 +27737,7 @@
         <v>127</v>
       </c>
       <c r="H746" s="6">
-        <v>4359.19</v>
+        <v>4359.1899999999996</v>
       </c>
       <c r="I746" s="17" t="s">
         <v>1959</v>
@@ -28209,7 +27770,7 @@
       </c>
       <c r="J747" s="6"/>
     </row>
-    <row r="748" ht="24" spans="1:10">
+    <row r="748" spans="1:10">
       <c r="A748" s="17" t="s">
         <v>1962</v>
       </c>
@@ -28258,7 +27819,7 @@
         <v>303</v>
       </c>
       <c r="H749" s="6">
-        <v>9590.37</v>
+        <v>9590.3700000000008</v>
       </c>
       <c r="I749" s="17" t="s">
         <v>1966</v>
@@ -28954,7 +28515,7 @@
         <v>529</v>
       </c>
       <c r="H775" s="6">
-        <v>18311.4</v>
+        <v>18311.400000000001</v>
       </c>
       <c r="I775" s="17" t="s">
         <v>2031</v>
@@ -29223,7 +28784,7 @@
       </c>
       <c r="J785" s="6"/>
     </row>
-    <row r="786" ht="24" spans="1:10">
+    <row r="786" spans="1:10">
       <c r="A786" s="17" t="s">
         <v>2058</v>
       </c>
@@ -29279,7 +28840,7 @@
       </c>
       <c r="J787" s="6"/>
     </row>
-    <row r="788" ht="24" spans="1:10">
+    <row r="788" spans="1:10">
       <c r="A788" s="17" t="s">
         <v>2063</v>
       </c>
@@ -29307,7 +28868,7 @@
       </c>
       <c r="J788" s="6"/>
     </row>
-    <row r="789" ht="24" spans="1:10">
+    <row r="789" spans="1:10">
       <c r="A789" s="17" t="s">
         <v>2066</v>
       </c>
@@ -29461,7 +29022,7 @@
       </c>
       <c r="J794" s="6"/>
     </row>
-    <row r="795" ht="24" spans="1:10">
+    <row r="795" spans="1:10">
       <c r="A795" s="17" t="s">
         <v>2083</v>
       </c>
@@ -29884,7 +29445,7 @@
         <v>105</v>
       </c>
       <c r="H810" s="6">
-        <v>2294.8</v>
+        <v>2294.8000000000002</v>
       </c>
       <c r="I810" s="17" t="s">
         <v>2123</v>
@@ -31083,7 +30644,7 @@
       </c>
       <c r="J854" s="6"/>
     </row>
-    <row r="855" ht="24" spans="1:10">
+    <row r="855" spans="1:10">
       <c r="A855" s="17" t="s">
         <v>2233</v>
       </c>
@@ -33911,7 +33472,7 @@
       </c>
       <c r="J962" s="6"/>
     </row>
-    <row r="963" spans="1:9">
+    <row r="963" spans="1:10" ht="16.5">
       <c r="A963" s="19" t="s">
         <v>2503</v>
       </c>
@@ -33938,7 +33499,7 @@
         <v>2507</v>
       </c>
     </row>
-    <row r="964" spans="1:9">
+    <row r="964" spans="1:10" ht="16.5">
       <c r="A964" s="19" t="s">
         <v>2508</v>
       </c>
@@ -33963,7 +33524,7 @@
         <v>2510</v>
       </c>
     </row>
-    <row r="965" spans="1:9">
+    <row r="965" spans="1:10" ht="16.5">
       <c r="A965" s="19" t="s">
         <v>2511</v>
       </c>
@@ -33988,7 +33549,7 @@
         <v>2514</v>
       </c>
     </row>
-    <row r="966" spans="1:9">
+    <row r="966" spans="1:10" ht="16.5">
       <c r="A966" s="19" t="s">
         <v>2515</v>
       </c>
@@ -34013,7 +33574,7 @@
         <v>2517</v>
       </c>
     </row>
-    <row r="967" ht="34.8" spans="1:9">
+    <row r="967" spans="1:10" ht="18">
       <c r="A967" s="23" t="s">
         <v>2518</v>
       </c>
@@ -34038,7 +33599,7 @@
         <v>2520</v>
       </c>
     </row>
-    <row r="968" ht="17.4" spans="1:9">
+    <row r="968" spans="1:10" ht="18">
       <c r="A968" s="23" t="s">
         <v>2521</v>
       </c>
@@ -34063,7 +33624,7 @@
         <v>2524</v>
       </c>
     </row>
-    <row r="969" ht="17.4" spans="1:9">
+    <row r="969" spans="1:10" ht="18">
       <c r="A969" s="23" t="s">
         <v>2525</v>
       </c>
@@ -34088,7 +33649,7 @@
         <v>2526</v>
       </c>
     </row>
-    <row r="970" ht="17.4" spans="1:9">
+    <row r="970" spans="1:10" ht="18">
       <c r="A970" s="23" t="s">
         <v>2527</v>
       </c>
@@ -34113,7 +33674,7 @@
         <v>2529</v>
       </c>
     </row>
-    <row r="971" ht="17.4" spans="1:9">
+    <row r="971" spans="1:10" ht="18">
       <c r="A971" s="23" t="s">
         <v>2530</v>
       </c>
@@ -34136,7 +33697,7 @@
         <v>2531</v>
       </c>
     </row>
-    <row r="972" ht="17.4" spans="1:9">
+    <row r="972" spans="1:10" ht="18">
       <c r="A972" s="23" t="s">
         <v>2532</v>
       </c>
@@ -34161,7 +33722,7 @@
         <v>2534</v>
       </c>
     </row>
-    <row r="973" ht="17.4" spans="1:9">
+    <row r="973" spans="1:10" ht="18">
       <c r="A973" s="23" t="s">
         <v>2535</v>
       </c>
@@ -34186,28 +33747,225 @@
         <v>2537</v>
       </c>
     </row>
+    <row r="974" spans="1:10" ht="18">
+      <c r="A974" s="25" t="s">
+        <v>2554</v>
+      </c>
+      <c r="C974" s="27" t="s">
+        <v>2556</v>
+      </c>
+      <c r="E974" s="28" t="s">
+        <v>2557</v>
+      </c>
+      <c r="F974" s="29" t="s">
+        <v>2558</v>
+      </c>
+      <c r="G974" s="3">
+        <v>120</v>
+      </c>
+      <c r="H974" s="3">
+        <v>3300</v>
+      </c>
+      <c r="I974" s="26" t="s">
+        <v>2555</v>
+      </c>
+    </row>
+    <row r="975" spans="1:10" ht="18">
+      <c r="A975" s="25" t="s">
+        <v>2559</v>
+      </c>
+      <c r="C975" s="27" t="s">
+        <v>2560</v>
+      </c>
+      <c r="E975" s="5" t="s">
+        <v>2562</v>
+      </c>
+      <c r="F975" s="29" t="s">
+        <v>2558</v>
+      </c>
+      <c r="G975" s="3">
+        <v>64</v>
+      </c>
+      <c r="H975" s="3">
+        <v>2680</v>
+      </c>
+      <c r="I975" s="26" t="s">
+        <v>2561</v>
+      </c>
+    </row>
+    <row r="976" spans="1:10" ht="18">
+      <c r="A976" s="25" t="s">
+        <v>2563</v>
+      </c>
+      <c r="C976" s="27" t="s">
+        <v>2565</v>
+      </c>
+      <c r="E976" s="28" t="s">
+        <v>2566</v>
+      </c>
+      <c r="F976" s="29" t="s">
+        <v>2558</v>
+      </c>
+      <c r="G976" s="3">
+        <v>139</v>
+      </c>
+      <c r="H976" s="3">
+        <v>4300</v>
+      </c>
+      <c r="I976" s="26" t="s">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="977" spans="1:9" ht="18">
+      <c r="A977" s="25" t="s">
+        <v>2567</v>
+      </c>
+      <c r="C977" s="27" t="s">
+        <v>2569</v>
+      </c>
+      <c r="E977" s="28" t="s">
+        <v>2570</v>
+      </c>
+      <c r="F977" s="29" t="s">
+        <v>2558</v>
+      </c>
+      <c r="G977" s="3">
+        <v>307</v>
+      </c>
+      <c r="I977" s="26" t="s">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="978" spans="1:9" ht="18">
+      <c r="A978" s="25" t="s">
+        <v>2571</v>
+      </c>
+      <c r="C978" s="27" t="s">
+        <v>2573</v>
+      </c>
+      <c r="E978" s="28" t="s">
+        <v>2574</v>
+      </c>
+      <c r="F978" s="29" t="s">
+        <v>2558</v>
+      </c>
+      <c r="G978" s="3">
+        <v>326</v>
+      </c>
+      <c r="H978" s="3">
+        <v>12000</v>
+      </c>
+      <c r="I978" s="26" t="s">
+        <v>2572</v>
+      </c>
+    </row>
+    <row r="979" spans="1:9" ht="18">
+      <c r="A979" s="25" t="s">
+        <v>2575</v>
+      </c>
+      <c r="C979" s="27" t="s">
+        <v>2577</v>
+      </c>
+      <c r="E979" s="28" t="s">
+        <v>2578</v>
+      </c>
+      <c r="F979" s="29" t="s">
+        <v>2579</v>
+      </c>
+      <c r="G979" s="3">
+        <v>200</v>
+      </c>
+      <c r="H979" s="3">
+        <v>33333</v>
+      </c>
+      <c r="I979" s="26" t="s">
+        <v>2576</v>
+      </c>
+    </row>
+    <row r="980" spans="1:9" ht="18">
+      <c r="A980" s="25" t="s">
+        <v>2580</v>
+      </c>
+      <c r="C980" s="27" t="s">
+        <v>2582</v>
+      </c>
+      <c r="E980" s="28" t="s">
+        <v>2583</v>
+      </c>
+      <c r="F980" s="29" t="s">
+        <v>2558</v>
+      </c>
+      <c r="G980" s="3">
+        <v>30</v>
+      </c>
+      <c r="I980" s="26" t="s">
+        <v>2581</v>
+      </c>
+    </row>
+    <row r="981" spans="1:9" ht="18">
+      <c r="A981" s="25" t="s">
+        <v>2584</v>
+      </c>
+      <c r="C981" s="27" t="s">
+        <v>2586</v>
+      </c>
+      <c r="E981" s="26" t="s">
+        <v>2587</v>
+      </c>
+      <c r="F981" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="G981" s="26">
+        <v>380</v>
+      </c>
+      <c r="I981" s="26" t="s">
+        <v>2585</v>
+      </c>
+    </row>
+    <row r="982" spans="1:9" ht="18">
+      <c r="A982" s="25" t="s">
+        <v>2588</v>
+      </c>
+      <c r="C982" s="27" t="s">
+        <v>2590</v>
+      </c>
+      <c r="E982" s="26" t="s">
+        <v>2513</v>
+      </c>
+      <c r="F982" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="G982" s="26">
+        <v>82</v>
+      </c>
+      <c r="H982" s="26">
+        <v>3016</v>
+      </c>
+      <c r="I982" s="26" t="s">
+        <v>2589</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="25.5" customWidth="1"/>
     <col min="2" max="2" width="18.75" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="6" max="6" width="10.1296296296296" customWidth="1"/>
+    <col min="6" max="6" width="10.125" customWidth="1"/>
     <col min="9" max="9" width="31.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -34240,7 +33998,7 @@
         <v>2546</v>
       </c>
     </row>
-    <row r="2" ht="15.6" spans="1:9">
+    <row r="2" spans="1:9" ht="16.5">
       <c r="A2" s="2" t="s">
         <v>2547</v>
       </c>
@@ -34266,7 +34024,7 @@
         <v>2549</v>
       </c>
     </row>
-    <row r="3" ht="15.6" spans="1:9">
+    <row r="3" spans="1:9" ht="16.5">
       <c r="A3" s="1" t="s">
         <v>2550</v>
       </c>
@@ -34296,8 +34054,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
--- a/dataset/Facility.xlsx
+++ b/dataset/Facility.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ztan1\Documents\2020research\2020research\dataset\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30362F1D-A3B7-4446-A537-A9BE0039C8C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="全国" sheetId="1" r:id="rId1"/>
@@ -21,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5562" uniqueCount="2591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6173" uniqueCount="2907">
   <si>
     <t>Name</t>
   </si>
@@ -7638,6 +7632,1105 @@
     <t>成都市郫都区安靖镇方桥村六组309号</t>
   </si>
   <si>
+    <t>成都圣约瑟康复中心</t>
+  </si>
+  <si>
+    <t>8/1/2016</t>
+  </si>
+  <si>
+    <t>武侯区</t>
+  </si>
+  <si>
+    <t>成都高新区紫瑞大道168号</t>
+  </si>
+  <si>
+    <t>邛崃市九九红养老服务管理有限公司</t>
+  </si>
+  <si>
+    <t>6/20/2018</t>
+  </si>
+  <si>
+    <t>邛崃市</t>
+  </si>
+  <si>
+    <t>四川省成都市邛崃市临济镇石头场粮农街116号</t>
+  </si>
+  <si>
+    <t>福邻养老公寓顺城苑</t>
+  </si>
+  <si>
+    <t>成都市顺城大街149号</t>
+  </si>
+  <si>
+    <t>亲睦家•社区医养中心</t>
+  </si>
+  <si>
+    <t>5/1/2018</t>
+  </si>
+  <si>
+    <t>成都市温江区春江西路518号</t>
+  </si>
+  <si>
+    <t>龙湖椿山万树-成都梵城颐年公寓</t>
+  </si>
+  <si>
+    <t>6/1/2020</t>
+  </si>
+  <si>
+    <t>成华区</t>
+  </si>
+  <si>
+    <t>成都市成华区成华大道杉板桥路266号</t>
+  </si>
+  <si>
+    <t>新颐园养老公寓</t>
+  </si>
+  <si>
+    <t>6/15/2007</t>
+  </si>
+  <si>
+    <t>成都市郫都区方桥村五组</t>
+  </si>
+  <si>
+    <t>都江堰沁夕养老服务中心</t>
+  </si>
+  <si>
+    <t>5/22/2017</t>
+  </si>
+  <si>
+    <t>都江堰市</t>
+  </si>
+  <si>
+    <t>都江堰康复路72号</t>
+  </si>
+  <si>
+    <t>四川雅阁居养老服务有限公司</t>
+  </si>
+  <si>
+    <t>3/10/2018</t>
+  </si>
+  <si>
+    <t>龙泉驿区</t>
+  </si>
+  <si>
+    <t>成都市龙泉驿区大面镇玉石村八组</t>
+  </si>
+  <si>
+    <t>四川福瑞居养老服务有限公司</t>
+  </si>
+  <si>
+    <t>12/28/2018</t>
+  </si>
+  <si>
+    <t>成都市金牛区两河路555号</t>
+  </si>
+  <si>
+    <t>龙泉聚宝山养老中心</t>
+  </si>
+  <si>
+    <t>3/17/2018</t>
+  </si>
+  <si>
+    <t>四川省成都市龙泉驿区阳光城阳光大道4号</t>
+  </si>
+  <si>
+    <t>德怡智康颐养中心</t>
+  </si>
+  <si>
+    <t>11/19/2018</t>
+  </si>
+  <si>
+    <t>成都市武侯区晋吉北路107号</t>
+  </si>
+  <si>
+    <t>纯德德怡智康养老中心</t>
+  </si>
+  <si>
+    <t>武侯区晋吉北路107号</t>
+  </si>
+  <si>
+    <t>汇橙普惠（黄龙溪）养老中心</t>
+  </si>
+  <si>
+    <t>四川省成都市双流区黄龙溪镇大河村202号</t>
+  </si>
+  <si>
+    <t>成都泰邦健康长者公寓</t>
+  </si>
+  <si>
+    <t>成都市武侯区西部鞋都南二路68号</t>
+  </si>
+  <si>
+    <t>晨斓养老院</t>
+  </si>
+  <si>
+    <t>成都市青羊区双清南路9号</t>
+  </si>
+  <si>
+    <t>正黄熙悦里康养公寓</t>
+  </si>
+  <si>
+    <t>成都市成华区东秀一路219号</t>
+  </si>
+  <si>
+    <t>泰康之家•蜀园</t>
+  </si>
+  <si>
+    <t>成都市温江区芙蓉大道开金路669号</t>
+  </si>
+  <si>
+    <t>远洋•椿萱茂(成都簇桥)老年公寓</t>
+  </si>
+  <si>
+    <t>6/1/2018</t>
+  </si>
+  <si>
+    <t>成都市武侯区金履一路187号美丽都汇5栋</t>
+  </si>
+  <si>
+    <t>远洋•椿萱茂（成都南三环）老年公寓</t>
+  </si>
+  <si>
+    <t>9/10/2019</t>
+  </si>
+  <si>
+    <t>四川省成都市锦江区锦丰一路39号</t>
+  </si>
+  <si>
+    <t>首慈乐享荟（成都高新）颐养中心</t>
+  </si>
+  <si>
+    <t>11/1/2019</t>
+  </si>
+  <si>
+    <t>成都市高新区领馆国际城</t>
+  </si>
+  <si>
+    <t>成都康和敏盛社区长辈照护中心</t>
+  </si>
+  <si>
+    <t>2/25/2017</t>
+  </si>
+  <si>
+    <t>四川省成都市天府新区华阳街道滨河路三段188号</t>
+  </si>
+  <si>
+    <t>成都市青羊区瑞吉养老服务中心</t>
+  </si>
+  <si>
+    <t>成都市青羊区草堂北西街20号</t>
+  </si>
+  <si>
+    <t>成都蒲公英老年护理中心</t>
+  </si>
+  <si>
+    <t>9/1/2018</t>
+  </si>
+  <si>
+    <t>四川省成都市成华区龙潭寺航天路29号</t>
+  </si>
+  <si>
+    <t>成都市武侯区机投桥街道潮音社区小柏长者照护中心</t>
+  </si>
+  <si>
+    <t>1/1/2020</t>
+  </si>
+  <si>
+    <t>成都市武侯区机投桥街道潮音社区武新花园</t>
+  </si>
+  <si>
+    <t>德恩堂养老照护中心</t>
+  </si>
+  <si>
+    <t>四川省成都市金牛区蜀蓉路38号</t>
+  </si>
+  <si>
+    <t>都江堰市青城山青城雅居养老休闲庄</t>
+  </si>
+  <si>
+    <t>四川省都江堰市青城山镇药王路上段桃花街42号</t>
+  </si>
+  <si>
+    <t>成都龙泉蓉东福寿养老院</t>
+  </si>
+  <si>
+    <t>3/15/2015</t>
+  </si>
+  <si>
+    <t>四川省成都市龙泉驿区洛带镇岐山村6组151号</t>
+  </si>
+  <si>
+    <t>云崖牧歌康养中心</t>
+  </si>
+  <si>
+    <t>3/28/2018</t>
+  </si>
+  <si>
+    <t>成都市武侯区紫瑞大道178号</t>
+  </si>
+  <si>
+    <t>成都市稻麦园老年休闲中心</t>
+  </si>
+  <si>
+    <t>成都市青羊区光华大道一段西二蔡桥社区</t>
+  </si>
+  <si>
+    <t>成都市园缘老年公寓</t>
+  </si>
+  <si>
+    <t>成都市成华区成渝立交桥旁东虹路33号</t>
+  </si>
+  <si>
+    <t>都江堰市玉梦缘钟养老中心</t>
+  </si>
+  <si>
+    <t>7/16/2013</t>
+  </si>
+  <si>
+    <t>都江堰市石羊镇广益社区</t>
+  </si>
+  <si>
+    <t>大爱城高档养生养老公寓</t>
+  </si>
+  <si>
+    <t>新都区</t>
+  </si>
+  <si>
+    <t>成都市武侯区高升桥路9号</t>
+  </si>
+  <si>
+    <t>崇州市街子镇古寺村卞家花园养老服务中心</t>
+  </si>
+  <si>
+    <t>5/18/2014</t>
+  </si>
+  <si>
+    <t>崇州市</t>
+  </si>
+  <si>
+    <t>成都市崇州街子镇古寺村7组</t>
+  </si>
+  <si>
+    <t>天府新区一暄康养养老服务中心</t>
+  </si>
+  <si>
+    <t>3/25/2016</t>
+  </si>
+  <si>
+    <t>成都天府新区天府大道南段2039号</t>
+  </si>
+  <si>
+    <t>四川颐伦健康管理股份有限公司</t>
+  </si>
+  <si>
+    <t>四川省高新区德商国际1108号</t>
+  </si>
+  <si>
+    <t>玉林北路社区朗力养老服务中心</t>
+  </si>
+  <si>
+    <t>8/30/2012</t>
+  </si>
+  <si>
+    <t>成都武侯区玉林横街25号</t>
+  </si>
+  <si>
+    <t>双新社区朗力养老服务中心</t>
+  </si>
+  <si>
+    <t>9/28/2011</t>
+  </si>
+  <si>
+    <t>成都青羊区贝森路313号</t>
+  </si>
+  <si>
+    <t>双桥子街道朗力养老服务中心</t>
+  </si>
+  <si>
+    <t>8/25/2013</t>
+  </si>
+  <si>
+    <t>成都成华区双林北横路76号</t>
+  </si>
+  <si>
+    <t>猛追湾东街社区朗力养老服务中心</t>
+  </si>
+  <si>
+    <t>10/12/2013</t>
+  </si>
+  <si>
+    <t>成都成华区猛追湾东街6号</t>
+  </si>
+  <si>
+    <t>四川德缘科学养生养老公寓</t>
+  </si>
+  <si>
+    <t>11/4/2013</t>
+  </si>
+  <si>
+    <t>大邑县</t>
+  </si>
+  <si>
+    <t>成都市大邑县安仁镇安惠里街68号</t>
+  </si>
+  <si>
+    <t>成都市新都区花香果居养老院</t>
+  </si>
+  <si>
+    <t>四川省成都市新都区安必胜石油南桥加油站</t>
+  </si>
+  <si>
+    <t>成都木船养老服务有限公司</t>
+  </si>
+  <si>
+    <t>成都市锦江区华润路12号</t>
+  </si>
+  <si>
+    <t>成都康瑞养老服务中心</t>
+  </si>
+  <si>
+    <t>2/20/2017</t>
+  </si>
+  <si>
+    <r>
+      <t>成都市郫都区彭温路唐昌镇西蜀旺角</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF4C4C4C"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>42</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF4C4C4C"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>号</t>
+    </r>
+  </si>
+  <si>
+    <t>成都西蜀康馨缘颐养中心</t>
+  </si>
+  <si>
+    <t>6/1/2007</t>
+  </si>
+  <si>
+    <t>成都温江区金马温泉社区</t>
+  </si>
+  <si>
+    <t>成都鑫熠小城故事国际养老公寓</t>
+  </si>
+  <si>
+    <t>成都市郫县安德镇安平东路288号</t>
+  </si>
+  <si>
+    <t>三界养老院</t>
+  </si>
+  <si>
+    <t>彭州市</t>
+  </si>
+  <si>
+    <t>成都彭州市三界镇新埝村</t>
+  </si>
+  <si>
+    <t>新津岷江颐养居</t>
+  </si>
+  <si>
+    <t>新津县</t>
+  </si>
+  <si>
+    <t>四川省成都市新津县普兴镇骑龙村五组</t>
+  </si>
+  <si>
+    <t>崇州市花果山老年公寓</t>
+  </si>
+  <si>
+    <t>5/5/2007</t>
+  </si>
+  <si>
+    <t>成都崇州市公议乡花果山村11组</t>
+  </si>
+  <si>
+    <t>颐福园养老服务中心</t>
+  </si>
+  <si>
+    <t>11/1/2016</t>
+  </si>
+  <si>
+    <t>金堂县</t>
+  </si>
+  <si>
+    <t>成都金堂县赵镇观音山村5组</t>
+  </si>
+  <si>
+    <t>西蜀•银杏康乐园</t>
+  </si>
+  <si>
+    <t>成都市郫都区古城镇蜀源南路750号</t>
+  </si>
+  <si>
+    <t>成都兰苑康养中心</t>
+  </si>
+  <si>
+    <t>3/5/2014</t>
+  </si>
+  <si>
+    <t>成都市都江堰市青城山镇大三路3号</t>
+  </si>
+  <si>
+    <t>成都市温江区星瑞寿而康养老服务有限公司</t>
+  </si>
+  <si>
+    <t>8/9/2017</t>
+  </si>
+  <si>
+    <t>万春镇镇子场花园路红专社区12组</t>
+  </si>
+  <si>
+    <t>成都天府新区颐养居养老服务中心</t>
+  </si>
+  <si>
+    <t>3/9/2017</t>
+  </si>
+  <si>
+    <t>成都天府新区正兴大安路449号</t>
+  </si>
+  <si>
+    <t>成东疗养康复托老院</t>
+  </si>
+  <si>
+    <t>3/20/2002</t>
+  </si>
+  <si>
+    <t>成都市龙泉驿区十陵街道太平村三组209号</t>
+  </si>
+  <si>
+    <t>都江堰惠生康养公寓</t>
+  </si>
+  <si>
+    <t>3/28/2015</t>
+  </si>
+  <si>
+    <t>成都市都江堰市上善南路60号</t>
+  </si>
+  <si>
+    <t>成都康福老年护理院</t>
+  </si>
+  <si>
+    <t>9/1/2013</t>
+  </si>
+  <si>
+    <t>成都市二环路西一段15号</t>
+  </si>
+  <si>
+    <t>黄龙溪善雄慈航老年公寓</t>
+  </si>
+  <si>
+    <t>成都市双流区黄龙溪镇镇龙街38号</t>
+  </si>
+  <si>
+    <t>雅閣居•成都玉石老年公寓</t>
+  </si>
+  <si>
+    <t>5/5/2019</t>
+  </si>
+  <si>
+    <t>四川省成都市龙泉驿区大面镇玉石村8组</t>
+  </si>
+  <si>
+    <t>新义水乡康养中心</t>
+  </si>
+  <si>
+    <t>四川省成都市新津区金马河大桥</t>
+  </si>
+  <si>
+    <t>金堂县久久养老中心</t>
+  </si>
+  <si>
+    <t>7/19/2016</t>
+  </si>
+  <si>
+    <t>成都市金堂县云绣社区13组云绣新城</t>
+  </si>
+  <si>
+    <t>四川善雄慈航集团有限公司彭山享寿城</t>
+  </si>
+  <si>
+    <t>7/11/2019</t>
+  </si>
+  <si>
+    <t>四川省成都武侯区武阳大道一段252号</t>
+  </si>
+  <si>
+    <t>成都市启阳爱心颐养中心</t>
+  </si>
+  <si>
+    <t>3/15/2019</t>
+  </si>
+  <si>
+    <t>成都市龙泉驿区大面镇青台山村11组300号</t>
+  </si>
+  <si>
+    <t>成都市新都区迎祥养老院</t>
+  </si>
+  <si>
+    <t>4/18/2017</t>
+  </si>
+  <si>
+    <t>成都市新都区清流镇柳泉村11社168号</t>
+  </si>
+  <si>
+    <t>成都市龙泉驿区八角井社区怡安日间照料中心</t>
+  </si>
+  <si>
+    <t>2/26/2019</t>
+  </si>
+  <si>
+    <t>成都市龙泉驿区洛带镇振兴街851号</t>
+  </si>
+  <si>
+    <t>成都青孝颐养养老服务有限公司</t>
+  </si>
+  <si>
+    <t>成都市武侯区红牌楼一街179号</t>
+  </si>
+  <si>
+    <t>崇州市正好养老服务中心</t>
+  </si>
+  <si>
+    <t>12/30/2018</t>
+  </si>
+  <si>
+    <t>成都市崇州市十字北路104号</t>
+  </si>
+  <si>
+    <t>成都市成华区和生祥和长者康护中心</t>
+  </si>
+  <si>
+    <t>8/15/2012</t>
+  </si>
+  <si>
+    <t>成都市成华区一环路东三段祥和里26号</t>
+  </si>
+  <si>
+    <t>纯德德孝康养养老中心</t>
+  </si>
+  <si>
+    <t>四川省成都市龙泉驿区龙都南路308号</t>
+  </si>
+  <si>
+    <t>成都益民医养</t>
+  </si>
+  <si>
+    <t>成都市锦江区成龙路街道皇经楼七组85号</t>
+  </si>
+  <si>
+    <t>成都和康养老服务有限公司</t>
+  </si>
+  <si>
+    <t>7/25/2011</t>
+  </si>
+  <si>
+    <t>四川省成都市青羊区东坡北一路95号</t>
+  </si>
+  <si>
+    <t>成都双流玄至孝（黄龙溪）养老服务中心</t>
+  </si>
+  <si>
+    <t>成都市双流区天府创客公园</t>
+  </si>
+  <si>
+    <t>成都天乡养老服务有限公司</t>
+  </si>
+  <si>
+    <t>11/8/2017</t>
+  </si>
+  <si>
+    <t>成都市温江区万春镇天乡路一段天乡后街2478号</t>
+  </si>
+  <si>
+    <t>颐心源长者照护中心</t>
+  </si>
+  <si>
+    <t>成都市金牛区蜀西南二路200号</t>
+  </si>
+  <si>
+    <t>成都市成华区建祥路6号</t>
+  </si>
+  <si>
+    <t>成都侨颐园养老服务有限公司</t>
+  </si>
+  <si>
+    <t>成都市龙泉驿区民和路龙泉驿区敬老院</t>
+  </si>
+  <si>
+    <t>保利成都和熹会</t>
+  </si>
+  <si>
+    <t>成都市金牛区土龙路38号</t>
+  </si>
+  <si>
+    <t>青白江红阳颐养居</t>
+  </si>
+  <si>
+    <t>青白江区</t>
+  </si>
+  <si>
+    <t>成都市青白江区红华街609号</t>
+  </si>
+  <si>
+    <t>成都市青羊区祥和长者康护中心</t>
+  </si>
+  <si>
+    <t>12/25/2017</t>
+  </si>
+  <si>
+    <t>成都市青羊区玉宇路977号</t>
+  </si>
+  <si>
+    <t>成都青龙街道泽安社区养老院</t>
+  </si>
+  <si>
+    <t>成华区致强环街523号</t>
+  </si>
+  <si>
+    <t>护润德康复中心</t>
+  </si>
+  <si>
+    <t>成都市成华区双荆路6号</t>
+  </si>
+  <si>
+    <t>大邑县恩威道源养老中心</t>
+  </si>
+  <si>
+    <t>8/28/2017</t>
+  </si>
+  <si>
+    <t>四川省成都市大邑县鹤鸣山平阳路1号</t>
+  </si>
+  <si>
+    <t>孝慈苑居家养老服务中心</t>
+  </si>
+  <si>
+    <t>3/31/2017</t>
+  </si>
+  <si>
+    <t>成都市锦江区翡翠城二期</t>
+  </si>
+  <si>
+    <t>泰邦优护社区中心</t>
+  </si>
+  <si>
+    <t>3/8/2018</t>
+  </si>
+  <si>
+    <t>成都市金牛区百寿路13号</t>
+  </si>
+  <si>
+    <t>成都慈爱汇佳养老服务有限公司</t>
+  </si>
+  <si>
+    <t>4/15/2018</t>
+  </si>
+  <si>
+    <t>成都市成华区槐树店路40号</t>
+  </si>
+  <si>
+    <t>康和敏盛长辈康复照护中心</t>
+  </si>
+  <si>
+    <t>3/18/2018</t>
+  </si>
+  <si>
+    <t>成都市金牛区西华街道侯家花园侯家桥路272号</t>
+  </si>
+  <si>
+    <t>成都市锦江区暖巢人家照料护理中心</t>
+  </si>
+  <si>
+    <t>12/25/2012</t>
+  </si>
+  <si>
+    <t>成都市锦江区东光南二巷70号</t>
+  </si>
+  <si>
+    <t>成都武侯川南医养结合养老院</t>
+  </si>
+  <si>
+    <t>武侯区金花镇李家祠凉港二路川南医院</t>
+  </si>
+  <si>
+    <t>成都河滨社区日间照料中心</t>
+  </si>
+  <si>
+    <t>12/13/2017</t>
+  </si>
+  <si>
+    <t>成都市锦江区龙舟路街道河滨社区龙舟东巷19号</t>
+  </si>
+  <si>
+    <t>成都莲桂西路社区日间照料中心</t>
+  </si>
+  <si>
+    <t>12/18/2017</t>
+  </si>
+  <si>
+    <t>成都市锦江区龙舟路街道莲桂西路社区工农院街6号</t>
+  </si>
+  <si>
+    <t>礼爱老年介护中心</t>
+  </si>
+  <si>
+    <t>四川省成都市金牛区蜀汉路359号</t>
+  </si>
+  <si>
+    <t>成都市锦江区益民养老服务中心</t>
+  </si>
+  <si>
+    <t>5/15/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">民办 </t>
+  </si>
+  <si>
+    <t>成都市锦江区经天路33号</t>
+  </si>
+  <si>
+    <t>天府怡园康养中心</t>
+  </si>
+  <si>
+    <t>四川成都崇州桤泉镇灵通村6组</t>
+  </si>
+  <si>
+    <t>崇州市崇阳街道北楸社区日间照料中心</t>
+  </si>
+  <si>
+    <t>崇州市崇阳街道文化东街21号</t>
+  </si>
+  <si>
+    <t>蜀国鹃都养老中心</t>
+  </si>
+  <si>
+    <t>4/28/2010</t>
+  </si>
+  <si>
+    <t>成都市郫都区太平村1社88号</t>
+  </si>
+  <si>
+    <t>四川幸福万家旅居养老服务有限公司</t>
+  </si>
+  <si>
+    <t>四川省成都市锦江区东大街东方广场</t>
+  </si>
+  <si>
+    <t>成都市武侯区长青树养老院</t>
+  </si>
+  <si>
+    <t>8/20/2017</t>
+  </si>
+  <si>
+    <t>成都市武侯区机投镇草金南路26号</t>
+  </si>
+  <si>
+    <t>圆缘养老-大同老人关爱服务中心</t>
+  </si>
+  <si>
+    <t>温江区万春镇春香街88号</t>
+  </si>
+  <si>
+    <t>圆缘养老-幸福慈孝养老空间</t>
+  </si>
+  <si>
+    <t>5/20/2016</t>
+  </si>
+  <si>
+    <t>温江区幸福田园一期</t>
+  </si>
+  <si>
+    <t>温江区柳城大道东段18号</t>
+  </si>
+  <si>
+    <t>金马河畔.颐养小镇</t>
+  </si>
+  <si>
+    <t>1/8/2017</t>
+  </si>
+  <si>
+    <t>成都市新津县花源镇共和村10组</t>
+  </si>
+  <si>
+    <t>康嘉逸居青城园旅居度假公寓</t>
+  </si>
+  <si>
+    <t>6/6/2016</t>
+  </si>
+  <si>
+    <t>四川省成都市都江堰市青城山镇大山路297号</t>
+  </si>
+  <si>
+    <t>成都市启阳养老中心</t>
+  </si>
+  <si>
+    <t>1/5/2015</t>
+  </si>
+  <si>
+    <t>成都市龙泉驿区大面镇连山坡地铁站</t>
+  </si>
+  <si>
+    <t>泽安怡福社区养老服务中心</t>
+  </si>
+  <si>
+    <t>8/1/2014</t>
+  </si>
+  <si>
+    <t>成都市成华区怡福路118号</t>
+  </si>
+  <si>
+    <t>泽安关家社区养老院</t>
+  </si>
+  <si>
+    <t>成都市成华区崔家店北一路88号</t>
+  </si>
+  <si>
+    <t>成都双流区玄至孝养老服务中心</t>
+  </si>
+  <si>
+    <t>成都双流县凤翔湖森林公园创业孵化园</t>
+  </si>
+  <si>
+    <t>邛崃市平乐颐养居</t>
+  </si>
+  <si>
+    <t>成都邛崃市平乐古镇</t>
+  </si>
+  <si>
+    <t>郫县颐家怡老年公寓</t>
+  </si>
+  <si>
+    <t>11/18/2015</t>
+  </si>
+  <si>
+    <t>四川成都市郫县安靖林湾村2组</t>
+  </si>
+  <si>
+    <t>大爱城养老服务有限公司</t>
+  </si>
+  <si>
+    <t>1/28/2015</t>
+  </si>
+  <si>
+    <t>成都市北星大道二段</t>
+  </si>
+  <si>
+    <t>成都时友养老服务中心</t>
+  </si>
+  <si>
+    <t>成都市二仙桥西路5号</t>
+  </si>
+  <si>
+    <t>幸福家智者公寓</t>
+  </si>
+  <si>
+    <t>6/1/2015</t>
+  </si>
+  <si>
+    <t>成都温江择一城颐养居</t>
+  </si>
+  <si>
+    <t>5/25/2014</t>
+  </si>
+  <si>
+    <t>成都市温江区永宁镇文化广场</t>
+  </si>
+  <si>
+    <t>成都市菩提心老人长期照护所</t>
+  </si>
+  <si>
+    <t>成都市青羊区卫民巷18号</t>
+  </si>
+  <si>
+    <t>成都市龙泉驿区洛带八角井社区居家养老服务中心</t>
+  </si>
+  <si>
+    <t>四川省成都市龙泉驿区洛带镇双槐15组83号</t>
+  </si>
+  <si>
+    <t>彭山常青养老中心</t>
+  </si>
+  <si>
+    <t>12/30/2014</t>
+  </si>
+  <si>
+    <t>彭山县江口镇梅花村府江桥</t>
+  </si>
+  <si>
+    <t>成都市新都区红星康辽新军社区养老服务站</t>
+  </si>
+  <si>
+    <t>10/11/2013</t>
+  </si>
+  <si>
+    <t>成都市新都区北新路中段118号宝光寺</t>
+  </si>
+  <si>
+    <t>成都市新都区新繁镇金地社区养老服务站</t>
+  </si>
+  <si>
+    <t>成都市新都区北一环路452号</t>
+  </si>
+  <si>
+    <t>成都市新都香城颐养居</t>
+  </si>
+  <si>
+    <t>05/11/2014</t>
+  </si>
+  <si>
+    <t>成都市新都区新民镇卫生院</t>
+  </si>
+  <si>
+    <t>金牛区九里堤社区日间照料中心</t>
+  </si>
+  <si>
+    <t>成都市金牛区九里堤中路226号</t>
+  </si>
+  <si>
+    <t>成都锦欣花乡老年公寓</t>
+  </si>
+  <si>
+    <t>10/31/2013</t>
+  </si>
+  <si>
+    <t>成都市锦江区成龙大道一段2603号</t>
+  </si>
+  <si>
+    <t>成都寸草心居家养老服务中心</t>
+  </si>
+  <si>
+    <t>成都市高新区天府大道北段1700号</t>
+  </si>
+  <si>
+    <t>新津县兴义镇纪碾养老服务中心</t>
+  </si>
+  <si>
+    <t>3/12/2014</t>
+  </si>
+  <si>
+    <t>成都市新津县兴义镇纪碾花房子社区</t>
+  </si>
+  <si>
+    <t>成都市新津县袁山印象颐养院</t>
+  </si>
+  <si>
+    <t>9/17/2012</t>
+  </si>
+  <si>
+    <t>四川省成都市新津县普兴镇袁山社区</t>
+  </si>
+  <si>
+    <t>圆缘养老服务中心</t>
+  </si>
+  <si>
+    <t>6/7/2013</t>
+  </si>
+  <si>
+    <t>成都市温江区柳城大道东段18号</t>
+  </si>
+  <si>
+    <t>四川省成都市和信康复中心</t>
+  </si>
+  <si>
+    <t>9/15/2009</t>
+  </si>
+  <si>
+    <t>成都市武侯区金花桥街道永康大道8号</t>
+  </si>
+  <si>
+    <t>和谐新家园福利院</t>
+  </si>
+  <si>
+    <t>6/18/2009</t>
+  </si>
+  <si>
+    <t>四川省成都市彭州市和谐彩家园福利院</t>
+  </si>
+  <si>
+    <t>双流县九江敬老院</t>
+  </si>
+  <si>
+    <t>11/1/2009</t>
+  </si>
+  <si>
+    <r>
+      <t>成都市双流区万白路</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF4C4C4C"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>22</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF4C4C4C"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>号</t>
+    </r>
+  </si>
+  <si>
+    <t>成都市青羊区光华大道西二段</t>
+  </si>
+  <si>
+    <t>成都市锦江区长者通呼援中心</t>
+  </si>
+  <si>
+    <t>成都市锦江区宏济巷23号</t>
+  </si>
+  <si>
+    <t>敖平养老院</t>
+  </si>
+  <si>
+    <t>6/9/2005</t>
+  </si>
+  <si>
+    <t>成都市彭州市敖平镇</t>
+  </si>
+  <si>
+    <t>红顶农庄老年公寓</t>
+  </si>
+  <si>
+    <t>四川省成都市郫县友爱镇农科村景区支渠路</t>
+  </si>
+  <si>
+    <t>四川省成都市武侯区永丰乡敬老院</t>
+  </si>
+  <si>
+    <t>四川省成都市武侯区盛世路</t>
+  </si>
+  <si>
+    <t>四川省成都市武侯区浆洗街辖区敬老院</t>
+  </si>
+  <si>
+    <t>四川省成都市武侯区洗面桥下街67号</t>
+  </si>
+  <si>
+    <t>四川省成都市龙泉驿区龙泉阳光康托苑</t>
+  </si>
+  <si>
+    <t>成都市龙泉驿区阳光城阳光大道4号</t>
+  </si>
+  <si>
     <t>名称</t>
   </si>
   <si>
@@ -7684,153 +8777,20 @@
   </si>
   <si>
     <t>青阳路与高刘路交叉口，元祥广场内</t>
-  </si>
-  <si>
-    <t>成都圣约瑟康复中心</t>
-  </si>
-  <si>
-    <t>成都高新区紫瑞大道168号</t>
-  </si>
-  <si>
-    <t>8/1/2016</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>武侯区</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>民办</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>邛崃市九九红养老服务管理有限公司</t>
-  </si>
-  <si>
-    <t>6/20/2018</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>四川省成都市邛崃市临济镇石头场粮农街116号</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>邛崃市</t>
-  </si>
-  <si>
-    <t>福邻养老公寓顺城苑</t>
-  </si>
-  <si>
-    <t>成都市顺城大街149号</t>
-  </si>
-  <si>
-    <t>1/1/2019</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>锦江区</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>亲睦家•社区医养中心</t>
-  </si>
-  <si>
-    <t>成都市温江区春江西路518号</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>5/1/2018</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>温江区</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>龙湖椿山万树-成都梵城颐年公寓</t>
-  </si>
-  <si>
-    <t>成都市成华区成华大道杉板桥路266号</t>
-  </si>
-  <si>
-    <t>6/1/2020</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>成华区</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>新颐园养老公寓</t>
-  </si>
-  <si>
-    <t>成都市郫都区方桥村五组</t>
-  </si>
-  <si>
-    <t>6/15/2007</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>郫都区</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>民办公助</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>都江堰沁夕养老服务中心</t>
-  </si>
-  <si>
-    <t>都江堰康复路72号</t>
-  </si>
-  <si>
-    <t>5/22/2017</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>都江堰市</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>四川雅阁居养老服务有限公司</t>
-  </si>
-  <si>
-    <t>成都市龙泉驿区大面镇玉石村八组</t>
-  </si>
-  <si>
-    <t>3/10/2018</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>龙泉驿区</t>
-  </si>
-  <si>
-    <t>四川福瑞居养老服务有限公司</t>
-  </si>
-  <si>
-    <t>成都市金牛区两河路555号</t>
-  </si>
-  <si>
-    <t>12/28/2018</t>
-    <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="mm/dd/yy;@"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="mm/dd/yy;@"/>
   </numFmts>
-  <fonts count="15">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7882,7 +8842,7 @@
       <sz val="11"/>
       <color rgb="FF555555"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -7892,51 +8852,376 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF6700"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="9.75"/>
       <color rgb="FF333333"/>
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFF6700"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
+      <sz val="9"/>
+      <color rgb="FF4C4C4C"/>
+      <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
+      <color rgb="FF4C4C4C"/>
+      <name val="SimSun"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF555555"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -7959,14 +9244,259 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -7975,99 +9505,149 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="17" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="17" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -8325,30 +9905,30 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J982"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J1106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A961" workbookViewId="0">
-      <selection activeCell="C982" sqref="C982"/>
+    <sheetView tabSelected="1" topLeftCell="A1096" workbookViewId="0">
+      <selection activeCell="A1106" sqref="A1106"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="34.375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="53.6666666666667" style="3" customWidth="1"/>
     <col min="2" max="2" width="9" style="3" customWidth="1"/>
     <col min="3" max="3" width="24.25" style="4" customWidth="1"/>
-    <col min="4" max="4" width="3.75" style="3" customWidth="1"/>
-    <col min="5" max="5" width="7.375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="8.22222222222222" style="3" customWidth="1"/>
+    <col min="5" max="5" width="11.1111111111111" style="5" customWidth="1"/>
     <col min="6" max="6" width="8.5" style="3" customWidth="1"/>
     <col min="7" max="7" width="5.75" style="3" customWidth="1"/>
-    <col min="8" max="8" width="8.875" style="3"/>
+    <col min="8" max="8" width="8.87962962962963" style="3"/>
     <col min="9" max="9" width="43" style="3" customWidth="1"/>
-    <col min="10" max="10" width="11.125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="11.1296296296296" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -11027,7 +12607,7 @@
       </c>
       <c r="J101" s="6"/>
     </row>
-    <row r="102" spans="1:10" ht="24">
+    <row r="102" ht="24" spans="1:10">
       <c r="A102" s="14" t="s">
         <v>287</v>
       </c>
@@ -12581,7 +14161,7 @@
       </c>
       <c r="J173" s="6"/>
     </row>
-    <row r="174" spans="1:10" ht="24">
+    <row r="174" ht="24" spans="1:10">
       <c r="A174" s="13" t="s">
         <v>448</v>
       </c>
@@ -12963,7 +14543,7 @@
       </c>
       <c r="J187" s="6"/>
     </row>
-    <row r="188" spans="1:10" ht="16.5">
+    <row r="188" ht="15" spans="1:10">
       <c r="A188" s="13" t="s">
         <v>489</v>
       </c>
@@ -17919,7 +19499,7 @@
         <v>60</v>
       </c>
       <c r="H378" s="6">
-        <v>1240.4000000000001</v>
+        <v>1240.4</v>
       </c>
       <c r="I378" s="17" t="s">
         <v>1004</v>
@@ -18733,7 +20313,7 @@
         <v>259</v>
       </c>
       <c r="H408" s="6">
-        <v>9982.5300000000007</v>
+        <v>9982.53</v>
       </c>
       <c r="I408" s="17" t="s">
         <v>1084</v>
@@ -22910,7 +24490,7 @@
       </c>
       <c r="J562" s="6"/>
     </row>
-    <row r="563" spans="1:10" ht="15">
+    <row r="563" spans="1:10">
       <c r="A563" s="17" t="s">
         <v>1497</v>
       </c>
@@ -23632,7 +25212,7 @@
       </c>
       <c r="J589" s="6"/>
     </row>
-    <row r="590" spans="1:10" ht="24">
+    <row r="590" ht="24" spans="1:10">
       <c r="A590" s="17" t="s">
         <v>1568</v>
       </c>
@@ -25689,7 +27269,7 @@
         <v>400</v>
       </c>
       <c r="H667" s="6">
-        <v>10455.299999999999</v>
+        <v>10455.3</v>
       </c>
       <c r="I667" s="17" t="s">
         <v>1765</v>
@@ -27737,7 +29317,7 @@
         <v>127</v>
       </c>
       <c r="H746" s="6">
-        <v>4359.1899999999996</v>
+        <v>4359.19</v>
       </c>
       <c r="I746" s="17" t="s">
         <v>1959</v>
@@ -27819,7 +29399,7 @@
         <v>303</v>
       </c>
       <c r="H749" s="6">
-        <v>9590.3700000000008</v>
+        <v>9590.37</v>
       </c>
       <c r="I749" s="17" t="s">
         <v>1966</v>
@@ -28515,7 +30095,7 @@
         <v>529</v>
       </c>
       <c r="H775" s="6">
-        <v>18311.400000000001</v>
+        <v>18311.4</v>
       </c>
       <c r="I775" s="17" t="s">
         <v>2031</v>
@@ -29445,7 +31025,7 @@
         <v>105</v>
       </c>
       <c r="H810" s="6">
-        <v>2294.8000000000002</v>
+        <v>2294.8</v>
       </c>
       <c r="I810" s="17" t="s">
         <v>2123</v>
@@ -33472,7 +35052,7 @@
       </c>
       <c r="J962" s="6"/>
     </row>
-    <row r="963" spans="1:10" ht="16.5">
+    <row r="963" spans="1:9">
       <c r="A963" s="19" t="s">
         <v>2503</v>
       </c>
@@ -33495,11 +35075,11 @@
       <c r="H963" s="19">
         <v>18000</v>
       </c>
-      <c r="I963" s="24" t="s">
+      <c r="I963" s="28" t="s">
         <v>2507</v>
       </c>
     </row>
-    <row r="964" spans="1:10" ht="16.5">
+    <row r="964" spans="1:9">
       <c r="A964" s="19" t="s">
         <v>2508</v>
       </c>
@@ -33520,11 +35100,11 @@
         <v>148</v>
       </c>
       <c r="H964" s="20"/>
-      <c r="I964" s="24" t="s">
+      <c r="I964" s="28" t="s">
         <v>2510</v>
       </c>
     </row>
-    <row r="965" spans="1:10" ht="16.5">
+    <row r="965" spans="1:9">
       <c r="A965" s="19" t="s">
         <v>2511</v>
       </c>
@@ -33545,11 +35125,11 @@
         <v>120</v>
       </c>
       <c r="H965" s="20"/>
-      <c r="I965" s="24" t="s">
+      <c r="I965" s="28" t="s">
         <v>2514</v>
       </c>
     </row>
-    <row r="966" spans="1:10" ht="16.5">
+    <row r="966" spans="1:9">
       <c r="A966" s="19" t="s">
         <v>2515</v>
       </c>
@@ -33570,11 +35150,11 @@
         <v>120</v>
       </c>
       <c r="H966" s="20"/>
-      <c r="I966" s="24" t="s">
+      <c r="I966" s="28" t="s">
         <v>2517</v>
       </c>
     </row>
-    <row r="967" spans="1:10" ht="18">
+    <row r="967" ht="17.4" spans="1:9">
       <c r="A967" s="23" t="s">
         <v>2518</v>
       </c>
@@ -33595,11 +35175,11 @@
         <v>59</v>
       </c>
       <c r="H967" s="20"/>
-      <c r="I967" s="24" t="s">
+      <c r="I967" s="28" t="s">
         <v>2520</v>
       </c>
     </row>
-    <row r="968" spans="1:10" ht="18">
+    <row r="968" ht="17.4" spans="1:9">
       <c r="A968" s="23" t="s">
         <v>2521</v>
       </c>
@@ -33620,11 +35200,11 @@
         <v>500</v>
       </c>
       <c r="H968" s="20"/>
-      <c r="I968" s="24" t="s">
+      <c r="I968" s="28" t="s">
         <v>2524</v>
       </c>
     </row>
-    <row r="969" spans="1:10" ht="18">
+    <row r="969" ht="17.4" spans="1:9">
       <c r="A969" s="23" t="s">
         <v>2525</v>
       </c>
@@ -33645,11 +35225,11 @@
         <v>220</v>
       </c>
       <c r="H969" s="20"/>
-      <c r="I969" s="24" t="s">
+      <c r="I969" s="28" t="s">
         <v>2526</v>
       </c>
     </row>
-    <row r="970" spans="1:10" ht="18">
+    <row r="970" ht="17.4" spans="1:9">
       <c r="A970" s="23" t="s">
         <v>2527</v>
       </c>
@@ -33670,11 +35250,11 @@
         <v>100</v>
       </c>
       <c r="H970" s="20"/>
-      <c r="I970" s="24" t="s">
+      <c r="I970" s="28" t="s">
         <v>2529</v>
       </c>
     </row>
-    <row r="971" spans="1:10" ht="18">
+    <row r="971" ht="17.4" spans="1:9">
       <c r="A971" s="23" t="s">
         <v>2530</v>
       </c>
@@ -33693,11 +35273,11 @@
         <v>100</v>
       </c>
       <c r="H971" s="20"/>
-      <c r="I971" s="24" t="s">
+      <c r="I971" s="28" t="s">
         <v>2531</v>
       </c>
     </row>
-    <row r="972" spans="1:10" ht="18">
+    <row r="972" ht="17.4" spans="1:9">
       <c r="A972" s="23" t="s">
         <v>2532</v>
       </c>
@@ -33718,11 +35298,11 @@
       <c r="H972" s="19">
         <v>19000</v>
       </c>
-      <c r="I972" s="24" t="s">
+      <c r="I972" s="28" t="s">
         <v>2534</v>
       </c>
     </row>
-    <row r="973" spans="1:10" ht="18">
+    <row r="973" ht="17.4" spans="1:9">
       <c r="A973" s="23" t="s">
         <v>2535</v>
       </c>
@@ -33743,22 +35323,22 @@
       <c r="H973" s="19">
         <v>66666.7</v>
       </c>
-      <c r="I973" s="24" t="s">
+      <c r="I973" s="28" t="s">
         <v>2537</v>
       </c>
     </row>
-    <row r="974" spans="1:10" ht="18">
-      <c r="A974" s="25" t="s">
-        <v>2554</v>
-      </c>
-      <c r="C974" s="27" t="s">
-        <v>2556</v>
-      </c>
-      <c r="E974" s="28" t="s">
-        <v>2557</v>
-      </c>
-      <c r="F974" s="29" t="s">
-        <v>2558</v>
+    <row r="974" ht="17.4" spans="1:9">
+      <c r="A974" s="24" t="s">
+        <v>2538</v>
+      </c>
+      <c r="C974" s="4" t="s">
+        <v>2539</v>
+      </c>
+      <c r="E974" s="5" t="s">
+        <v>2540</v>
+      </c>
+      <c r="F974" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="G974" s="3">
         <v>120</v>
@@ -33766,22 +35346,22 @@
       <c r="H974" s="3">
         <v>3300</v>
       </c>
-      <c r="I974" s="26" t="s">
-        <v>2555</v>
-      </c>
-    </row>
-    <row r="975" spans="1:10" ht="18">
-      <c r="A975" s="25" t="s">
-        <v>2559</v>
-      </c>
-      <c r="C975" s="27" t="s">
-        <v>2560</v>
+      <c r="I974" s="15" t="s">
+        <v>2541</v>
+      </c>
+    </row>
+    <row r="975" ht="17.4" spans="1:9">
+      <c r="A975" s="24" t="s">
+        <v>2542</v>
+      </c>
+      <c r="C975" s="4" t="s">
+        <v>2543</v>
       </c>
       <c r="E975" s="5" t="s">
-        <v>2562</v>
-      </c>
-      <c r="F975" s="29" t="s">
-        <v>2558</v>
+        <v>2544</v>
+      </c>
+      <c r="F975" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="G975" s="3">
         <v>64</v>
@@ -33789,22 +35369,22 @@
       <c r="H975" s="3">
         <v>2680</v>
       </c>
-      <c r="I975" s="26" t="s">
-        <v>2561</v>
-      </c>
-    </row>
-    <row r="976" spans="1:10" ht="18">
-      <c r="A976" s="25" t="s">
-        <v>2563</v>
-      </c>
-      <c r="C976" s="27" t="s">
-        <v>2565</v>
-      </c>
-      <c r="E976" s="28" t="s">
-        <v>2566</v>
-      </c>
-      <c r="F976" s="29" t="s">
-        <v>2558</v>
+      <c r="I975" s="15" t="s">
+        <v>2545</v>
+      </c>
+    </row>
+    <row r="976" ht="17.4" spans="1:9">
+      <c r="A976" s="24" t="s">
+        <v>2546</v>
+      </c>
+      <c r="C976" s="4" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E976" s="5" t="s">
+        <v>2506</v>
+      </c>
+      <c r="F976" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="G976" s="3">
         <v>139</v>
@@ -33812,42 +35392,42 @@
       <c r="H976" s="3">
         <v>4300</v>
       </c>
-      <c r="I976" s="26" t="s">
-        <v>2564</v>
-      </c>
-    </row>
-    <row r="977" spans="1:9" ht="18">
-      <c r="A977" s="25" t="s">
-        <v>2567</v>
-      </c>
-      <c r="C977" s="27" t="s">
-        <v>2569</v>
-      </c>
-      <c r="E977" s="28" t="s">
-        <v>2570</v>
-      </c>
-      <c r="F977" s="29" t="s">
-        <v>2558</v>
+      <c r="I976" s="15" t="s">
+        <v>2547</v>
+      </c>
+    </row>
+    <row r="977" ht="17.4" spans="1:9">
+      <c r="A977" s="24" t="s">
+        <v>2548</v>
+      </c>
+      <c r="C977" s="4" t="s">
+        <v>2549</v>
+      </c>
+      <c r="E977" s="5" t="s">
+        <v>2523</v>
+      </c>
+      <c r="F977" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="G977" s="3">
         <v>307</v>
       </c>
-      <c r="I977" s="26" t="s">
-        <v>2568</v>
-      </c>
-    </row>
-    <row r="978" spans="1:9" ht="18">
-      <c r="A978" s="25" t="s">
-        <v>2571</v>
-      </c>
-      <c r="C978" s="27" t="s">
-        <v>2573</v>
-      </c>
-      <c r="E978" s="28" t="s">
-        <v>2574</v>
-      </c>
-      <c r="F978" s="29" t="s">
-        <v>2558</v>
+      <c r="I977" s="15" t="s">
+        <v>2550</v>
+      </c>
+    </row>
+    <row r="978" ht="17.4" spans="1:9">
+      <c r="A978" s="24" t="s">
+        <v>2551</v>
+      </c>
+      <c r="C978" s="4" t="s">
+        <v>2552</v>
+      </c>
+      <c r="E978" s="5" t="s">
+        <v>2553</v>
+      </c>
+      <c r="F978" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="G978" s="3">
         <v>326</v>
@@ -33855,22 +35435,22 @@
       <c r="H978" s="3">
         <v>12000</v>
       </c>
-      <c r="I978" s="26" t="s">
-        <v>2572</v>
-      </c>
-    </row>
-    <row r="979" spans="1:9" ht="18">
-      <c r="A979" s="25" t="s">
-        <v>2575</v>
-      </c>
-      <c r="C979" s="27" t="s">
-        <v>2577</v>
-      </c>
-      <c r="E979" s="28" t="s">
-        <v>2578</v>
-      </c>
-      <c r="F979" s="29" t="s">
-        <v>2579</v>
+      <c r="I978" s="15" t="s">
+        <v>2554</v>
+      </c>
+    </row>
+    <row r="979" ht="17.4" spans="1:9">
+      <c r="A979" s="24" t="s">
+        <v>2555</v>
+      </c>
+      <c r="C979" s="4" t="s">
+        <v>2556</v>
+      </c>
+      <c r="E979" s="5" t="s">
+        <v>2533</v>
+      </c>
+      <c r="F979" s="3" t="s">
+        <v>178</v>
       </c>
       <c r="G979" s="3">
         <v>200</v>
@@ -33878,129 +35458,2724 @@
       <c r="H979" s="3">
         <v>33333</v>
       </c>
-      <c r="I979" s="26" t="s">
-        <v>2576</v>
-      </c>
-    </row>
-    <row r="980" spans="1:9" ht="18">
-      <c r="A980" s="25" t="s">
-        <v>2580</v>
-      </c>
-      <c r="C980" s="27" t="s">
-        <v>2582</v>
-      </c>
-      <c r="E980" s="28" t="s">
-        <v>2583</v>
-      </c>
-      <c r="F980" s="29" t="s">
+      <c r="I979" s="15" t="s">
+        <v>2557</v>
+      </c>
+    </row>
+    <row r="980" ht="17.4" spans="1:9">
+      <c r="A980" s="24" t="s">
         <v>2558</v>
+      </c>
+      <c r="C980" s="4" t="s">
+        <v>2559</v>
+      </c>
+      <c r="E980" s="5" t="s">
+        <v>2560</v>
+      </c>
+      <c r="F980" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="G980" s="3">
         <v>30</v>
       </c>
-      <c r="I980" s="26" t="s">
+      <c r="I980" s="15" t="s">
+        <v>2561</v>
+      </c>
+    </row>
+    <row r="981" ht="17.4" spans="1:9">
+      <c r="A981" s="24" t="s">
+        <v>2562</v>
+      </c>
+      <c r="C981" s="4" t="s">
+        <v>2563</v>
+      </c>
+      <c r="E981" s="15" t="s">
+        <v>2564</v>
+      </c>
+      <c r="F981" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="G981" s="15">
+        <v>380</v>
+      </c>
+      <c r="I981" s="15" t="s">
+        <v>2565</v>
+      </c>
+    </row>
+    <row r="982" ht="17.4" spans="1:9">
+      <c r="A982" s="24" t="s">
+        <v>2566</v>
+      </c>
+      <c r="C982" s="4" t="s">
+        <v>2567</v>
+      </c>
+      <c r="E982" s="15" t="s">
+        <v>2513</v>
+      </c>
+      <c r="F982" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="G982" s="15">
+        <v>82</v>
+      </c>
+      <c r="H982" s="15">
+        <v>3016</v>
+      </c>
+      <c r="I982" s="15" t="s">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="983" ht="17.4" spans="1:9">
+      <c r="A983" s="25" t="s">
+        <v>2569</v>
+      </c>
+      <c r="C983" s="4" t="s">
+        <v>2570</v>
+      </c>
+      <c r="E983" s="5" t="s">
+        <v>2564</v>
+      </c>
+      <c r="F983" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G983" s="3">
+        <v>500</v>
+      </c>
+      <c r="I983" s="26" t="s">
+        <v>2571</v>
+      </c>
+    </row>
+    <row r="984" ht="17.4" spans="1:9">
+      <c r="A984" s="25" t="s">
+        <v>2572</v>
+      </c>
+      <c r="C984" s="4" t="s">
+        <v>2573</v>
+      </c>
+      <c r="E984" s="5" t="s">
+        <v>2540</v>
+      </c>
+      <c r="F984" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G984" s="3">
+        <v>60</v>
+      </c>
+      <c r="I984" s="26" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="985" ht="17.4" spans="1:9">
+      <c r="A985" s="25" t="s">
+        <v>2575</v>
+      </c>
+      <c r="C985" s="4" t="s">
+        <v>885</v>
+      </c>
+      <c r="E985" s="5" t="s">
+        <v>2540</v>
+      </c>
+      <c r="F985" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G985" s="3">
+        <v>50</v>
+      </c>
+      <c r="I985" s="26" t="s">
+        <v>2576</v>
+      </c>
+    </row>
+    <row r="986" ht="17.4" spans="1:9">
+      <c r="A986" s="25" t="s">
+        <v>2577</v>
+      </c>
+      <c r="C986" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E986" s="5" t="s">
+        <v>2528</v>
+      </c>
+      <c r="F986" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G986" s="3">
+        <v>180</v>
+      </c>
+      <c r="I986" s="26" t="s">
+        <v>2578</v>
+      </c>
+    </row>
+    <row r="987" ht="17.4" spans="1:9">
+      <c r="A987" s="25" t="s">
+        <v>2579</v>
+      </c>
+      <c r="C987" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="E987" s="5" t="s">
+        <v>2540</v>
+      </c>
+      <c r="F987" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G987" s="3">
+        <v>90</v>
+      </c>
+      <c r="H987" s="3">
+        <v>2600</v>
+      </c>
+      <c r="I987" s="26" t="s">
+        <v>2580</v>
+      </c>
+    </row>
+    <row r="988" ht="17.4" spans="1:9">
+      <c r="A988" s="25" t="s">
         <v>2581</v>
       </c>
-    </row>
-    <row r="981" spans="1:9" ht="18">
-      <c r="A981" s="25" t="s">
+      <c r="C988" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="E988" s="5" t="s">
+        <v>2509</v>
+      </c>
+      <c r="F988" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="G988" s="3">
+        <v>60</v>
+      </c>
+      <c r="H988" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I988" s="26" t="s">
+        <v>2582</v>
+      </c>
+    </row>
+    <row r="989" ht="17.4" spans="1:9">
+      <c r="A989" s="25" t="s">
+        <v>2583</v>
+      </c>
+      <c r="C989" s="4" t="s">
+        <v>2512</v>
+      </c>
+      <c r="E989" s="5" t="s">
+        <v>2553</v>
+      </c>
+      <c r="F989" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="G989" s="3">
+        <v>131</v>
+      </c>
+      <c r="H989" s="3">
+        <v>4200</v>
+      </c>
+      <c r="I989" s="26" t="s">
         <v>2584</v>
       </c>
-      <c r="C981" s="27" t="s">
+    </row>
+    <row r="990" ht="17.4" spans="1:9">
+      <c r="A990" s="25" t="s">
+        <v>2585</v>
+      </c>
+      <c r="C990" s="4" t="s">
+        <v>1980</v>
+      </c>
+      <c r="E990" s="5" t="s">
+        <v>2523</v>
+      </c>
+      <c r="F990" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G990" s="3">
+        <v>1700</v>
+      </c>
+      <c r="H990" s="3">
+        <v>170000</v>
+      </c>
+      <c r="I990" s="26" t="s">
         <v>2586</v>
       </c>
-      <c r="E981" s="26" t="s">
+    </row>
+    <row r="991" ht="17.4" spans="1:9">
+      <c r="A991" s="25" t="s">
         <v>2587</v>
       </c>
-      <c r="F981" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="G981" s="26">
-        <v>380</v>
-      </c>
-      <c r="I981" s="26" t="s">
-        <v>2585</v>
-      </c>
-    </row>
-    <row r="982" spans="1:9" ht="18">
-      <c r="A982" s="25" t="s">
+      <c r="C991" s="4" t="s">
         <v>2588</v>
       </c>
-      <c r="C982" s="27" t="s">
+      <c r="E991" s="5" t="s">
+        <v>2540</v>
+      </c>
+      <c r="F991" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G991" s="26">
+        <v>368</v>
+      </c>
+      <c r="I991" s="26" t="s">
+        <v>2589</v>
+      </c>
+    </row>
+    <row r="992" ht="17.4" spans="1:9">
+      <c r="A992" s="25" t="s">
         <v>2590</v>
       </c>
-      <c r="E982" s="26" t="s">
+      <c r="C992" s="4" t="s">
+        <v>2591</v>
+      </c>
+      <c r="E992" s="5" t="s">
+        <v>2506</v>
+      </c>
+      <c r="F992" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G992" s="3">
+        <v>242</v>
+      </c>
+      <c r="I992" s="26" t="s">
+        <v>2592</v>
+      </c>
+    </row>
+    <row r="993" ht="17.4" spans="1:9">
+      <c r="A993" s="25" t="s">
+        <v>2593</v>
+      </c>
+      <c r="C993" s="4" t="s">
+        <v>2594</v>
+      </c>
+      <c r="E993" s="5" t="s">
+        <v>2540</v>
+      </c>
+      <c r="F993" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G993" s="3">
+        <v>385</v>
+      </c>
+      <c r="I993" s="26" t="s">
+        <v>2595</v>
+      </c>
+    </row>
+    <row r="994" ht="17.4" spans="1:9">
+      <c r="A994" s="25" t="s">
+        <v>2596</v>
+      </c>
+      <c r="C994" s="4" t="s">
+        <v>2597</v>
+      </c>
+      <c r="E994" s="5" t="s">
+        <v>2528</v>
+      </c>
+      <c r="F994" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="G994" s="3">
+        <v>36</v>
+      </c>
+      <c r="I994" s="26" t="s">
+        <v>2598</v>
+      </c>
+    </row>
+    <row r="995" ht="17.4" spans="1:9">
+      <c r="A995" s="25" t="s">
+        <v>2599</v>
+      </c>
+      <c r="C995" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E995" s="5" t="s">
+        <v>2509</v>
+      </c>
+      <c r="F995" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G995" s="3">
+        <v>80</v>
+      </c>
+      <c r="I995" s="26" t="s">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="996" ht="17.4" spans="1:9">
+      <c r="A996" s="25" t="s">
+        <v>2601</v>
+      </c>
+      <c r="C996" s="4" t="s">
+        <v>2602</v>
+      </c>
+      <c r="E996" s="5" t="s">
+        <v>2553</v>
+      </c>
+      <c r="F996" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G996" s="3">
+        <v>68</v>
+      </c>
+      <c r="I996" s="26" t="s">
+        <v>2603</v>
+      </c>
+    </row>
+    <row r="997" ht="34.8" spans="1:9">
+      <c r="A997" s="25" t="s">
+        <v>2604</v>
+      </c>
+      <c r="C997" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="E997" s="5" t="s">
+        <v>2540</v>
+      </c>
+      <c r="F997" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G997" s="3">
+        <v>21</v>
+      </c>
+      <c r="I997" s="26" t="s">
+        <v>2606</v>
+      </c>
+    </row>
+    <row r="998" ht="17.4" spans="1:9">
+      <c r="A998" s="25" t="s">
+        <v>2607</v>
+      </c>
+      <c r="C998" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E998" s="5" t="s">
         <v>2513</v>
       </c>
-      <c r="F982" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="G982" s="26">
-        <v>82</v>
-      </c>
-      <c r="H982" s="26">
-        <v>3016</v>
-      </c>
-      <c r="I982" s="26" t="s">
-        <v>2589</v>
+      <c r="F998" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="G998" s="3">
+        <v>133</v>
+      </c>
+      <c r="H998" s="3">
+        <v>3600</v>
+      </c>
+      <c r="I998" s="26" t="s">
+        <v>2608</v>
+      </c>
+    </row>
+    <row r="999" ht="17.4" spans="1:9">
+      <c r="A999" s="25" t="s">
+        <v>2609</v>
+      </c>
+      <c r="E999" s="5" t="s">
+        <v>2560</v>
+      </c>
+      <c r="F999" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G999" s="3">
+        <v>100</v>
+      </c>
+      <c r="I999" s="26" t="s">
+        <v>2610</v>
+      </c>
+    </row>
+    <row r="1000" ht="17.4" spans="1:9">
+      <c r="A1000" s="25" t="s">
+        <v>2611</v>
+      </c>
+      <c r="C1000" s="4" t="s">
+        <v>2612</v>
+      </c>
+      <c r="E1000" s="5" t="s">
+        <v>2564</v>
+      </c>
+      <c r="F1000" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1000" s="3">
+        <v>182</v>
+      </c>
+      <c r="H1000" s="3">
+        <v>5500</v>
+      </c>
+      <c r="I1000" s="26" t="s">
+        <v>2613</v>
+      </c>
+    </row>
+    <row r="1001" ht="17.4" spans="1:9">
+      <c r="A1001" s="25" t="s">
+        <v>2614</v>
+      </c>
+      <c r="C1001" s="4" t="s">
+        <v>2615</v>
+      </c>
+      <c r="E1001" s="5" t="s">
+        <v>2528</v>
+      </c>
+      <c r="F1001" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="G1001" s="3">
+        <v>800</v>
+      </c>
+      <c r="H1001" s="26">
+        <v>75473.32</v>
+      </c>
+      <c r="I1001" s="26" t="s">
+        <v>2616</v>
+      </c>
+    </row>
+    <row r="1002" ht="17.4" spans="1:9">
+      <c r="A1002" s="25" t="s">
+        <v>2617</v>
+      </c>
+      <c r="C1002" s="4" t="s">
+        <v>650</v>
+      </c>
+      <c r="E1002" s="5" t="s">
+        <v>2509</v>
+      </c>
+      <c r="F1002" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1002" s="3">
+        <v>200</v>
+      </c>
+      <c r="I1002" s="26" t="s">
+        <v>2618</v>
+      </c>
+    </row>
+    <row r="1003" ht="17.4" spans="1:9">
+      <c r="A1003" s="25" t="s">
+        <v>2619</v>
+      </c>
+      <c r="C1003" s="4" t="s">
+        <v>650</v>
+      </c>
+      <c r="E1003" s="5" t="s">
+        <v>2553</v>
+      </c>
+      <c r="F1003" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1003" s="3">
+        <v>300</v>
+      </c>
+      <c r="I1003" s="26" t="s">
+        <v>2620</v>
+      </c>
+    </row>
+    <row r="1004" ht="17.4" spans="1:9">
+      <c r="A1004" s="25" t="s">
+        <v>2621</v>
+      </c>
+      <c r="C1004" s="4" t="s">
+        <v>2622</v>
+      </c>
+      <c r="E1004" s="5" t="s">
+        <v>2560</v>
+      </c>
+      <c r="F1004" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1004" s="3">
+        <v>280</v>
+      </c>
+      <c r="I1004" s="26" t="s">
+        <v>2623</v>
+      </c>
+    </row>
+    <row r="1005" ht="17.4" spans="1:9">
+      <c r="A1005" s="27" t="s">
+        <v>2624</v>
+      </c>
+      <c r="C1005" s="4" t="s">
+        <v>703</v>
+      </c>
+      <c r="E1005" s="5" t="s">
+        <v>2625</v>
+      </c>
+      <c r="F1005" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1005" s="3">
+        <v>5000</v>
+      </c>
+      <c r="I1005" s="29" t="s">
+        <v>2626</v>
+      </c>
+    </row>
+    <row r="1006" ht="17.4" spans="1:9">
+      <c r="A1006" s="27" t="s">
+        <v>2627</v>
+      </c>
+      <c r="C1006" s="4" t="s">
+        <v>2628</v>
+      </c>
+      <c r="E1006" s="5" t="s">
+        <v>2629</v>
+      </c>
+      <c r="F1006" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1006" s="3">
+        <v>80</v>
+      </c>
+      <c r="I1006" s="29" t="s">
+        <v>2630</v>
+      </c>
+    </row>
+    <row r="1007" ht="17.4" spans="1:9">
+      <c r="A1007" s="27" t="s">
+        <v>2631</v>
+      </c>
+      <c r="C1007" s="4" t="s">
+        <v>2632</v>
+      </c>
+      <c r="E1007" s="5" t="s">
+        <v>2528</v>
+      </c>
+      <c r="F1007" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1007" s="3">
+        <v>100</v>
+      </c>
+      <c r="I1007" s="29" t="s">
+        <v>2633</v>
+      </c>
+    </row>
+    <row r="1008" ht="17.4" spans="1:9">
+      <c r="A1008" s="27" t="s">
+        <v>2634</v>
+      </c>
+      <c r="C1008" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E1008" s="5" t="s">
+        <v>2564</v>
+      </c>
+      <c r="F1008" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1008" s="3">
+        <v>15</v>
+      </c>
+      <c r="I1008" s="29" t="s">
+        <v>2635</v>
+      </c>
+    </row>
+    <row r="1009" ht="17.4" spans="1:9">
+      <c r="A1009" s="27" t="s">
+        <v>2636</v>
+      </c>
+      <c r="C1009" s="4" t="s">
+        <v>2637</v>
+      </c>
+      <c r="E1009" s="5" t="s">
+        <v>2540</v>
+      </c>
+      <c r="F1009" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1009" s="3">
+        <v>13</v>
+      </c>
+      <c r="I1009" s="3" t="s">
+        <v>2638</v>
+      </c>
+    </row>
+    <row r="1010" ht="17.4" spans="1:9">
+      <c r="A1010" s="27" t="s">
+        <v>2639</v>
+      </c>
+      <c r="C1010" s="4" t="s">
+        <v>2640</v>
+      </c>
+      <c r="E1010" s="5" t="s">
+        <v>2509</v>
+      </c>
+      <c r="F1010" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1010" s="3">
+        <v>11</v>
+      </c>
+      <c r="I1010" s="3" t="s">
+        <v>2641</v>
+      </c>
+    </row>
+    <row r="1011" ht="17.4" spans="1:9">
+      <c r="A1011" s="27" t="s">
+        <v>2642</v>
+      </c>
+      <c r="C1011" s="4" t="s">
+        <v>2643</v>
+      </c>
+      <c r="E1011" s="5" t="s">
+        <v>2553</v>
+      </c>
+      <c r="F1011" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1011" s="3">
+        <v>10</v>
+      </c>
+      <c r="I1011" s="3" t="s">
+        <v>2644</v>
+      </c>
+    </row>
+    <row r="1012" ht="17.4" spans="1:9">
+      <c r="A1012" s="27" t="s">
+        <v>2645</v>
+      </c>
+      <c r="C1012" s="4" t="s">
+        <v>2646</v>
+      </c>
+      <c r="E1012" s="5" t="s">
+        <v>2553</v>
+      </c>
+      <c r="F1012" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1012" s="3">
+        <v>13</v>
+      </c>
+      <c r="I1012" s="3" t="s">
+        <v>2647</v>
+      </c>
+    </row>
+    <row r="1013" ht="17.4" spans="1:9">
+      <c r="A1013" s="27" t="s">
+        <v>2648</v>
+      </c>
+      <c r="C1013" s="4" t="s">
+        <v>2649</v>
+      </c>
+      <c r="E1013" s="5" t="s">
+        <v>2650</v>
+      </c>
+      <c r="F1013" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1013" s="3">
+        <v>1500</v>
+      </c>
+      <c r="I1013" s="29" t="s">
+        <v>2651</v>
+      </c>
+    </row>
+    <row r="1014" ht="17.4" spans="1:9">
+      <c r="A1014" s="27" t="s">
+        <v>2652</v>
+      </c>
+      <c r="E1014" s="5" t="s">
+        <v>2625</v>
+      </c>
+      <c r="F1014" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1014" s="3">
+        <v>50</v>
+      </c>
+      <c r="I1014" s="30" t="s">
+        <v>2653</v>
+      </c>
+    </row>
+    <row r="1015" ht="17.4" spans="1:9">
+      <c r="A1015" s="27" t="s">
+        <v>2654</v>
+      </c>
+      <c r="C1015" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E1015" s="5" t="s">
+        <v>2506</v>
+      </c>
+      <c r="F1015" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1015" s="3">
+        <v>15</v>
+      </c>
+      <c r="I1015" s="29" t="s">
+        <v>2655</v>
+      </c>
+    </row>
+    <row r="1016" ht="17.4" spans="1:9">
+      <c r="A1016" s="27" t="s">
+        <v>2656</v>
+      </c>
+      <c r="C1016" s="4" t="s">
+        <v>2657</v>
+      </c>
+      <c r="E1016" s="5" t="s">
+        <v>2533</v>
+      </c>
+      <c r="F1016" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="G1016" s="3">
+        <v>50</v>
+      </c>
+      <c r="I1016" s="31" t="s">
+        <v>2658</v>
+      </c>
+    </row>
+    <row r="1017" ht="17.4" spans="1:9">
+      <c r="A1017" s="27" t="s">
+        <v>2659</v>
+      </c>
+      <c r="C1017" s="4" t="s">
+        <v>2660</v>
+      </c>
+      <c r="E1017" s="5" t="s">
+        <v>2523</v>
+      </c>
+      <c r="F1017" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="G1017" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I1017" s="29" t="s">
+        <v>2661</v>
+      </c>
+    </row>
+    <row r="1018" ht="17.4" spans="1:9">
+      <c r="A1018" s="27" t="s">
+        <v>2662</v>
+      </c>
+      <c r="C1018" s="4" t="s">
+        <v>2522</v>
+      </c>
+      <c r="E1018" s="5" t="s">
+        <v>2533</v>
+      </c>
+      <c r="F1018" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="G1018" s="3">
+        <v>12500</v>
+      </c>
+      <c r="I1018" s="29" t="s">
+        <v>2663</v>
+      </c>
+    </row>
+    <row r="1019" ht="17.4" spans="1:9">
+      <c r="A1019" s="27" t="s">
+        <v>2664</v>
+      </c>
+      <c r="C1019" s="4" t="s">
+        <v>2287</v>
+      </c>
+      <c r="E1019" s="5" t="s">
+        <v>2665</v>
+      </c>
+      <c r="F1019" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1019" s="3">
+        <v>180</v>
+      </c>
+      <c r="H1019" s="3">
+        <v>3668</v>
+      </c>
+      <c r="I1019" s="29" t="s">
+        <v>2666</v>
+      </c>
+    </row>
+    <row r="1020" ht="17.4" spans="1:9">
+      <c r="A1020" s="27" t="s">
+        <v>2667</v>
+      </c>
+      <c r="C1020" s="4" t="s">
+        <v>1538</v>
+      </c>
+      <c r="E1020" s="5" t="s">
+        <v>2668</v>
+      </c>
+      <c r="F1020" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1020" s="3">
+        <v>150</v>
+      </c>
+      <c r="H1020" s="3">
+        <v>12000</v>
+      </c>
+      <c r="I1020" s="29" t="s">
+        <v>2669</v>
+      </c>
+    </row>
+    <row r="1021" ht="17.4" spans="1:9">
+      <c r="A1021" s="27" t="s">
+        <v>2670</v>
+      </c>
+      <c r="C1021" s="4" t="s">
+        <v>2671</v>
+      </c>
+      <c r="E1021" s="5" t="s">
+        <v>2629</v>
+      </c>
+      <c r="F1021" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="G1021" s="3">
+        <v>600</v>
+      </c>
+      <c r="H1021" s="3">
+        <v>15000</v>
+      </c>
+      <c r="I1021" s="29" t="s">
+        <v>2672</v>
+      </c>
+    </row>
+    <row r="1022" ht="17.4" spans="1:9">
+      <c r="A1022" s="27" t="s">
+        <v>2673</v>
+      </c>
+      <c r="C1022" s="4" t="s">
+        <v>2674</v>
+      </c>
+      <c r="E1022" s="5" t="s">
+        <v>2675</v>
+      </c>
+      <c r="F1022" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1022" s="3">
+        <v>36</v>
+      </c>
+      <c r="H1022" s="3">
+        <v>2410</v>
+      </c>
+      <c r="I1022" s="3" t="s">
+        <v>2676</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:9">
+      <c r="A1023" s="3" t="s">
+        <v>2677</v>
+      </c>
+      <c r="C1023" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="E1023" s="5" t="s">
+        <v>2533</v>
+      </c>
+      <c r="F1023" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1023" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I1023" s="29" t="s">
+        <v>2678</v>
+      </c>
+    </row>
+    <row r="1024" ht="17.4" spans="1:9">
+      <c r="A1024" s="27" t="s">
+        <v>2679</v>
+      </c>
+      <c r="C1024" s="4" t="s">
+        <v>2680</v>
+      </c>
+      <c r="E1024" s="5" t="s">
+        <v>2560</v>
+      </c>
+      <c r="F1024" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1024" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I1024" s="29" t="s">
+        <v>2681</v>
+      </c>
+    </row>
+    <row r="1025" ht="17.4" spans="1:9">
+      <c r="A1025" s="27" t="s">
+        <v>2682</v>
+      </c>
+      <c r="C1025" s="4" t="s">
+        <v>2683</v>
+      </c>
+      <c r="E1025" s="5" t="s">
+        <v>2523</v>
+      </c>
+      <c r="F1025" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1025" s="3">
+        <v>120</v>
+      </c>
+      <c r="H1025" s="3">
+        <v>3600</v>
+      </c>
+      <c r="I1025" s="30" t="s">
+        <v>2684</v>
+      </c>
+    </row>
+    <row r="1026" ht="17.4" spans="1:9">
+      <c r="A1026" s="27" t="s">
+        <v>2685</v>
+      </c>
+      <c r="C1026" s="4" t="s">
+        <v>2686</v>
+      </c>
+      <c r="E1026" s="5" t="s">
+        <v>2528</v>
+      </c>
+      <c r="F1026" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1026" s="3">
+        <v>66</v>
+      </c>
+      <c r="I1026" s="29" t="s">
+        <v>2687</v>
+      </c>
+    </row>
+    <row r="1027" ht="17.4" spans="1:9">
+      <c r="A1027" s="27" t="s">
+        <v>2688</v>
+      </c>
+      <c r="C1027" s="4" t="s">
+        <v>2689</v>
+      </c>
+      <c r="E1027" s="5" t="s">
+        <v>2564</v>
+      </c>
+      <c r="F1027" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1027" s="3">
+        <v>360</v>
+      </c>
+      <c r="I1027" s="29" t="s">
+        <v>2690</v>
+      </c>
+    </row>
+    <row r="1028" ht="17.4" spans="1:9">
+      <c r="A1028" s="27" t="s">
+        <v>2691</v>
+      </c>
+      <c r="C1028" s="4" t="s">
+        <v>2692</v>
+      </c>
+      <c r="E1028" s="5" t="s">
+        <v>2560</v>
+      </c>
+      <c r="F1028" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1028" s="3">
+        <v>306</v>
+      </c>
+      <c r="H1028" s="3">
+        <v>17000</v>
+      </c>
+      <c r="I1028" s="30" t="s">
+        <v>2693</v>
+      </c>
+    </row>
+    <row r="1029" ht="17.4" spans="1:9">
+      <c r="A1029" s="27" t="s">
+        <v>2694</v>
+      </c>
+      <c r="C1029" s="4" t="s">
+        <v>2695</v>
+      </c>
+      <c r="E1029" s="5" t="s">
+        <v>2540</v>
+      </c>
+      <c r="F1029" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1029" s="3">
+        <v>70</v>
+      </c>
+      <c r="I1029" s="29" t="s">
+        <v>2696</v>
+      </c>
+    </row>
+    <row r="1030" ht="17.4" spans="1:9">
+      <c r="A1030" s="27" t="s">
+        <v>2697</v>
+      </c>
+      <c r="C1030" s="4" t="s">
+        <v>2202</v>
+      </c>
+      <c r="E1030" s="5" t="s">
+        <v>2528</v>
+      </c>
+      <c r="F1030" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1030" s="3">
+        <v>200</v>
+      </c>
+      <c r="I1030" s="30" t="s">
+        <v>2698</v>
+      </c>
+    </row>
+    <row r="1031" ht="17.4" spans="1:9">
+      <c r="A1031" s="27" t="s">
+        <v>2699</v>
+      </c>
+      <c r="C1031" s="4" t="s">
+        <v>2700</v>
+      </c>
+      <c r="E1031" s="5" t="s">
+        <v>2564</v>
+      </c>
+      <c r="F1031" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1031" s="3">
+        <v>400</v>
+      </c>
+      <c r="H1031" s="3">
+        <v>9000</v>
+      </c>
+      <c r="I1031" s="29" t="s">
+        <v>2701</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:9">
+      <c r="A1032" s="31" t="s">
+        <v>2702</v>
+      </c>
+      <c r="C1032" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="E1032" s="5" t="s">
+        <v>2668</v>
+      </c>
+      <c r="F1032" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="G1032" s="3">
+        <v>499</v>
+      </c>
+      <c r="H1032" s="3">
+        <v>33000</v>
+      </c>
+      <c r="I1032" s="30" t="s">
+        <v>2703</v>
+      </c>
+    </row>
+    <row r="1033" ht="17.4" spans="1:9">
+      <c r="A1033" s="27" t="s">
+        <v>2704</v>
+      </c>
+      <c r="C1033" s="4" t="s">
+        <v>2705</v>
+      </c>
+      <c r="E1033" s="5" t="s">
+        <v>2675</v>
+      </c>
+      <c r="F1033" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1033" s="3">
+        <v>230</v>
+      </c>
+      <c r="H1033" s="3">
+        <v>7700</v>
+      </c>
+      <c r="I1033" s="30" t="s">
+        <v>2706</v>
+      </c>
+    </row>
+    <row r="1034" ht="17.4" spans="1:9">
+      <c r="A1034" s="27" t="s">
+        <v>2707</v>
+      </c>
+      <c r="C1034" s="4" t="s">
+        <v>2708</v>
+      </c>
+      <c r="E1034" s="5" t="s">
+        <v>2540</v>
+      </c>
+      <c r="F1034" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1034" s="3">
+        <v>500</v>
+      </c>
+      <c r="H1034" s="3">
+        <v>20000</v>
+      </c>
+      <c r="I1034" s="29" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="1035" ht="17.4" spans="1:9">
+      <c r="A1035" s="27" t="s">
+        <v>2710</v>
+      </c>
+      <c r="C1035" s="4" t="s">
+        <v>2711</v>
+      </c>
+      <c r="E1035" s="5" t="s">
+        <v>2564</v>
+      </c>
+      <c r="F1035" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1035" s="3">
+        <v>120</v>
+      </c>
+      <c r="H1035" s="3">
+        <v>4200</v>
+      </c>
+      <c r="I1035" s="29" t="s">
+        <v>2712</v>
+      </c>
+    </row>
+    <row r="1036" ht="17.4" spans="1:9">
+      <c r="A1036" s="27" t="s">
+        <v>2713</v>
+      </c>
+      <c r="C1036" s="4" t="s">
+        <v>2714</v>
+      </c>
+      <c r="E1036" s="5" t="s">
+        <v>2625</v>
+      </c>
+      <c r="F1036" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="G1036" s="3">
+        <v>60</v>
+      </c>
+      <c r="H1036" s="3">
+        <v>2579</v>
+      </c>
+      <c r="I1036" s="29" t="s">
+        <v>2715</v>
+      </c>
+    </row>
+    <row r="1037" ht="17.4" spans="1:9">
+      <c r="A1037" s="27" t="s">
+        <v>2716</v>
+      </c>
+      <c r="C1037" s="4" t="s">
+        <v>2717</v>
+      </c>
+      <c r="E1037" s="5" t="s">
+        <v>2564</v>
+      </c>
+      <c r="F1037" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1037" s="3">
+        <v>38</v>
+      </c>
+      <c r="H1037" s="3">
+        <v>750</v>
+      </c>
+      <c r="I1037" s="29" t="s">
+        <v>2718</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:9">
+      <c r="A1038" s="3" t="s">
+        <v>2719</v>
+      </c>
+      <c r="C1038" s="4" t="s">
+        <v>2543</v>
+      </c>
+      <c r="E1038" s="5" t="s">
+        <v>2540</v>
+      </c>
+      <c r="F1038" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1038" s="3">
+        <v>42</v>
+      </c>
+      <c r="H1038" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I1038" s="29" t="s">
+        <v>2720</v>
+      </c>
+    </row>
+    <row r="1039" ht="17.4" spans="1:9">
+      <c r="A1039" s="27" t="s">
+        <v>2721</v>
+      </c>
+      <c r="C1039" s="4" t="s">
+        <v>2722</v>
+      </c>
+      <c r="E1039" s="5" t="s">
+        <v>2629</v>
+      </c>
+      <c r="F1039" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="G1039" s="3">
+        <v>88</v>
+      </c>
+      <c r="H1039" s="3">
+        <v>3200</v>
+      </c>
+      <c r="I1039" s="29" t="s">
+        <v>2723</v>
+      </c>
+    </row>
+    <row r="1040" ht="17.4" spans="1:9">
+      <c r="A1040" s="27" t="s">
+        <v>2724</v>
+      </c>
+      <c r="C1040" s="4" t="s">
+        <v>2725</v>
+      </c>
+      <c r="E1040" s="5" t="s">
+        <v>2553</v>
+      </c>
+      <c r="F1040" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1040" s="3">
+        <v>69</v>
+      </c>
+      <c r="I1040" s="29" t="s">
+        <v>2726</v>
+      </c>
+    </row>
+    <row r="1041" ht="17.4" spans="1:9">
+      <c r="A1041" s="27" t="s">
+        <v>2727</v>
+      </c>
+      <c r="C1041" s="4" t="s">
+        <v>631</v>
+      </c>
+      <c r="E1041" s="5" t="s">
+        <v>2564</v>
+      </c>
+      <c r="F1041" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1041" s="3">
+        <v>42</v>
+      </c>
+      <c r="I1041" s="30" t="s">
+        <v>2728</v>
+      </c>
+    </row>
+    <row r="1042" ht="17.4" spans="1:9">
+      <c r="A1042" s="27" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C1042" s="4" t="s">
+        <v>631</v>
+      </c>
+      <c r="E1042" s="5" t="s">
+        <v>2506</v>
+      </c>
+      <c r="F1042" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1042" s="3">
+        <v>130</v>
+      </c>
+      <c r="H1042" s="3">
+        <v>3000</v>
+      </c>
+      <c r="I1042" s="29" t="s">
+        <v>2730</v>
+      </c>
+    </row>
+    <row r="1043" ht="17.4" spans="1:9">
+      <c r="A1043" s="27" t="s">
+        <v>2731</v>
+      </c>
+      <c r="C1043" s="4" t="s">
+        <v>2732</v>
+      </c>
+      <c r="E1043" s="5" t="s">
+        <v>2509</v>
+      </c>
+      <c r="F1043" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1043" s="3">
+        <v>120</v>
+      </c>
+      <c r="H1043" s="3">
+        <v>3600</v>
+      </c>
+      <c r="I1043" s="29" t="s">
+        <v>2733</v>
+      </c>
+    </row>
+    <row r="1044" ht="17.4" spans="1:9">
+      <c r="A1044" s="27" t="s">
+        <v>2734</v>
+      </c>
+      <c r="C1044" s="4" t="s">
+        <v>2516</v>
+      </c>
+      <c r="E1044" s="5" t="s">
+        <v>2528</v>
+      </c>
+      <c r="F1044" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="G1044" s="3">
+        <v>30</v>
+      </c>
+      <c r="I1044" s="29" t="s">
+        <v>2735</v>
+      </c>
+    </row>
+    <row r="1045" ht="17.4" spans="1:9">
+      <c r="A1045" s="27" t="s">
+        <v>2736</v>
+      </c>
+      <c r="C1045" s="4" t="s">
+        <v>2737</v>
+      </c>
+      <c r="E1045" s="5" t="s">
+        <v>2523</v>
+      </c>
+      <c r="F1045" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1045" s="3">
+        <v>150</v>
+      </c>
+      <c r="H1045" s="3">
+        <v>5500</v>
+      </c>
+      <c r="I1045" s="29" t="s">
+        <v>2738</v>
+      </c>
+    </row>
+    <row r="1046" ht="17.4" spans="1:9">
+      <c r="A1046" s="27" t="s">
+        <v>2739</v>
+      </c>
+      <c r="C1046" s="4" t="s">
+        <v>2588</v>
+      </c>
+      <c r="E1046" s="5" t="s">
+        <v>2513</v>
+      </c>
+      <c r="F1046" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="G1046" s="3">
+        <v>143</v>
+      </c>
+      <c r="H1046" s="3">
+        <v>4000</v>
+      </c>
+      <c r="I1046" s="29" t="s">
+        <v>2740</v>
+      </c>
+    </row>
+    <row r="1047" ht="17.4" spans="1:9">
+      <c r="A1047" s="27" t="s">
+        <v>2739</v>
+      </c>
+      <c r="C1047" s="4" t="s">
+        <v>1774</v>
+      </c>
+      <c r="E1047" s="5" t="s">
+        <v>2553</v>
+      </c>
+      <c r="F1047" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="G1047" s="3">
+        <v>65</v>
+      </c>
+      <c r="H1047" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I1047" s="29" t="s">
+        <v>2741</v>
+      </c>
+    </row>
+    <row r="1048" ht="17.4" spans="1:9">
+      <c r="A1048" s="27" t="s">
+        <v>2742</v>
+      </c>
+      <c r="C1048" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="E1048" s="5" t="s">
+        <v>2564</v>
+      </c>
+      <c r="F1048" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1048" s="3">
+        <v>241</v>
+      </c>
+      <c r="H1048" s="3">
+        <v>8000</v>
+      </c>
+      <c r="I1048" s="29" t="s">
+        <v>2743</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:9">
+      <c r="A1049" s="3" t="s">
+        <v>2744</v>
+      </c>
+      <c r="C1049" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="E1049" s="5" t="s">
+        <v>2513</v>
+      </c>
+      <c r="F1049" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1049" s="3">
+        <v>126</v>
+      </c>
+      <c r="H1049" s="3">
+        <v>6386</v>
+      </c>
+      <c r="I1049" s="29" t="s">
+        <v>2745</v>
+      </c>
+    </row>
+    <row r="1050" ht="17.4" spans="1:9">
+      <c r="A1050" s="27" t="s">
+        <v>2746</v>
+      </c>
+      <c r="C1050" s="4" t="s">
+        <v>888</v>
+      </c>
+      <c r="E1050" s="5" t="s">
+        <v>2747</v>
+      </c>
+      <c r="F1050" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1050" s="3">
+        <v>200</v>
+      </c>
+      <c r="H1050" s="3">
+        <v>6800</v>
+      </c>
+      <c r="I1050" s="29" t="s">
+        <v>2748</v>
+      </c>
+    </row>
+    <row r="1051" ht="17.4" spans="1:9">
+      <c r="A1051" s="27" t="s">
+        <v>2749</v>
+      </c>
+      <c r="C1051" s="4" t="s">
+        <v>2750</v>
+      </c>
+      <c r="E1051" s="5" t="s">
+        <v>2509</v>
+      </c>
+      <c r="F1051" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1051" s="3">
+        <v>88</v>
+      </c>
+      <c r="I1051" s="29" t="s">
+        <v>2751</v>
+      </c>
+    </row>
+    <row r="1052" ht="17.4" spans="1:9">
+      <c r="A1052" s="27" t="s">
+        <v>2752</v>
+      </c>
+      <c r="C1052" s="4" t="s">
+        <v>2602</v>
+      </c>
+      <c r="E1052" s="5" t="s">
+        <v>2553</v>
+      </c>
+      <c r="F1052" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1052" s="3">
+        <v>63</v>
+      </c>
+      <c r="H1052" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I1052" s="29" t="s">
+        <v>2753</v>
+      </c>
+    </row>
+    <row r="1053" ht="17.4" spans="1:9">
+      <c r="A1053" s="27" t="s">
+        <v>2754</v>
+      </c>
+      <c r="C1053" s="4" t="s">
+        <v>2615</v>
+      </c>
+      <c r="E1053" s="5" t="s">
+        <v>2553</v>
+      </c>
+      <c r="F1053" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1053" s="3">
+        <v>140</v>
+      </c>
+      <c r="H1053" s="3">
+        <v>4100</v>
+      </c>
+      <c r="I1053" s="29" t="s">
+        <v>2755</v>
+      </c>
+    </row>
+    <row r="1054" ht="17.4" spans="1:9">
+      <c r="A1054" s="27" t="s">
+        <v>2756</v>
+      </c>
+      <c r="C1054" s="4" t="s">
+        <v>2757</v>
+      </c>
+      <c r="E1054" s="5" t="s">
+        <v>2650</v>
+      </c>
+      <c r="F1054" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1054" s="3">
+        <v>167</v>
+      </c>
+      <c r="H1054" s="3">
+        <v>9504.71</v>
+      </c>
+      <c r="I1054" s="29" t="s">
+        <v>2758</v>
+      </c>
+    </row>
+    <row r="1055" ht="17.4" spans="1:9">
+      <c r="A1055" s="27" t="s">
+        <v>2759</v>
+      </c>
+      <c r="C1055" s="4" t="s">
+        <v>2760</v>
+      </c>
+      <c r="E1055" s="5" t="s">
+        <v>2506</v>
+      </c>
+      <c r="F1055" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1055" s="3">
+        <v>300</v>
+      </c>
+      <c r="H1055" s="3">
+        <v>4000</v>
+      </c>
+      <c r="I1055" s="29" t="s">
+        <v>2761</v>
+      </c>
+    </row>
+    <row r="1056" ht="17.4" spans="1:9">
+      <c r="A1056" s="27" t="s">
+        <v>2762</v>
+      </c>
+      <c r="C1056" s="4" t="s">
+        <v>2763</v>
+      </c>
+      <c r="E1056" s="5" t="s">
+        <v>2513</v>
+      </c>
+      <c r="F1056" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1056" s="3">
+        <v>40</v>
+      </c>
+      <c r="I1056" s="29" t="s">
+        <v>2764</v>
+      </c>
+    </row>
+    <row r="1057" ht="17.4" spans="1:9">
+      <c r="A1057" s="27" t="s">
+        <v>2765</v>
+      </c>
+      <c r="C1057" s="4" t="s">
+        <v>2766</v>
+      </c>
+      <c r="E1057" s="5" t="s">
+        <v>2553</v>
+      </c>
+      <c r="F1057" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1057" s="3">
+        <v>256</v>
+      </c>
+      <c r="I1057" s="29" t="s">
+        <v>2767</v>
+      </c>
+    </row>
+    <row r="1058" ht="17.4" spans="1:9">
+      <c r="A1058" s="27" t="s">
+        <v>2768</v>
+      </c>
+      <c r="C1058" s="4" t="s">
+        <v>2769</v>
+      </c>
+      <c r="E1058" s="5" t="s">
+        <v>2513</v>
+      </c>
+      <c r="F1058" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1058" s="3">
+        <v>121</v>
+      </c>
+      <c r="I1058" s="3" t="s">
+        <v>2770</v>
+      </c>
+    </row>
+    <row r="1059" ht="17.4" spans="1:9">
+      <c r="A1059" s="27" t="s">
+        <v>2771</v>
+      </c>
+      <c r="C1059" s="4" t="s">
+        <v>2772</v>
+      </c>
+      <c r="E1059" s="5" t="s">
+        <v>2506</v>
+      </c>
+      <c r="F1059" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="G1059" s="3">
+        <v>48</v>
+      </c>
+      <c r="H1059" s="3">
+        <v>1080</v>
+      </c>
+      <c r="I1059" s="29" t="s">
+        <v>2773</v>
+      </c>
+    </row>
+    <row r="1060" ht="17.4" spans="1:9">
+      <c r="A1060" s="27" t="s">
+        <v>2774</v>
+      </c>
+      <c r="C1060" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E1060" s="5" t="s">
+        <v>2540</v>
+      </c>
+      <c r="F1060" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="G1060" s="3">
+        <v>55</v>
+      </c>
+      <c r="H1060" s="3">
+        <v>3000</v>
+      </c>
+      <c r="I1060" s="29" t="s">
+        <v>2775</v>
+      </c>
+    </row>
+    <row r="1061" ht="17.4" spans="1:9">
+      <c r="A1061" s="27" t="s">
+        <v>2776</v>
+      </c>
+      <c r="C1061" s="4" t="s">
+        <v>2777</v>
+      </c>
+      <c r="E1061" s="5" t="s">
+        <v>2506</v>
+      </c>
+      <c r="F1061" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1061" s="3">
+        <v>2</v>
+      </c>
+      <c r="H1061" s="3">
+        <v>1</v>
+      </c>
+      <c r="I1061" s="29" t="s">
+        <v>2778</v>
+      </c>
+    </row>
+    <row r="1062" ht="17.4" spans="1:9">
+      <c r="A1062" s="27" t="s">
+        <v>2779</v>
+      </c>
+      <c r="C1062" s="4" t="s">
+        <v>2780</v>
+      </c>
+      <c r="E1062" s="5" t="s">
+        <v>2506</v>
+      </c>
+      <c r="F1062" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1062" s="3">
+        <v>2</v>
+      </c>
+      <c r="I1062" s="29" t="s">
+        <v>2781</v>
+      </c>
+    </row>
+    <row r="1063" ht="17.4" spans="1:9">
+      <c r="A1063" s="27" t="s">
+        <v>2782</v>
+      </c>
+      <c r="C1063" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E1063" s="5" t="s">
+        <v>2513</v>
+      </c>
+      <c r="F1063" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1063" s="3">
+        <v>76</v>
+      </c>
+      <c r="I1063" s="29" t="s">
+        <v>2783</v>
+      </c>
+    </row>
+    <row r="1064" ht="17.4" spans="1:9">
+      <c r="A1064" s="27" t="s">
+        <v>2784</v>
+      </c>
+      <c r="C1064" s="4" t="s">
+        <v>2785</v>
+      </c>
+      <c r="E1064" s="5" t="s">
+        <v>2506</v>
+      </c>
+      <c r="F1064" s="3" t="s">
+        <v>2786</v>
+      </c>
+      <c r="G1064" s="3">
+        <v>32</v>
+      </c>
+      <c r="H1064" s="3">
+        <v>980</v>
+      </c>
+      <c r="I1064" s="29" t="s">
+        <v>2787</v>
+      </c>
+    </row>
+    <row r="1065" ht="17.4" spans="1:9">
+      <c r="A1065" s="27" t="s">
+        <v>2788</v>
+      </c>
+      <c r="C1065" s="4" t="s">
+        <v>1153</v>
+      </c>
+      <c r="E1065" s="5" t="s">
+        <v>2629</v>
+      </c>
+      <c r="F1065" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1065" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H1065" s="3">
+        <v>30000</v>
+      </c>
+      <c r="I1065" s="29" t="s">
+        <v>2789</v>
+      </c>
+    </row>
+    <row r="1066" ht="17.4" spans="1:9">
+      <c r="A1066" s="27" t="s">
+        <v>2790</v>
+      </c>
+      <c r="C1066" s="4" t="s">
+        <v>2038</v>
+      </c>
+      <c r="E1066" s="5" t="s">
+        <v>2629</v>
+      </c>
+      <c r="F1066" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="G1066" s="3">
+        <v>30</v>
+      </c>
+      <c r="H1066" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I1066" s="29" t="s">
+        <v>2791</v>
+      </c>
+    </row>
+    <row r="1067" ht="17.4" spans="1:9">
+      <c r="A1067" s="27" t="s">
+        <v>2792</v>
+      </c>
+      <c r="C1067" s="4" t="s">
+        <v>2793</v>
+      </c>
+      <c r="E1067" s="5" t="s">
+        <v>2533</v>
+      </c>
+      <c r="F1067" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="G1067" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H1067" s="3">
+        <v>130000</v>
+      </c>
+      <c r="I1067" s="3" t="s">
+        <v>2794</v>
+      </c>
+    </row>
+    <row r="1068" ht="17.4" spans="1:9">
+      <c r="A1068" s="27" t="s">
+        <v>2795</v>
+      </c>
+      <c r="C1068" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E1068" s="5" t="s">
+        <v>2553</v>
+      </c>
+      <c r="F1068" s="3" t="s">
+        <v>2786</v>
+      </c>
+      <c r="G1068" s="3">
+        <v>500</v>
+      </c>
+      <c r="I1068" s="29" t="s">
+        <v>2796</v>
+      </c>
+    </row>
+    <row r="1069" ht="17.4" spans="1:9">
+      <c r="A1069" s="27" t="s">
+        <v>2797</v>
+      </c>
+      <c r="C1069" s="4" t="s">
+        <v>2798</v>
+      </c>
+      <c r="E1069" s="5" t="s">
+        <v>2540</v>
+      </c>
+      <c r="F1069" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1069" s="3">
+        <v>107</v>
+      </c>
+      <c r="H1069" s="3">
+        <v>3000</v>
+      </c>
+      <c r="I1069" s="29" t="s">
+        <v>2799</v>
+      </c>
+    </row>
+    <row r="1070" ht="17.4" spans="1:9">
+      <c r="A1070" s="27" t="s">
+        <v>2800</v>
+      </c>
+      <c r="C1070" s="4" t="s">
+        <v>888</v>
+      </c>
+      <c r="E1070" s="5" t="s">
+        <v>2523</v>
+      </c>
+      <c r="F1070" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1070" s="3">
+        <v>25</v>
+      </c>
+      <c r="H1070" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I1070" s="29" t="s">
+        <v>2801</v>
+      </c>
+    </row>
+    <row r="1071" ht="17.4" spans="1:9">
+      <c r="A1071" s="27" t="s">
+        <v>2802</v>
+      </c>
+      <c r="C1071" s="4" t="s">
+        <v>2803</v>
+      </c>
+      <c r="E1071" s="5" t="s">
+        <v>2523</v>
+      </c>
+      <c r="F1071" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1071" s="3">
+        <v>20</v>
+      </c>
+      <c r="H1071" s="3">
+        <v>400</v>
+      </c>
+      <c r="I1071" s="29" t="s">
+        <v>2804</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:9">
+      <c r="A1072" s="29" t="s">
+        <v>2804</v>
+      </c>
+      <c r="C1072" s="4" t="s">
+        <v>888</v>
+      </c>
+      <c r="E1072" s="5" t="s">
+        <v>2523</v>
+      </c>
+      <c r="F1072" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1072" s="3">
+        <v>50</v>
+      </c>
+      <c r="H1072" s="3">
+        <v>5000</v>
+      </c>
+      <c r="I1072" s="29" t="s">
+        <v>2805</v>
+      </c>
+    </row>
+    <row r="1073" ht="17.4" spans="1:9">
+      <c r="A1073" s="27" t="s">
+        <v>2806</v>
+      </c>
+      <c r="C1073" s="4" t="s">
+        <v>2807</v>
+      </c>
+      <c r="E1073" s="5" t="s">
+        <v>2668</v>
+      </c>
+      <c r="F1073" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1073" s="3">
+        <v>50</v>
+      </c>
+      <c r="I1073" s="29" t="s">
+        <v>2808</v>
+      </c>
+    </row>
+    <row r="1074" ht="17.4" spans="1:9">
+      <c r="A1074" s="27" t="s">
+        <v>2809</v>
+      </c>
+      <c r="C1074" s="4" t="s">
+        <v>2810</v>
+      </c>
+      <c r="E1074" s="5" t="s">
+        <v>2560</v>
+      </c>
+      <c r="F1074" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1074" s="3">
+        <v>200</v>
+      </c>
+      <c r="I1074" s="29" t="s">
+        <v>2811</v>
+      </c>
+    </row>
+    <row r="1075" ht="17.4" spans="1:9">
+      <c r="A1075" s="27" t="s">
+        <v>2812</v>
+      </c>
+      <c r="C1075" s="4" t="s">
+        <v>2813</v>
+      </c>
+      <c r="E1075" s="5" t="s">
+        <v>2564</v>
+      </c>
+      <c r="F1075" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1075" s="3">
+        <v>70</v>
+      </c>
+      <c r="I1075" s="29" t="s">
+        <v>2814</v>
+      </c>
+    </row>
+    <row r="1076" ht="17.4" spans="1:9">
+      <c r="A1076" s="27" t="s">
+        <v>2815</v>
+      </c>
+      <c r="C1076" s="4" t="s">
+        <v>2816</v>
+      </c>
+      <c r="E1076" s="5" t="s">
+        <v>2553</v>
+      </c>
+      <c r="F1076" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1076" s="3">
+        <v>20</v>
+      </c>
+      <c r="H1076" s="3">
+        <v>200</v>
+      </c>
+      <c r="I1076" s="29" t="s">
+        <v>2817</v>
+      </c>
+    </row>
+    <row r="1077" ht="17.4" spans="1:9">
+      <c r="A1077" s="27" t="s">
+        <v>2818</v>
+      </c>
+      <c r="C1077" s="4" t="s">
+        <v>1655</v>
+      </c>
+      <c r="E1077" s="5" t="s">
+        <v>2553</v>
+      </c>
+      <c r="F1077" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="G1077" s="3">
+        <v>31</v>
+      </c>
+      <c r="H1077" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I1077" s="29" t="s">
+        <v>2819</v>
+      </c>
+    </row>
+    <row r="1078" ht="17.4" spans="1:9">
+      <c r="A1078" s="27" t="s">
+        <v>2820</v>
+      </c>
+      <c r="C1078" s="4" t="s">
+        <v>706</v>
+      </c>
+      <c r="E1078" s="5" t="s">
+        <v>2528</v>
+      </c>
+      <c r="F1078" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="G1078" s="3">
+        <v>110</v>
+      </c>
+      <c r="I1078" s="29" t="s">
+        <v>2821</v>
+      </c>
+    </row>
+    <row r="1079" ht="17.4" spans="1:9">
+      <c r="A1079" s="27" t="s">
+        <v>2822</v>
+      </c>
+      <c r="C1079" s="4" t="s">
+        <v>1730</v>
+      </c>
+      <c r="E1079" s="5" t="s">
+        <v>2544</v>
+      </c>
+      <c r="F1079" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1079" s="3">
+        <v>200</v>
+      </c>
+      <c r="I1079" s="29" t="s">
+        <v>2823</v>
+      </c>
+    </row>
+    <row r="1080" ht="17.4" spans="1:9">
+      <c r="A1080" s="27" t="s">
+        <v>2824</v>
+      </c>
+      <c r="C1080" s="4" t="s">
+        <v>2825</v>
+      </c>
+      <c r="E1080" s="5" t="s">
+        <v>2533</v>
+      </c>
+      <c r="F1080" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1080" s="3">
+        <v>300</v>
+      </c>
+      <c r="I1080" s="29" t="s">
+        <v>2826</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:9">
+      <c r="A1081" s="3" t="s">
+        <v>2827</v>
+      </c>
+      <c r="C1081" s="4" t="s">
+        <v>2828</v>
+      </c>
+      <c r="E1081" s="5" t="s">
+        <v>2553</v>
+      </c>
+      <c r="F1081" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1081" s="3">
+        <v>2200</v>
+      </c>
+      <c r="I1081" s="29" t="s">
+        <v>2829</v>
+      </c>
+    </row>
+    <row r="1082" ht="17.4" spans="1:9">
+      <c r="A1082" s="27" t="s">
+        <v>2830</v>
+      </c>
+      <c r="E1082" s="5" t="s">
+        <v>2553</v>
+      </c>
+      <c r="F1082" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1082" s="3">
+        <v>60</v>
+      </c>
+      <c r="I1082" s="29" t="s">
+        <v>2831</v>
+      </c>
+    </row>
+    <row r="1083" ht="17.4" spans="1:9">
+      <c r="A1083" s="27" t="s">
+        <v>2832</v>
+      </c>
+      <c r="C1083" s="4" t="s">
+        <v>2833</v>
+      </c>
+      <c r="E1083" s="5" t="s">
+        <v>2506</v>
+      </c>
+      <c r="F1083" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1083" s="3">
+        <v>47</v>
+      </c>
+      <c r="I1083" s="29" t="s">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="1084" ht="17.4" spans="1:9">
+      <c r="A1084" s="27" t="s">
+        <v>2834</v>
+      </c>
+      <c r="C1084" s="4" t="s">
+        <v>2835</v>
+      </c>
+      <c r="E1084" s="5" t="s">
+        <v>2523</v>
+      </c>
+      <c r="F1084" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1084" s="3">
+        <v>200</v>
+      </c>
+      <c r="I1084" s="29" t="s">
+        <v>2836</v>
+      </c>
+    </row>
+    <row r="1085" ht="17.4" spans="1:9">
+      <c r="A1085" s="27" t="s">
+        <v>2837</v>
+      </c>
+      <c r="C1085" s="4" t="s">
+        <v>997</v>
+      </c>
+      <c r="E1085" s="5" t="s">
+        <v>2509</v>
+      </c>
+      <c r="F1085" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1085" s="3">
+        <v>70</v>
+      </c>
+      <c r="I1085" s="29" t="s">
+        <v>2838</v>
+      </c>
+    </row>
+    <row r="1086" ht="17.4" spans="1:9">
+      <c r="A1086" s="27" t="s">
+        <v>2839</v>
+      </c>
+      <c r="E1086" s="5" t="s">
+        <v>2564</v>
+      </c>
+      <c r="F1086" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1086" s="3">
+        <v>50</v>
+      </c>
+      <c r="I1086" s="29" t="s">
+        <v>2840</v>
+      </c>
+    </row>
+    <row r="1087" ht="17.4" spans="1:9">
+      <c r="A1087" s="27" t="s">
+        <v>2841</v>
+      </c>
+      <c r="C1087" s="4" t="s">
+        <v>2842</v>
+      </c>
+      <c r="E1087" s="5" t="s">
+        <v>2528</v>
+      </c>
+      <c r="F1087" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1087" s="3">
+        <v>133</v>
+      </c>
+      <c r="I1087" s="29" t="s">
+        <v>2843</v>
+      </c>
+    </row>
+    <row r="1088" ht="17.4" spans="1:9">
+      <c r="A1088" s="27" t="s">
+        <v>2844</v>
+      </c>
+      <c r="C1088" s="4" t="s">
+        <v>2845</v>
+      </c>
+      <c r="E1088" s="5" t="s">
+        <v>2625</v>
+      </c>
+      <c r="F1088" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1088" s="3">
+        <v>50</v>
+      </c>
+      <c r="I1088" s="29" t="s">
+        <v>2846</v>
+      </c>
+    </row>
+    <row r="1089" ht="17.4" spans="1:9">
+      <c r="A1089" s="27" t="s">
+        <v>2847</v>
+      </c>
+      <c r="C1089" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E1089" s="5" t="s">
+        <v>2625</v>
+      </c>
+      <c r="F1089" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1089" s="3">
+        <v>100</v>
+      </c>
+      <c r="I1089" s="29" t="s">
+        <v>2848</v>
+      </c>
+    </row>
+    <row r="1090" ht="17.4" spans="1:9">
+      <c r="A1090" s="27" t="s">
+        <v>2849</v>
+      </c>
+      <c r="C1090" s="4" t="s">
+        <v>2850</v>
+      </c>
+      <c r="E1090" s="5" t="s">
+        <v>2625</v>
+      </c>
+      <c r="F1090" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1090" s="3">
+        <v>200</v>
+      </c>
+      <c r="I1090" s="29" t="s">
+        <v>2851</v>
+      </c>
+    </row>
+    <row r="1091" ht="17.4" spans="1:9">
+      <c r="A1091" s="27" t="s">
+        <v>2852</v>
+      </c>
+      <c r="E1091" s="5" t="s">
+        <v>2513</v>
+      </c>
+      <c r="F1091" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1091" s="3">
+        <v>90</v>
+      </c>
+      <c r="I1091" s="29" t="s">
+        <v>2853</v>
+      </c>
+    </row>
+    <row r="1092" ht="17.4" spans="1:9">
+      <c r="A1092" s="27" t="s">
+        <v>2854</v>
+      </c>
+      <c r="C1092" s="4" t="s">
+        <v>2855</v>
+      </c>
+      <c r="E1092" s="5" t="s">
+        <v>2506</v>
+      </c>
+      <c r="F1092" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1092" s="3">
+        <v>300</v>
+      </c>
+      <c r="I1092" s="29" t="s">
+        <v>2856</v>
+      </c>
+    </row>
+    <row r="1093" ht="17.4" spans="1:9">
+      <c r="A1093" s="27" t="s">
+        <v>2857</v>
+      </c>
+      <c r="C1093" s="4" t="s">
+        <v>1725</v>
+      </c>
+      <c r="E1093" s="5" t="s">
+        <v>2540</v>
+      </c>
+      <c r="F1093" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1093" s="3">
+        <v>200</v>
+      </c>
+      <c r="I1093" s="29" t="s">
+        <v>2858</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:9">
+      <c r="A1094" s="3" t="s">
+        <v>2859</v>
+      </c>
+      <c r="C1094" s="4" t="s">
+        <v>2860</v>
+      </c>
+      <c r="E1094" s="5" t="s">
+        <v>2668</v>
+      </c>
+      <c r="F1094" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1094" s="3">
+        <v>30</v>
+      </c>
+      <c r="I1094" s="29" t="s">
+        <v>2861</v>
+      </c>
+    </row>
+    <row r="1095" ht="17.4" spans="1:9">
+      <c r="A1095" s="27" t="s">
+        <v>2862</v>
+      </c>
+      <c r="C1095" s="4" t="s">
+        <v>2863</v>
+      </c>
+      <c r="E1095" s="5" t="s">
+        <v>2668</v>
+      </c>
+      <c r="F1095" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1095" s="3">
+        <v>160</v>
+      </c>
+      <c r="I1095" s="29" t="s">
+        <v>2864</v>
+      </c>
+    </row>
+    <row r="1096" ht="17.4" spans="1:9">
+      <c r="A1096" s="27" t="s">
+        <v>2865</v>
+      </c>
+      <c r="C1096" s="4" t="s">
+        <v>2866</v>
+      </c>
+      <c r="E1096" s="5" t="s">
+        <v>2523</v>
+      </c>
+      <c r="F1096" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1096" s="3">
+        <v>100</v>
+      </c>
+      <c r="I1096" s="29" t="s">
+        <v>2867</v>
+      </c>
+    </row>
+    <row r="1097" ht="17.4" spans="1:9">
+      <c r="A1097" s="27" t="s">
+        <v>2868</v>
+      </c>
+      <c r="C1097" s="4" t="s">
+        <v>2869</v>
+      </c>
+      <c r="E1097" s="5" t="s">
+        <v>2540</v>
+      </c>
+      <c r="F1097" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1097" s="3">
+        <v>180</v>
+      </c>
+      <c r="I1097" s="29" t="s">
+        <v>2870</v>
+      </c>
+    </row>
+    <row r="1098" ht="17.4" spans="1:9">
+      <c r="A1098" s="27" t="s">
+        <v>2871</v>
+      </c>
+      <c r="C1098" s="4" t="s">
+        <v>2872</v>
+      </c>
+      <c r="E1098" s="5" t="s">
+        <v>2665</v>
+      </c>
+      <c r="F1098" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1098" s="3">
+        <v>80</v>
+      </c>
+      <c r="I1098" s="30" t="s">
+        <v>2873</v>
+      </c>
+    </row>
+    <row r="1099" ht="17.4" spans="1:9">
+      <c r="A1099" s="27" t="s">
+        <v>2874</v>
+      </c>
+      <c r="C1099" s="4" t="s">
+        <v>2875</v>
+      </c>
+      <c r="E1099" s="5" t="s">
+        <v>2528</v>
+      </c>
+      <c r="F1099" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1099" s="3">
+        <v>116</v>
+      </c>
+      <c r="I1099" s="31" t="s">
+        <v>2876</v>
+      </c>
+    </row>
+    <row r="1100" ht="17.4" spans="1:9">
+      <c r="A1100" s="27" t="s">
+        <v>2617</v>
+      </c>
+      <c r="C1100" s="4" t="s">
+        <v>650</v>
+      </c>
+      <c r="E1100" s="5" t="s">
+        <v>2509</v>
+      </c>
+      <c r="F1100" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1100" s="3">
+        <v>50</v>
+      </c>
+      <c r="I1100" s="29" t="s">
+        <v>2877</v>
+      </c>
+    </row>
+    <row r="1101" ht="17.4" spans="1:9">
+      <c r="A1101" s="27" t="s">
+        <v>2878</v>
+      </c>
+      <c r="E1101" s="5" t="s">
+        <v>2506</v>
+      </c>
+      <c r="F1101" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1101" s="3">
+        <v>50</v>
+      </c>
+      <c r="I1101" s="29" t="s">
+        <v>2879</v>
+      </c>
+    </row>
+    <row r="1102" ht="17.4" spans="1:9">
+      <c r="A1102" s="27" t="s">
+        <v>2880</v>
+      </c>
+      <c r="C1102" s="4" t="s">
+        <v>2881</v>
+      </c>
+      <c r="E1102" s="5" t="s">
+        <v>2665</v>
+      </c>
+      <c r="F1102" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1102" s="3">
+        <v>320</v>
+      </c>
+      <c r="I1102" s="29" t="s">
+        <v>2882</v>
+      </c>
+    </row>
+    <row r="1103" ht="17.4" spans="1:9">
+      <c r="A1103" s="27" t="s">
+        <v>2883</v>
+      </c>
+      <c r="E1103" s="5" t="s">
+        <v>2533</v>
+      </c>
+      <c r="F1103" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1103" s="3">
+        <v>100</v>
+      </c>
+      <c r="I1103" s="32" t="s">
+        <v>2884</v>
+      </c>
+    </row>
+    <row r="1104" ht="17.4" spans="1:9">
+      <c r="A1104" s="27" t="s">
+        <v>2885</v>
+      </c>
+      <c r="E1104" s="5" t="s">
+        <v>2540</v>
+      </c>
+      <c r="F1104" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1104" s="3">
+        <v>66</v>
+      </c>
+      <c r="I1104" s="3" t="s">
+        <v>2886</v>
+      </c>
+    </row>
+    <row r="1105" ht="17.4" spans="1:9">
+      <c r="A1105" s="27" t="s">
+        <v>2887</v>
+      </c>
+      <c r="E1105" s="5" t="s">
+        <v>2540</v>
+      </c>
+      <c r="F1105" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1105" s="3">
+        <v>50</v>
+      </c>
+      <c r="I1105" s="29" t="s">
+        <v>2888</v>
+      </c>
+    </row>
+    <row r="1106" ht="17.4" spans="1:9">
+      <c r="A1106" s="27" t="s">
+        <v>2889</v>
+      </c>
+      <c r="C1106" s="4" t="s">
+        <v>1042</v>
+      </c>
+      <c r="E1106" s="5" t="s">
+        <v>2564</v>
+      </c>
+      <c r="F1106" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1106" s="3">
+        <v>500</v>
+      </c>
+      <c r="I1106" s="29" t="s">
+        <v>2890</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="25.5" customWidth="1"/>
     <col min="2" max="2" width="18.75" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="6" max="6" width="10.125" customWidth="1"/>
+    <col min="6" max="6" width="10.1296296296296" customWidth="1"/>
     <col min="9" max="9" width="31.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>2538</v>
+        <v>2891</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2539</v>
+        <v>2892</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2540</v>
+        <v>2893</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2541</v>
+        <v>2894</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>2542</v>
+        <v>2895</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>2543</v>
+        <v>2896</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>2544</v>
+        <v>2897</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>2545</v>
+        <v>2898</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>2546</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="16.5">
+        <v>2899</v>
+      </c>
+    </row>
+    <row r="2" ht="15.6" spans="1:9">
       <c r="A2" s="2" t="s">
-        <v>2547</v>
+        <v>2900</v>
       </c>
       <c r="B2">
         <v>2014.2</v>
@@ -34012,7 +38187,7 @@
         <v>15000</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>2548</v>
+        <v>2901</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>45</v>
@@ -34021,12 +38196,12 @@
         <v>55</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>2549</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="16.5">
+        <v>2902</v>
+      </c>
+    </row>
+    <row r="3" ht="15.6" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>2550</v>
+        <v>2903</v>
       </c>
       <c r="B3">
         <v>2017.11</v>
@@ -34035,13 +38210,13 @@
         <v>421</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>2551</v>
+        <v>2904</v>
       </c>
       <c r="E3">
         <v>18000</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>2552</v>
+        <v>2905</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>45</v>
@@ -34050,12 +38225,12 @@
         <v>200</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>2553</v>
+        <v>2906</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/dataset/Facility.xlsx
+++ b/dataset/Facility.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ztan1\Documents\2020research\2020research\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E125E7DB-5C8B-4068-B1F9-7987A430CE9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7174403-BDDA-4067-9AC0-77A10902D570}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6585" yWindow="165" windowWidth="22215" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6594" uniqueCount="3045">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6597" uniqueCount="3048">
   <si>
     <t>Name</t>
   </si>
@@ -7791,9 +7791,6 @@
     <t>6/1/2018</t>
   </si>
   <si>
-    <t>成都市武侯区金履一路187号美丽都汇5栋</t>
-  </si>
-  <si>
     <t>远洋•椿萱茂（成都南三环）老年公寓</t>
   </si>
   <si>
@@ -7863,9 +7860,6 @@
     <t>3/15/2015</t>
   </si>
   <si>
-    <t>四川省成都市龙泉驿区洛带镇岐山村6组151号</t>
-  </si>
-  <si>
     <t>云崖牧歌康养中心</t>
   </si>
   <si>
@@ -7876,9 +7870,6 @@
   </si>
   <si>
     <t>成都市稻麦园老年休闲中心</t>
-  </si>
-  <si>
-    <t>成都市青羊区光华大道一段西二蔡桥社区</t>
   </si>
   <si>
     <t>成都市园缘老年公寓</t>
@@ -9226,6 +9217,30 @@
   </si>
   <si>
     <t>成都市双流区万白路22号</t>
+  </si>
+  <si>
+    <t>民政厅项目</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>成都</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>成都羊安路与新城大道交叉路口</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>成都市武侯区金履一路187号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>四川省成都市龙泉驿区洛带镇岐山村</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>成都市青羊区光华大道一段</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -9235,7 +9250,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm/dd/yy;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -9269,6 +9284,14 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -9308,7 +9331,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -9376,6 +9399,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -9653,10 +9679,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J1162"/>
+  <dimension ref="A1:J1163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A921" workbookViewId="0">
-      <selection activeCell="A1121" sqref="A1121"/>
+    <sheetView tabSelected="1" topLeftCell="A1153" workbookViewId="0">
+      <selection activeCell="G1163" sqref="G1163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -35569,17 +35595,17 @@
       </c>
       <c r="H991" s="15"/>
       <c r="I991" s="15" t="s">
-        <v>2589</v>
+        <v>3045</v>
       </c>
       <c r="J991" s="15"/>
     </row>
     <row r="992" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A992" s="21" t="s">
-        <v>2590</v>
+        <v>2589</v>
       </c>
       <c r="B992" s="15"/>
       <c r="C992" s="17" t="s">
-        <v>2591</v>
+        <v>2590</v>
       </c>
       <c r="D992" s="10" t="s">
         <v>2505</v>
@@ -35595,17 +35621,17 @@
       </c>
       <c r="H992" s="15"/>
       <c r="I992" s="15" t="s">
-        <v>2592</v>
+        <v>2591</v>
       </c>
       <c r="J992" s="15"/>
     </row>
     <row r="993" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A993" s="21" t="s">
-        <v>2593</v>
+        <v>2592</v>
       </c>
       <c r="B993" s="15"/>
       <c r="C993" s="17" t="s">
-        <v>2594</v>
+        <v>2593</v>
       </c>
       <c r="D993" s="10" t="s">
         <v>2505</v>
@@ -35621,17 +35647,17 @@
       </c>
       <c r="H993" s="15"/>
       <c r="I993" s="15" t="s">
-        <v>2595</v>
+        <v>2594</v>
       </c>
       <c r="J993" s="15"/>
     </row>
     <row r="994" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A994" s="21" t="s">
-        <v>2596</v>
+        <v>2595</v>
       </c>
       <c r="B994" s="15"/>
       <c r="C994" s="17" t="s">
-        <v>2597</v>
+        <v>2596</v>
       </c>
       <c r="D994" s="10" t="s">
         <v>2505</v>
@@ -35647,13 +35673,13 @@
       </c>
       <c r="H994" s="15"/>
       <c r="I994" s="15" t="s">
-        <v>2598</v>
+        <v>2597</v>
       </c>
       <c r="J994" s="15"/>
     </row>
     <row r="995" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A995" s="21" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
       <c r="B995" s="15"/>
       <c r="C995" s="17" t="s">
@@ -35673,17 +35699,17 @@
       </c>
       <c r="H995" s="15"/>
       <c r="I995" s="15" t="s">
-        <v>2600</v>
+        <v>2599</v>
       </c>
       <c r="J995" s="15"/>
     </row>
     <row r="996" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A996" s="21" t="s">
-        <v>2601</v>
+        <v>2600</v>
       </c>
       <c r="B996" s="15"/>
       <c r="C996" s="17" t="s">
-        <v>2602</v>
+        <v>2601</v>
       </c>
       <c r="D996" s="10" t="s">
         <v>2505</v>
@@ -35699,17 +35725,17 @@
       </c>
       <c r="H996" s="15"/>
       <c r="I996" s="15" t="s">
-        <v>2603</v>
+        <v>2602</v>
       </c>
       <c r="J996" s="15"/>
     </row>
     <row r="997" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A997" s="21" t="s">
-        <v>2604</v>
+        <v>2603</v>
       </c>
       <c r="B997" s="15"/>
       <c r="C997" s="17" t="s">
-        <v>2605</v>
+        <v>2604</v>
       </c>
       <c r="D997" s="10" t="s">
         <v>2505</v>
@@ -35725,13 +35751,13 @@
       </c>
       <c r="H997" s="15"/>
       <c r="I997" s="15" t="s">
-        <v>2606</v>
+        <v>2605</v>
       </c>
       <c r="J997" s="15"/>
     </row>
     <row r="998" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A998" s="21" t="s">
-        <v>2607</v>
+        <v>2606</v>
       </c>
       <c r="B998" s="15"/>
       <c r="C998" s="17" t="s">
@@ -35753,13 +35779,13 @@
         <v>3600</v>
       </c>
       <c r="I998" s="15" t="s">
-        <v>2608</v>
+        <v>2607</v>
       </c>
       <c r="J998" s="15"/>
     </row>
     <row r="999" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A999" s="21" t="s">
-        <v>2609</v>
+        <v>2608</v>
       </c>
       <c r="B999" s="15"/>
       <c r="C999" s="17"/>
@@ -35777,17 +35803,17 @@
       </c>
       <c r="H999" s="15"/>
       <c r="I999" s="15" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
       <c r="J999" s="15"/>
     </row>
     <row r="1000" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1000" s="21" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
       <c r="B1000" s="15"/>
       <c r="C1000" s="17" t="s">
-        <v>2612</v>
+        <v>2611</v>
       </c>
       <c r="D1000" s="10" t="s">
         <v>2505</v>
@@ -35805,17 +35831,17 @@
         <v>5500</v>
       </c>
       <c r="I1000" s="15" t="s">
-        <v>2613</v>
+        <v>3046</v>
       </c>
       <c r="J1000" s="15"/>
     </row>
     <row r="1001" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1001" s="21" t="s">
-        <v>2614</v>
+        <v>2612</v>
       </c>
       <c r="B1001" s="15"/>
       <c r="C1001" s="17" t="s">
-        <v>2615</v>
+        <v>2613</v>
       </c>
       <c r="D1001" s="10" t="s">
         <v>2505</v>
@@ -35833,13 +35859,13 @@
         <v>75473.320000000007</v>
       </c>
       <c r="I1001" s="15" t="s">
-        <v>2616</v>
+        <v>2614</v>
       </c>
       <c r="J1001" s="15"/>
     </row>
     <row r="1002" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1002" s="21" t="s">
-        <v>2617</v>
+        <v>2615</v>
       </c>
       <c r="B1002" s="15"/>
       <c r="C1002" s="17" t="s">
@@ -35859,13 +35885,13 @@
       </c>
       <c r="H1002" s="15"/>
       <c r="I1002" s="15" t="s">
-        <v>2618</v>
+        <v>3047</v>
       </c>
       <c r="J1002" s="15"/>
     </row>
     <row r="1003" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1003" s="21" t="s">
-        <v>2619</v>
+        <v>2616</v>
       </c>
       <c r="B1003" s="15"/>
       <c r="C1003" s="17" t="s">
@@ -35885,17 +35911,17 @@
       </c>
       <c r="H1003" s="15"/>
       <c r="I1003" s="15" t="s">
-        <v>2620</v>
+        <v>2617</v>
       </c>
       <c r="J1003" s="15"/>
     </row>
     <row r="1004" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1004" s="21" t="s">
-        <v>2621</v>
+        <v>2618</v>
       </c>
       <c r="B1004" s="15"/>
       <c r="C1004" s="17" t="s">
-        <v>2622</v>
+        <v>2619</v>
       </c>
       <c r="D1004" s="10" t="s">
         <v>2505</v>
@@ -35911,13 +35937,13 @@
       </c>
       <c r="H1004" s="15"/>
       <c r="I1004" s="15" t="s">
-        <v>2623</v>
+        <v>2620</v>
       </c>
       <c r="J1004" s="15"/>
     </row>
     <row r="1005" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1005" s="21" t="s">
-        <v>2624</v>
+        <v>2621</v>
       </c>
       <c r="B1005" s="15"/>
       <c r="C1005" s="17" t="s">
@@ -35927,7 +35953,7 @@
         <v>2505</v>
       </c>
       <c r="E1005" s="22" t="s">
-        <v>2625</v>
+        <v>2622</v>
       </c>
       <c r="F1005" s="15" t="s">
         <v>45</v>
@@ -35937,23 +35963,23 @@
       </c>
       <c r="H1005" s="15"/>
       <c r="I1005" s="15" t="s">
-        <v>2626</v>
+        <v>2623</v>
       </c>
       <c r="J1005" s="15"/>
     </row>
     <row r="1006" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1006" s="21" t="s">
-        <v>2627</v>
+        <v>2624</v>
       </c>
       <c r="B1006" s="15"/>
       <c r="C1006" s="17" t="s">
-        <v>2628</v>
+        <v>2625</v>
       </c>
       <c r="D1006" s="10" t="s">
         <v>2505</v>
       </c>
       <c r="E1006" s="22" t="s">
-        <v>2629</v>
+        <v>2626</v>
       </c>
       <c r="F1006" s="15" t="s">
         <v>45</v>
@@ -35963,17 +35989,17 @@
       </c>
       <c r="H1006" s="15"/>
       <c r="I1006" s="15" t="s">
-        <v>2630</v>
+        <v>2627</v>
       </c>
       <c r="J1006" s="15"/>
     </row>
     <row r="1007" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1007" s="21" t="s">
-        <v>2631</v>
+        <v>2628</v>
       </c>
       <c r="B1007" s="15"/>
       <c r="C1007" s="17" t="s">
-        <v>2632</v>
+        <v>2629</v>
       </c>
       <c r="D1007" s="10" t="s">
         <v>2505</v>
@@ -35989,13 +36015,13 @@
       </c>
       <c r="H1007" s="15"/>
       <c r="I1007" s="15" t="s">
-        <v>2633</v>
+        <v>2630</v>
       </c>
       <c r="J1007" s="15"/>
     </row>
     <row r="1008" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1008" s="21" t="s">
-        <v>2634</v>
+        <v>2631</v>
       </c>
       <c r="B1008" s="15"/>
       <c r="C1008" s="17" t="s">
@@ -36015,17 +36041,17 @@
       </c>
       <c r="H1008" s="15"/>
       <c r="I1008" s="15" t="s">
-        <v>2635</v>
+        <v>2632</v>
       </c>
       <c r="J1008" s="15"/>
     </row>
     <row r="1009" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1009" s="21" t="s">
-        <v>2636</v>
+        <v>2633</v>
       </c>
       <c r="B1009" s="15"/>
       <c r="C1009" s="17" t="s">
-        <v>2637</v>
+        <v>2634</v>
       </c>
       <c r="D1009" s="10" t="s">
         <v>2505</v>
@@ -36041,17 +36067,17 @@
       </c>
       <c r="H1009" s="15"/>
       <c r="I1009" s="15" t="s">
-        <v>2638</v>
+        <v>2635</v>
       </c>
       <c r="J1009" s="15"/>
     </row>
     <row r="1010" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1010" s="21" t="s">
-        <v>2639</v>
+        <v>2636</v>
       </c>
       <c r="B1010" s="15"/>
       <c r="C1010" s="17" t="s">
-        <v>2640</v>
+        <v>2637</v>
       </c>
       <c r="D1010" s="10" t="s">
         <v>2505</v>
@@ -36067,17 +36093,17 @@
       </c>
       <c r="H1010" s="15"/>
       <c r="I1010" s="15" t="s">
-        <v>2641</v>
+        <v>2638</v>
       </c>
       <c r="J1010" s="15"/>
     </row>
     <row r="1011" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1011" s="21" t="s">
-        <v>2642</v>
+        <v>2639</v>
       </c>
       <c r="B1011" s="15"/>
       <c r="C1011" s="17" t="s">
-        <v>2643</v>
+        <v>2640</v>
       </c>
       <c r="D1011" s="10" t="s">
         <v>2505</v>
@@ -36093,17 +36119,17 @@
       </c>
       <c r="H1011" s="15"/>
       <c r="I1011" s="15" t="s">
-        <v>2644</v>
+        <v>2641</v>
       </c>
       <c r="J1011" s="15"/>
     </row>
     <row r="1012" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1012" s="21" t="s">
-        <v>2645</v>
+        <v>2642</v>
       </c>
       <c r="B1012" s="15"/>
       <c r="C1012" s="17" t="s">
-        <v>2646</v>
+        <v>2643</v>
       </c>
       <c r="D1012" s="10" t="s">
         <v>2505</v>
@@ -36119,23 +36145,23 @@
       </c>
       <c r="H1012" s="15"/>
       <c r="I1012" s="15" t="s">
-        <v>2647</v>
+        <v>2644</v>
       </c>
       <c r="J1012" s="15"/>
     </row>
     <row r="1013" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1013" s="21" t="s">
-        <v>2648</v>
+        <v>2645</v>
       </c>
       <c r="B1013" s="15"/>
       <c r="C1013" s="17" t="s">
-        <v>2649</v>
+        <v>2646</v>
       </c>
       <c r="D1013" s="10" t="s">
         <v>2505</v>
       </c>
       <c r="E1013" s="22" t="s">
-        <v>2650</v>
+        <v>2647</v>
       </c>
       <c r="F1013" s="15" t="s">
         <v>45</v>
@@ -36145,13 +36171,13 @@
       </c>
       <c r="H1013" s="15"/>
       <c r="I1013" s="15" t="s">
-        <v>2651</v>
+        <v>2648</v>
       </c>
       <c r="J1013" s="15"/>
     </row>
     <row r="1014" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1014" s="21" t="s">
-        <v>2652</v>
+        <v>2649</v>
       </c>
       <c r="B1014" s="15"/>
       <c r="C1014" s="17"/>
@@ -36159,7 +36185,7 @@
         <v>2505</v>
       </c>
       <c r="E1014" s="22" t="s">
-        <v>2625</v>
+        <v>2622</v>
       </c>
       <c r="F1014" s="15" t="s">
         <v>45</v>
@@ -36169,13 +36195,13 @@
       </c>
       <c r="H1014" s="15"/>
       <c r="I1014" s="15" t="s">
-        <v>2653</v>
+        <v>2650</v>
       </c>
       <c r="J1014" s="15"/>
     </row>
     <row r="1015" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1015" s="21" t="s">
-        <v>2654</v>
+        <v>2651</v>
       </c>
       <c r="B1015" s="15"/>
       <c r="C1015" s="17" t="s">
@@ -36195,17 +36221,17 @@
       </c>
       <c r="H1015" s="15"/>
       <c r="I1015" s="15" t="s">
-        <v>2655</v>
+        <v>2652</v>
       </c>
       <c r="J1015" s="15"/>
     </row>
     <row r="1016" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1016" s="21" t="s">
-        <v>2656</v>
+        <v>2653</v>
       </c>
       <c r="B1016" s="15"/>
       <c r="C1016" s="17" t="s">
-        <v>2657</v>
+        <v>2654</v>
       </c>
       <c r="D1016" s="10" t="s">
         <v>2505</v>
@@ -36221,17 +36247,17 @@
       </c>
       <c r="H1016" s="15"/>
       <c r="I1016" s="15" t="s">
-        <v>3043</v>
+        <v>3040</v>
       </c>
       <c r="J1016" s="15"/>
     </row>
     <row r="1017" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1017" s="21" t="s">
-        <v>2658</v>
+        <v>2655</v>
       </c>
       <c r="B1017" s="15"/>
       <c r="C1017" s="17" t="s">
-        <v>2659</v>
+        <v>2656</v>
       </c>
       <c r="D1017" s="10" t="s">
         <v>2505</v>
@@ -36247,13 +36273,13 @@
       </c>
       <c r="H1017" s="15"/>
       <c r="I1017" s="15" t="s">
-        <v>2660</v>
+        <v>2657</v>
       </c>
       <c r="J1017" s="15"/>
     </row>
     <row r="1018" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1018" s="21" t="s">
-        <v>2661</v>
+        <v>2658</v>
       </c>
       <c r="B1018" s="15"/>
       <c r="C1018" s="17" t="s">
@@ -36273,13 +36299,13 @@
       </c>
       <c r="H1018" s="15"/>
       <c r="I1018" s="15" t="s">
-        <v>2662</v>
+        <v>2659</v>
       </c>
       <c r="J1018" s="15"/>
     </row>
     <row r="1019" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1019" s="21" t="s">
-        <v>2663</v>
+        <v>2660</v>
       </c>
       <c r="B1019" s="15"/>
       <c r="C1019" s="17" t="s">
@@ -36289,7 +36315,7 @@
         <v>2505</v>
       </c>
       <c r="E1019" s="22" t="s">
-        <v>2664</v>
+        <v>2661</v>
       </c>
       <c r="F1019" s="15" t="s">
         <v>54</v>
@@ -36301,13 +36327,13 @@
         <v>3668</v>
       </c>
       <c r="I1019" s="15" t="s">
-        <v>2665</v>
+        <v>2662</v>
       </c>
       <c r="J1019" s="15"/>
     </row>
     <row r="1020" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1020" s="21" t="s">
-        <v>2666</v>
+        <v>2663</v>
       </c>
       <c r="B1020" s="15"/>
       <c r="C1020" s="17" t="s">
@@ -36317,7 +36343,7 @@
         <v>2505</v>
       </c>
       <c r="E1020" s="22" t="s">
-        <v>2667</v>
+        <v>2664</v>
       </c>
       <c r="F1020" s="15" t="s">
         <v>15</v>
@@ -36329,23 +36355,23 @@
         <v>12000</v>
       </c>
       <c r="I1020" s="15" t="s">
-        <v>2668</v>
+        <v>2665</v>
       </c>
       <c r="J1020" s="15"/>
     </row>
     <row r="1021" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1021" s="21" t="s">
-        <v>2669</v>
+        <v>2666</v>
       </c>
       <c r="B1021" s="15"/>
       <c r="C1021" s="17" t="s">
-        <v>2670</v>
+        <v>2667</v>
       </c>
       <c r="D1021" s="10" t="s">
         <v>2505</v>
       </c>
       <c r="E1021" s="22" t="s">
-        <v>2629</v>
+        <v>2626</v>
       </c>
       <c r="F1021" s="15" t="s">
         <v>178</v>
@@ -36357,23 +36383,23 @@
         <v>15000</v>
       </c>
       <c r="I1021" s="15" t="s">
-        <v>2671</v>
+        <v>2668</v>
       </c>
       <c r="J1021" s="15"/>
     </row>
     <row r="1022" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1022" s="21" t="s">
-        <v>2672</v>
+        <v>2669</v>
       </c>
       <c r="B1022" s="15"/>
       <c r="C1022" s="17" t="s">
-        <v>2673</v>
+        <v>2670</v>
       </c>
       <c r="D1022" s="10" t="s">
         <v>2505</v>
       </c>
       <c r="E1022" s="22" t="s">
-        <v>2674</v>
+        <v>2671</v>
       </c>
       <c r="F1022" s="15" t="s">
         <v>45</v>
@@ -36385,13 +36411,13 @@
         <v>2410</v>
       </c>
       <c r="I1022" s="15" t="s">
-        <v>2675</v>
+        <v>2672</v>
       </c>
       <c r="J1022" s="15"/>
     </row>
     <row r="1023" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1023" s="15" t="s">
-        <v>2676</v>
+        <v>2673</v>
       </c>
       <c r="B1023" s="15"/>
       <c r="C1023" s="17" t="s">
@@ -36411,17 +36437,17 @@
       </c>
       <c r="H1023" s="15"/>
       <c r="I1023" s="15" t="s">
-        <v>2677</v>
+        <v>2674</v>
       </c>
       <c r="J1023" s="15"/>
     </row>
     <row r="1024" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1024" s="21" t="s">
-        <v>2678</v>
+        <v>2675</v>
       </c>
       <c r="B1024" s="15"/>
       <c r="C1024" s="17" t="s">
-        <v>2679</v>
+        <v>2676</v>
       </c>
       <c r="D1024" s="10" t="s">
         <v>2505</v>
@@ -36437,17 +36463,17 @@
       </c>
       <c r="H1024" s="15"/>
       <c r="I1024" s="15" t="s">
-        <v>2680</v>
+        <v>2677</v>
       </c>
       <c r="J1024" s="15"/>
     </row>
     <row r="1025" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1025" s="21" t="s">
-        <v>2681</v>
+        <v>2678</v>
       </c>
       <c r="B1025" s="15"/>
       <c r="C1025" s="17" t="s">
-        <v>2682</v>
+        <v>2679</v>
       </c>
       <c r="D1025" s="10" t="s">
         <v>2505</v>
@@ -36465,17 +36491,17 @@
         <v>3600</v>
       </c>
       <c r="I1025" s="15" t="s">
-        <v>2683</v>
+        <v>2680</v>
       </c>
       <c r="J1025" s="15"/>
     </row>
     <row r="1026" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1026" s="21" t="s">
-        <v>2684</v>
+        <v>2681</v>
       </c>
       <c r="B1026" s="15"/>
       <c r="C1026" s="17" t="s">
-        <v>2685</v>
+        <v>2682</v>
       </c>
       <c r="D1026" s="10" t="s">
         <v>2505</v>
@@ -36491,17 +36517,17 @@
       </c>
       <c r="H1026" s="15"/>
       <c r="I1026" s="15" t="s">
-        <v>2686</v>
+        <v>2683</v>
       </c>
       <c r="J1026" s="15"/>
     </row>
     <row r="1027" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1027" s="21" t="s">
-        <v>2687</v>
+        <v>2684</v>
       </c>
       <c r="B1027" s="15"/>
       <c r="C1027" s="17" t="s">
-        <v>2688</v>
+        <v>2685</v>
       </c>
       <c r="D1027" s="10" t="s">
         <v>2505</v>
@@ -36517,17 +36543,17 @@
       </c>
       <c r="H1027" s="15"/>
       <c r="I1027" s="15" t="s">
-        <v>2689</v>
+        <v>2686</v>
       </c>
       <c r="J1027" s="15"/>
     </row>
     <row r="1028" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1028" s="21" t="s">
-        <v>2690</v>
+        <v>2687</v>
       </c>
       <c r="B1028" s="15"/>
       <c r="C1028" s="17" t="s">
-        <v>2691</v>
+        <v>2688</v>
       </c>
       <c r="D1028" s="10" t="s">
         <v>2505</v>
@@ -36545,17 +36571,17 @@
         <v>17000</v>
       </c>
       <c r="I1028" s="15" t="s">
-        <v>2692</v>
+        <v>2689</v>
       </c>
       <c r="J1028" s="15"/>
     </row>
     <row r="1029" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1029" s="21" t="s">
-        <v>2693</v>
+        <v>2690</v>
       </c>
       <c r="B1029" s="15"/>
       <c r="C1029" s="17" t="s">
-        <v>2694</v>
+        <v>2691</v>
       </c>
       <c r="D1029" s="10" t="s">
         <v>2505</v>
@@ -36571,13 +36597,13 @@
       </c>
       <c r="H1029" s="15"/>
       <c r="I1029" s="15" t="s">
-        <v>2695</v>
+        <v>2692</v>
       </c>
       <c r="J1029" s="15"/>
     </row>
     <row r="1030" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1030" s="21" t="s">
-        <v>2696</v>
+        <v>2693</v>
       </c>
       <c r="B1030" s="15"/>
       <c r="C1030" s="17" t="s">
@@ -36597,17 +36623,17 @@
       </c>
       <c r="H1030" s="15"/>
       <c r="I1030" s="15" t="s">
-        <v>2697</v>
+        <v>2694</v>
       </c>
       <c r="J1030" s="15"/>
     </row>
     <row r="1031" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1031" s="21" t="s">
-        <v>2698</v>
+        <v>2695</v>
       </c>
       <c r="B1031" s="15"/>
       <c r="C1031" s="17" t="s">
-        <v>2699</v>
+        <v>2696</v>
       </c>
       <c r="D1031" s="10" t="s">
         <v>2505</v>
@@ -36625,13 +36651,13 @@
         <v>9000</v>
       </c>
       <c r="I1031" s="15" t="s">
-        <v>2700</v>
+        <v>2697</v>
       </c>
       <c r="J1031" s="15"/>
     </row>
     <row r="1032" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1032" s="15" t="s">
-        <v>2701</v>
+        <v>2698</v>
       </c>
       <c r="B1032" s="15"/>
       <c r="C1032" s="17" t="s">
@@ -36641,7 +36667,7 @@
         <v>2505</v>
       </c>
       <c r="E1032" s="22" t="s">
-        <v>2667</v>
+        <v>2664</v>
       </c>
       <c r="F1032" s="15" t="s">
         <v>178</v>
@@ -36653,23 +36679,23 @@
         <v>33000</v>
       </c>
       <c r="I1032" s="15" t="s">
-        <v>2702</v>
+        <v>2699</v>
       </c>
       <c r="J1032" s="15"/>
     </row>
     <row r="1033" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1033" s="21" t="s">
-        <v>2703</v>
+        <v>2700</v>
       </c>
       <c r="B1033" s="15"/>
       <c r="C1033" s="17" t="s">
-        <v>2704</v>
+        <v>2701</v>
       </c>
       <c r="D1033" s="10" t="s">
         <v>2505</v>
       </c>
       <c r="E1033" s="22" t="s">
-        <v>2674</v>
+        <v>2671</v>
       </c>
       <c r="F1033" s="15" t="s">
         <v>15</v>
@@ -36681,17 +36707,17 @@
         <v>7700</v>
       </c>
       <c r="I1033" s="15" t="s">
-        <v>2705</v>
+        <v>2702</v>
       </c>
       <c r="J1033" s="15"/>
     </row>
     <row r="1034" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1034" s="21" t="s">
-        <v>2706</v>
+        <v>2703</v>
       </c>
       <c r="B1034" s="15"/>
       <c r="C1034" s="17" t="s">
-        <v>2707</v>
+        <v>2704</v>
       </c>
       <c r="D1034" s="10" t="s">
         <v>2505</v>
@@ -36709,17 +36735,17 @@
         <v>20000</v>
       </c>
       <c r="I1034" s="15" t="s">
-        <v>2708</v>
+        <v>2705</v>
       </c>
       <c r="J1034" s="15"/>
     </row>
     <row r="1035" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1035" s="21" t="s">
-        <v>2709</v>
+        <v>2706</v>
       </c>
       <c r="B1035" s="15"/>
       <c r="C1035" s="17" t="s">
-        <v>2710</v>
+        <v>2707</v>
       </c>
       <c r="D1035" s="10" t="s">
         <v>2505</v>
@@ -36737,23 +36763,23 @@
         <v>4200</v>
       </c>
       <c r="I1035" s="15" t="s">
-        <v>2711</v>
+        <v>2708</v>
       </c>
       <c r="J1035" s="15"/>
     </row>
     <row r="1036" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1036" s="21" t="s">
-        <v>2712</v>
+        <v>2709</v>
       </c>
       <c r="B1036" s="15"/>
       <c r="C1036" s="17" t="s">
-        <v>2713</v>
+        <v>2710</v>
       </c>
       <c r="D1036" s="10" t="s">
         <v>2505</v>
       </c>
       <c r="E1036" s="22" t="s">
-        <v>2625</v>
+        <v>2622</v>
       </c>
       <c r="F1036" s="15" t="s">
         <v>178</v>
@@ -36765,17 +36791,17 @@
         <v>2579</v>
       </c>
       <c r="I1036" s="15" t="s">
-        <v>2714</v>
+        <v>2711</v>
       </c>
       <c r="J1036" s="15"/>
     </row>
     <row r="1037" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1037" s="21" t="s">
-        <v>2715</v>
+        <v>2712</v>
       </c>
       <c r="B1037" s="15"/>
       <c r="C1037" s="17" t="s">
-        <v>2716</v>
+        <v>2713</v>
       </c>
       <c r="D1037" s="10" t="s">
         <v>2505</v>
@@ -36793,13 +36819,13 @@
         <v>750</v>
       </c>
       <c r="I1037" s="15" t="s">
-        <v>2717</v>
+        <v>2714</v>
       </c>
       <c r="J1037" s="15"/>
     </row>
     <row r="1038" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1038" s="15" t="s">
-        <v>2718</v>
+        <v>2715</v>
       </c>
       <c r="B1038" s="15"/>
       <c r="C1038" s="17" t="s">
@@ -36821,23 +36847,23 @@
         <v>1200</v>
       </c>
       <c r="I1038" s="15" t="s">
-        <v>2719</v>
+        <v>2716</v>
       </c>
       <c r="J1038" s="15"/>
     </row>
     <row r="1039" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1039" s="21" t="s">
-        <v>2720</v>
+        <v>2717</v>
       </c>
       <c r="B1039" s="15"/>
       <c r="C1039" s="17" t="s">
-        <v>2721</v>
+        <v>2718</v>
       </c>
       <c r="D1039" s="10" t="s">
         <v>2505</v>
       </c>
       <c r="E1039" s="22" t="s">
-        <v>2629</v>
+        <v>2626</v>
       </c>
       <c r="F1039" s="15" t="s">
         <v>178</v>
@@ -36849,17 +36875,17 @@
         <v>3200</v>
       </c>
       <c r="I1039" s="15" t="s">
-        <v>2722</v>
+        <v>2719</v>
       </c>
       <c r="J1039" s="15"/>
     </row>
     <row r="1040" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1040" s="21" t="s">
-        <v>2723</v>
+        <v>2720</v>
       </c>
       <c r="B1040" s="15"/>
       <c r="C1040" s="17" t="s">
-        <v>2724</v>
+        <v>2721</v>
       </c>
       <c r="D1040" s="10" t="s">
         <v>2505</v>
@@ -36875,13 +36901,13 @@
       </c>
       <c r="H1040" s="15"/>
       <c r="I1040" s="15" t="s">
-        <v>2725</v>
+        <v>2722</v>
       </c>
       <c r="J1040" s="15"/>
     </row>
     <row r="1041" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1041" s="21" t="s">
-        <v>2726</v>
+        <v>2723</v>
       </c>
       <c r="B1041" s="15"/>
       <c r="C1041" s="17" t="s">
@@ -36901,13 +36927,13 @@
       </c>
       <c r="H1041" s="15"/>
       <c r="I1041" s="15" t="s">
-        <v>2727</v>
+        <v>2724</v>
       </c>
       <c r="J1041" s="15"/>
     </row>
     <row r="1042" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1042" s="21" t="s">
-        <v>2728</v>
+        <v>2725</v>
       </c>
       <c r="B1042" s="15"/>
       <c r="C1042" s="17" t="s">
@@ -36929,17 +36955,17 @@
         <v>3000</v>
       </c>
       <c r="I1042" s="15" t="s">
-        <v>2729</v>
+        <v>2726</v>
       </c>
       <c r="J1042" s="15"/>
     </row>
     <row r="1043" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1043" s="21" t="s">
-        <v>2730</v>
+        <v>2727</v>
       </c>
       <c r="B1043" s="15"/>
       <c r="C1043" s="17" t="s">
-        <v>2731</v>
+        <v>2728</v>
       </c>
       <c r="D1043" s="10" t="s">
         <v>2505</v>
@@ -36957,13 +36983,13 @@
         <v>3600</v>
       </c>
       <c r="I1043" s="15" t="s">
-        <v>2732</v>
+        <v>2729</v>
       </c>
       <c r="J1043" s="15"/>
     </row>
     <row r="1044" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1044" s="21" t="s">
-        <v>2733</v>
+        <v>2730</v>
       </c>
       <c r="B1044" s="15"/>
       <c r="C1044" s="17" t="s">
@@ -36983,17 +37009,17 @@
       </c>
       <c r="H1044" s="15"/>
       <c r="I1044" s="15" t="s">
-        <v>2734</v>
+        <v>2731</v>
       </c>
       <c r="J1044" s="15"/>
     </row>
     <row r="1045" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1045" s="21" t="s">
-        <v>2735</v>
+        <v>2732</v>
       </c>
       <c r="B1045" s="15"/>
       <c r="C1045" s="17" t="s">
-        <v>2736</v>
+        <v>2733</v>
       </c>
       <c r="D1045" s="10" t="s">
         <v>2505</v>
@@ -37011,13 +37037,13 @@
         <v>5500</v>
       </c>
       <c r="I1045" s="15" t="s">
-        <v>2737</v>
+        <v>2734</v>
       </c>
       <c r="J1045" s="15"/>
     </row>
     <row r="1046" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1046" s="21" t="s">
-        <v>2738</v>
+        <v>2735</v>
       </c>
       <c r="B1046" s="15"/>
       <c r="C1046" s="17" t="s">
@@ -37039,13 +37065,13 @@
         <v>4000</v>
       </c>
       <c r="I1046" s="15" t="s">
-        <v>2739</v>
+        <v>2736</v>
       </c>
       <c r="J1046" s="15"/>
     </row>
     <row r="1047" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1047" s="21" t="s">
-        <v>2738</v>
+        <v>2735</v>
       </c>
       <c r="B1047" s="15"/>
       <c r="C1047" s="17" t="s">
@@ -37067,13 +37093,13 @@
         <v>2000</v>
       </c>
       <c r="I1047" s="15" t="s">
-        <v>2740</v>
+        <v>2737</v>
       </c>
       <c r="J1047" s="15"/>
     </row>
     <row r="1048" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1048" s="21" t="s">
-        <v>2741</v>
+        <v>2738</v>
       </c>
       <c r="B1048" s="15"/>
       <c r="C1048" s="17" t="s">
@@ -37095,13 +37121,13 @@
         <v>8000</v>
       </c>
       <c r="I1048" s="15" t="s">
-        <v>2742</v>
+        <v>2739</v>
       </c>
       <c r="J1048" s="15"/>
     </row>
     <row r="1049" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1049" s="15" t="s">
-        <v>2743</v>
+        <v>2740</v>
       </c>
       <c r="B1049" s="15"/>
       <c r="C1049" s="17" t="s">
@@ -37123,13 +37149,13 @@
         <v>6386</v>
       </c>
       <c r="I1049" s="15" t="s">
-        <v>2744</v>
+        <v>2741</v>
       </c>
       <c r="J1049" s="15"/>
     </row>
     <row r="1050" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1050" s="21" t="s">
-        <v>2745</v>
+        <v>2742</v>
       </c>
       <c r="B1050" s="15"/>
       <c r="C1050" s="17" t="s">
@@ -37139,7 +37165,7 @@
         <v>2505</v>
       </c>
       <c r="E1050" s="22" t="s">
-        <v>2746</v>
+        <v>2743</v>
       </c>
       <c r="F1050" s="15" t="s">
         <v>15</v>
@@ -37151,17 +37177,17 @@
         <v>6800</v>
       </c>
       <c r="I1050" s="15" t="s">
-        <v>2747</v>
+        <v>2744</v>
       </c>
       <c r="J1050" s="15"/>
     </row>
     <row r="1051" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1051" s="21" t="s">
-        <v>2748</v>
+        <v>2745</v>
       </c>
       <c r="B1051" s="15"/>
       <c r="C1051" s="17" t="s">
-        <v>2749</v>
+        <v>2746</v>
       </c>
       <c r="D1051" s="10" t="s">
         <v>2505</v>
@@ -37177,17 +37203,17 @@
       </c>
       <c r="H1051" s="15"/>
       <c r="I1051" s="15" t="s">
-        <v>2750</v>
+        <v>2747</v>
       </c>
       <c r="J1051" s="15"/>
     </row>
     <row r="1052" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1052" s="21" t="s">
-        <v>2751</v>
+        <v>2748</v>
       </c>
       <c r="B1052" s="15"/>
       <c r="C1052" s="17" t="s">
-        <v>2602</v>
+        <v>2601</v>
       </c>
       <c r="D1052" s="10" t="s">
         <v>2505</v>
@@ -37205,17 +37231,17 @@
         <v>2000</v>
       </c>
       <c r="I1052" s="15" t="s">
-        <v>2752</v>
+        <v>2749</v>
       </c>
       <c r="J1052" s="15"/>
     </row>
     <row r="1053" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1053" s="21" t="s">
-        <v>2753</v>
+        <v>2750</v>
       </c>
       <c r="B1053" s="15"/>
       <c r="C1053" s="17" t="s">
-        <v>2615</v>
+        <v>2613</v>
       </c>
       <c r="D1053" s="10" t="s">
         <v>2505</v>
@@ -37233,23 +37259,23 @@
         <v>4100</v>
       </c>
       <c r="I1053" s="15" t="s">
-        <v>2754</v>
+        <v>2751</v>
       </c>
       <c r="J1053" s="15"/>
     </row>
     <row r="1054" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1054" s="21" t="s">
-        <v>2755</v>
+        <v>2752</v>
       </c>
       <c r="B1054" s="15"/>
       <c r="C1054" s="17" t="s">
-        <v>2756</v>
+        <v>2753</v>
       </c>
       <c r="D1054" s="10" t="s">
         <v>2505</v>
       </c>
       <c r="E1054" s="22" t="s">
-        <v>2650</v>
+        <v>2647</v>
       </c>
       <c r="F1054" s="15" t="s">
         <v>45</v>
@@ -37261,17 +37287,17 @@
         <v>9504.7099999999991</v>
       </c>
       <c r="I1054" s="15" t="s">
-        <v>2757</v>
+        <v>2754</v>
       </c>
       <c r="J1054" s="15"/>
     </row>
     <row r="1055" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1055" s="21" t="s">
-        <v>2758</v>
+        <v>2755</v>
       </c>
       <c r="B1055" s="15"/>
       <c r="C1055" s="17" t="s">
-        <v>2759</v>
+        <v>2756</v>
       </c>
       <c r="D1055" s="10" t="s">
         <v>2505</v>
@@ -37289,17 +37315,17 @@
         <v>4000</v>
       </c>
       <c r="I1055" s="15" t="s">
-        <v>2760</v>
+        <v>2757</v>
       </c>
       <c r="J1055" s="15"/>
     </row>
     <row r="1056" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1056" s="21" t="s">
-        <v>2761</v>
+        <v>2758</v>
       </c>
       <c r="B1056" s="15"/>
       <c r="C1056" s="17" t="s">
-        <v>2762</v>
+        <v>2759</v>
       </c>
       <c r="D1056" s="10" t="s">
         <v>2505</v>
@@ -37315,17 +37341,17 @@
       </c>
       <c r="H1056" s="15"/>
       <c r="I1056" s="15" t="s">
-        <v>2763</v>
+        <v>2760</v>
       </c>
       <c r="J1056" s="15"/>
     </row>
     <row r="1057" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1057" s="21" t="s">
-        <v>2764</v>
+        <v>2761</v>
       </c>
       <c r="B1057" s="15"/>
       <c r="C1057" s="17" t="s">
-        <v>2765</v>
+        <v>2762</v>
       </c>
       <c r="D1057" s="10" t="s">
         <v>2505</v>
@@ -37341,17 +37367,17 @@
       </c>
       <c r="H1057" s="15"/>
       <c r="I1057" s="15" t="s">
-        <v>2766</v>
+        <v>2763</v>
       </c>
       <c r="J1057" s="15"/>
     </row>
     <row r="1058" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1058" s="21" t="s">
-        <v>2767</v>
+        <v>2764</v>
       </c>
       <c r="B1058" s="15"/>
       <c r="C1058" s="17" t="s">
-        <v>2768</v>
+        <v>2765</v>
       </c>
       <c r="D1058" s="10" t="s">
         <v>2505</v>
@@ -37367,17 +37393,17 @@
       </c>
       <c r="H1058" s="15"/>
       <c r="I1058" s="15" t="s">
-        <v>2769</v>
+        <v>2766</v>
       </c>
       <c r="J1058" s="15"/>
     </row>
     <row r="1059" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1059" s="21" t="s">
-        <v>2770</v>
+        <v>2767</v>
       </c>
       <c r="B1059" s="15"/>
       <c r="C1059" s="17" t="s">
-        <v>2771</v>
+        <v>2768</v>
       </c>
       <c r="D1059" s="10" t="s">
         <v>2505</v>
@@ -37395,13 +37421,13 @@
         <v>1080</v>
       </c>
       <c r="I1059" s="15" t="s">
-        <v>2772</v>
+        <v>2769</v>
       </c>
       <c r="J1059" s="15"/>
     </row>
     <row r="1060" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1060" s="21" t="s">
-        <v>2773</v>
+        <v>2770</v>
       </c>
       <c r="B1060" s="15"/>
       <c r="C1060" s="17" t="s">
@@ -37423,17 +37449,17 @@
         <v>3000</v>
       </c>
       <c r="I1060" s="15" t="s">
-        <v>2774</v>
+        <v>2771</v>
       </c>
       <c r="J1060" s="15"/>
     </row>
     <row r="1061" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1061" s="21" t="s">
-        <v>2775</v>
+        <v>2772</v>
       </c>
       <c r="B1061" s="15"/>
       <c r="C1061" s="17" t="s">
-        <v>2776</v>
+        <v>2773</v>
       </c>
       <c r="D1061" s="10" t="s">
         <v>2505</v>
@@ -37451,17 +37477,17 @@
         <v>1</v>
       </c>
       <c r="I1061" s="15" t="s">
-        <v>2777</v>
+        <v>2774</v>
       </c>
       <c r="J1061" s="15"/>
     </row>
     <row r="1062" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1062" s="21" t="s">
-        <v>2778</v>
+        <v>2775</v>
       </c>
       <c r="B1062" s="15"/>
       <c r="C1062" s="17" t="s">
-        <v>2779</v>
+        <v>2776</v>
       </c>
       <c r="D1062" s="10" t="s">
         <v>2505</v>
@@ -37477,13 +37503,13 @@
       </c>
       <c r="H1062" s="15"/>
       <c r="I1062" s="15" t="s">
-        <v>2780</v>
+        <v>2777</v>
       </c>
       <c r="J1062" s="15"/>
     </row>
     <row r="1063" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1063" s="21" t="s">
-        <v>2781</v>
+        <v>2778</v>
       </c>
       <c r="B1063" s="15"/>
       <c r="C1063" s="17" t="s">
@@ -37503,17 +37529,17 @@
       </c>
       <c r="H1063" s="15"/>
       <c r="I1063" s="15" t="s">
-        <v>2782</v>
+        <v>2779</v>
       </c>
       <c r="J1063" s="15"/>
     </row>
     <row r="1064" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1064" s="21" t="s">
-        <v>2783</v>
+        <v>2780</v>
       </c>
       <c r="B1064" s="15"/>
       <c r="C1064" s="17" t="s">
-        <v>2784</v>
+        <v>2781</v>
       </c>
       <c r="D1064" s="10" t="s">
         <v>2505</v>
@@ -37522,7 +37548,7 @@
         <v>2506</v>
       </c>
       <c r="F1064" s="15" t="s">
-        <v>2785</v>
+        <v>2782</v>
       </c>
       <c r="G1064" s="15">
         <v>32</v>
@@ -37531,13 +37557,13 @@
         <v>980</v>
       </c>
       <c r="I1064" s="15" t="s">
-        <v>2786</v>
+        <v>2783</v>
       </c>
       <c r="J1064" s="15"/>
     </row>
     <row r="1065" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1065" s="21" t="s">
-        <v>2787</v>
+        <v>2784</v>
       </c>
       <c r="B1065" s="15"/>
       <c r="C1065" s="17" t="s">
@@ -37547,7 +37573,7 @@
         <v>2505</v>
       </c>
       <c r="E1065" s="22" t="s">
-        <v>2629</v>
+        <v>2626</v>
       </c>
       <c r="F1065" s="15" t="s">
         <v>45</v>
@@ -37559,13 +37585,13 @@
         <v>30000</v>
       </c>
       <c r="I1065" s="15" t="s">
-        <v>2788</v>
+        <v>2785</v>
       </c>
       <c r="J1065" s="15"/>
     </row>
     <row r="1066" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1066" s="21" t="s">
-        <v>2789</v>
+        <v>2786</v>
       </c>
       <c r="B1066" s="15"/>
       <c r="C1066" s="17" t="s">
@@ -37575,7 +37601,7 @@
         <v>2505</v>
       </c>
       <c r="E1066" s="22" t="s">
-        <v>2629</v>
+        <v>2626</v>
       </c>
       <c r="F1066" s="15" t="s">
         <v>178</v>
@@ -37587,17 +37613,17 @@
         <v>2000</v>
       </c>
       <c r="I1066" s="15" t="s">
-        <v>2790</v>
+        <v>2787</v>
       </c>
       <c r="J1066" s="15"/>
     </row>
     <row r="1067" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1067" s="21" t="s">
-        <v>2791</v>
+        <v>2788</v>
       </c>
       <c r="B1067" s="15"/>
       <c r="C1067" s="17" t="s">
-        <v>2792</v>
+        <v>2789</v>
       </c>
       <c r="D1067" s="10" t="s">
         <v>2505</v>
@@ -37615,13 +37641,13 @@
         <v>130000</v>
       </c>
       <c r="I1067" s="15" t="s">
-        <v>2793</v>
+        <v>2790</v>
       </c>
       <c r="J1067" s="15"/>
     </row>
     <row r="1068" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1068" s="21" t="s">
-        <v>2794</v>
+        <v>2791</v>
       </c>
       <c r="B1068" s="15"/>
       <c r="C1068" s="17" t="s">
@@ -37634,24 +37660,24 @@
         <v>2553</v>
       </c>
       <c r="F1068" s="15" t="s">
-        <v>2785</v>
+        <v>2782</v>
       </c>
       <c r="G1068" s="15">
         <v>500</v>
       </c>
       <c r="H1068" s="15"/>
       <c r="I1068" s="15" t="s">
-        <v>2795</v>
+        <v>2792</v>
       </c>
       <c r="J1068" s="15"/>
     </row>
     <row r="1069" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1069" s="21" t="s">
-        <v>2796</v>
+        <v>2793</v>
       </c>
       <c r="B1069" s="15"/>
       <c r="C1069" s="17" t="s">
-        <v>2797</v>
+        <v>2794</v>
       </c>
       <c r="D1069" s="10" t="s">
         <v>2505</v>
@@ -37669,13 +37695,13 @@
         <v>3000</v>
       </c>
       <c r="I1069" s="15" t="s">
-        <v>2798</v>
+        <v>2795</v>
       </c>
       <c r="J1069" s="15"/>
     </row>
     <row r="1070" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1070" s="21" t="s">
-        <v>2799</v>
+        <v>2796</v>
       </c>
       <c r="B1070" s="15"/>
       <c r="C1070" s="17" t="s">
@@ -37697,17 +37723,17 @@
         <v>1000</v>
       </c>
       <c r="I1070" s="15" t="s">
-        <v>2800</v>
+        <v>2797</v>
       </c>
       <c r="J1070" s="15"/>
     </row>
     <row r="1071" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1071" s="21" t="s">
-        <v>2801</v>
+        <v>2798</v>
       </c>
       <c r="B1071" s="15"/>
       <c r="C1071" s="17" t="s">
-        <v>2802</v>
+        <v>2799</v>
       </c>
       <c r="D1071" s="10" t="s">
         <v>2505</v>
@@ -37725,13 +37751,13 @@
         <v>400</v>
       </c>
       <c r="I1071" s="15" t="s">
-        <v>2803</v>
+        <v>2800</v>
       </c>
       <c r="J1071" s="15"/>
     </row>
     <row r="1072" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1072" s="15" t="s">
-        <v>2803</v>
+        <v>2800</v>
       </c>
       <c r="B1072" s="15"/>
       <c r="C1072" s="17" t="s">
@@ -37753,23 +37779,23 @@
         <v>5000</v>
       </c>
       <c r="I1072" s="15" t="s">
-        <v>2804</v>
+        <v>2801</v>
       </c>
       <c r="J1072" s="15"/>
     </row>
     <row r="1073" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1073" s="21" t="s">
-        <v>2805</v>
+        <v>2802</v>
       </c>
       <c r="B1073" s="15"/>
       <c r="C1073" s="17" t="s">
-        <v>2806</v>
+        <v>2803</v>
       </c>
       <c r="D1073" s="10" t="s">
         <v>2505</v>
       </c>
       <c r="E1073" s="22" t="s">
-        <v>2667</v>
+        <v>2664</v>
       </c>
       <c r="F1073" s="15" t="s">
         <v>45</v>
@@ -37779,17 +37805,17 @@
       </c>
       <c r="H1073" s="15"/>
       <c r="I1073" s="15" t="s">
-        <v>2807</v>
+        <v>2804</v>
       </c>
       <c r="J1073" s="15"/>
     </row>
     <row r="1074" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1074" s="21" t="s">
-        <v>2808</v>
+        <v>2805</v>
       </c>
       <c r="B1074" s="15"/>
       <c r="C1074" s="17" t="s">
-        <v>2809</v>
+        <v>2806</v>
       </c>
       <c r="D1074" s="10" t="s">
         <v>2505</v>
@@ -37805,17 +37831,17 @@
       </c>
       <c r="H1074" s="15"/>
       <c r="I1074" s="15" t="s">
-        <v>2810</v>
+        <v>2807</v>
       </c>
       <c r="J1074" s="15"/>
     </row>
     <row r="1075" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1075" s="21" t="s">
-        <v>2811</v>
+        <v>2808</v>
       </c>
       <c r="B1075" s="15"/>
       <c r="C1075" s="17" t="s">
-        <v>2812</v>
+        <v>2809</v>
       </c>
       <c r="D1075" s="10" t="s">
         <v>2505</v>
@@ -37831,17 +37857,17 @@
       </c>
       <c r="H1075" s="15"/>
       <c r="I1075" s="15" t="s">
-        <v>2813</v>
+        <v>2810</v>
       </c>
       <c r="J1075" s="15"/>
     </row>
     <row r="1076" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1076" s="21" t="s">
-        <v>2814</v>
+        <v>2811</v>
       </c>
       <c r="B1076" s="15"/>
       <c r="C1076" s="17" t="s">
-        <v>2815</v>
+        <v>2812</v>
       </c>
       <c r="D1076" s="10" t="s">
         <v>2505</v>
@@ -37859,13 +37885,13 @@
         <v>200</v>
       </c>
       <c r="I1076" s="15" t="s">
-        <v>2816</v>
+        <v>2813</v>
       </c>
       <c r="J1076" s="15"/>
     </row>
     <row r="1077" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1077" s="21" t="s">
-        <v>2817</v>
+        <v>2814</v>
       </c>
       <c r="B1077" s="15"/>
       <c r="C1077" s="17" t="s">
@@ -37887,13 +37913,13 @@
         <v>1000</v>
       </c>
       <c r="I1077" s="15" t="s">
-        <v>2818</v>
+        <v>2815</v>
       </c>
       <c r="J1077" s="15"/>
     </row>
     <row r="1078" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1078" s="21" t="s">
-        <v>2819</v>
+        <v>2816</v>
       </c>
       <c r="B1078" s="15"/>
       <c r="C1078" s="17" t="s">
@@ -37913,13 +37939,13 @@
       </c>
       <c r="H1078" s="15"/>
       <c r="I1078" s="15" t="s">
-        <v>2820</v>
+        <v>2817</v>
       </c>
       <c r="J1078" s="15"/>
     </row>
     <row r="1079" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1079" s="21" t="s">
-        <v>2821</v>
+        <v>2818</v>
       </c>
       <c r="B1079" s="15"/>
       <c r="C1079" s="17" t="s">
@@ -37939,17 +37965,17 @@
       </c>
       <c r="H1079" s="15"/>
       <c r="I1079" s="15" t="s">
-        <v>2822</v>
+        <v>2819</v>
       </c>
       <c r="J1079" s="15"/>
     </row>
     <row r="1080" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1080" s="21" t="s">
-        <v>2823</v>
+        <v>2820</v>
       </c>
       <c r="B1080" s="15"/>
       <c r="C1080" s="17" t="s">
-        <v>2824</v>
+        <v>2821</v>
       </c>
       <c r="D1080" s="10" t="s">
         <v>2505</v>
@@ -37965,17 +37991,17 @@
       </c>
       <c r="H1080" s="15"/>
       <c r="I1080" s="15" t="s">
-        <v>2825</v>
+        <v>2822</v>
       </c>
       <c r="J1080" s="15"/>
     </row>
     <row r="1081" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1081" s="15" t="s">
-        <v>2826</v>
+        <v>2823</v>
       </c>
       <c r="B1081" s="15"/>
       <c r="C1081" s="17" t="s">
-        <v>2827</v>
+        <v>2824</v>
       </c>
       <c r="D1081" s="10" t="s">
         <v>2505</v>
@@ -37991,13 +38017,13 @@
       </c>
       <c r="H1081" s="15"/>
       <c r="I1081" s="15" t="s">
-        <v>2828</v>
+        <v>2825</v>
       </c>
       <c r="J1081" s="15"/>
     </row>
     <row r="1082" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1082" s="21" t="s">
-        <v>2829</v>
+        <v>2826</v>
       </c>
       <c r="B1082" s="15"/>
       <c r="C1082" s="17"/>
@@ -38015,17 +38041,17 @@
       </c>
       <c r="H1082" s="15"/>
       <c r="I1082" s="15" t="s">
-        <v>2830</v>
+        <v>2827</v>
       </c>
       <c r="J1082" s="15"/>
     </row>
     <row r="1083" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1083" s="21" t="s">
-        <v>2831</v>
+        <v>2828</v>
       </c>
       <c r="B1083" s="15"/>
       <c r="C1083" s="17" t="s">
-        <v>2832</v>
+        <v>2829</v>
       </c>
       <c r="D1083" s="10" t="s">
         <v>2505</v>
@@ -38047,11 +38073,11 @@
     </row>
     <row r="1084" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1084" s="21" t="s">
-        <v>2833</v>
+        <v>2830</v>
       </c>
       <c r="B1084" s="15"/>
       <c r="C1084" s="17" t="s">
-        <v>2834</v>
+        <v>2831</v>
       </c>
       <c r="D1084" s="10" t="s">
         <v>2505</v>
@@ -38067,13 +38093,13 @@
       </c>
       <c r="H1084" s="15"/>
       <c r="I1084" s="15" t="s">
-        <v>2835</v>
+        <v>2832</v>
       </c>
       <c r="J1084" s="15"/>
     </row>
     <row r="1085" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1085" s="21" t="s">
-        <v>2836</v>
+        <v>2833</v>
       </c>
       <c r="B1085" s="15"/>
       <c r="C1085" s="17" t="s">
@@ -38093,13 +38119,13 @@
       </c>
       <c r="H1085" s="15"/>
       <c r="I1085" s="15" t="s">
-        <v>2837</v>
+        <v>2834</v>
       </c>
       <c r="J1085" s="15"/>
     </row>
     <row r="1086" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1086" s="21" t="s">
-        <v>2838</v>
+        <v>2835</v>
       </c>
       <c r="B1086" s="15"/>
       <c r="C1086" s="17"/>
@@ -38117,17 +38143,17 @@
       </c>
       <c r="H1086" s="15"/>
       <c r="I1086" s="15" t="s">
-        <v>2839</v>
+        <v>2836</v>
       </c>
       <c r="J1086" s="15"/>
     </row>
     <row r="1087" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1087" s="21" t="s">
-        <v>2840</v>
+        <v>2837</v>
       </c>
       <c r="B1087" s="15"/>
       <c r="C1087" s="17" t="s">
-        <v>2841</v>
+        <v>2838</v>
       </c>
       <c r="D1087" s="10" t="s">
         <v>2505</v>
@@ -38143,23 +38169,23 @@
       </c>
       <c r="H1087" s="15"/>
       <c r="I1087" s="15" t="s">
-        <v>2842</v>
+        <v>2839</v>
       </c>
       <c r="J1087" s="15"/>
     </row>
     <row r="1088" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1088" s="21" t="s">
-        <v>2843</v>
+        <v>2840</v>
       </c>
       <c r="B1088" s="15"/>
       <c r="C1088" s="17" t="s">
-        <v>2844</v>
+        <v>2841</v>
       </c>
       <c r="D1088" s="10" t="s">
         <v>2505</v>
       </c>
       <c r="E1088" s="22" t="s">
-        <v>2625</v>
+        <v>2622</v>
       </c>
       <c r="F1088" s="15" t="s">
         <v>54</v>
@@ -38169,13 +38195,13 @@
       </c>
       <c r="H1088" s="15"/>
       <c r="I1088" s="15" t="s">
-        <v>2845</v>
+        <v>2842</v>
       </c>
       <c r="J1088" s="15"/>
     </row>
     <row r="1089" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1089" s="21" t="s">
-        <v>2846</v>
+        <v>2843</v>
       </c>
       <c r="B1089" s="15"/>
       <c r="C1089" s="17" t="s">
@@ -38185,7 +38211,7 @@
         <v>2505</v>
       </c>
       <c r="E1089" s="22" t="s">
-        <v>2625</v>
+        <v>2622</v>
       </c>
       <c r="F1089" s="15" t="s">
         <v>54</v>
@@ -38195,23 +38221,23 @@
       </c>
       <c r="H1089" s="15"/>
       <c r="I1089" s="15" t="s">
-        <v>2847</v>
+        <v>2844</v>
       </c>
       <c r="J1089" s="15"/>
     </row>
     <row r="1090" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1090" s="21" t="s">
-        <v>2848</v>
+        <v>2845</v>
       </c>
       <c r="B1090" s="15"/>
       <c r="C1090" s="17" t="s">
-        <v>2849</v>
+        <v>2846</v>
       </c>
       <c r="D1090" s="10" t="s">
         <v>2505</v>
       </c>
       <c r="E1090" s="22" t="s">
-        <v>2625</v>
+        <v>2622</v>
       </c>
       <c r="F1090" s="15" t="s">
         <v>54</v>
@@ -38221,13 +38247,13 @@
       </c>
       <c r="H1090" s="15"/>
       <c r="I1090" s="15" t="s">
-        <v>2850</v>
+        <v>2847</v>
       </c>
       <c r="J1090" s="15"/>
     </row>
     <row r="1091" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1091" s="21" t="s">
-        <v>2851</v>
+        <v>2848</v>
       </c>
       <c r="B1091" s="15"/>
       <c r="C1091" s="17"/>
@@ -38245,17 +38271,17 @@
       </c>
       <c r="H1091" s="15"/>
       <c r="I1091" s="15" t="s">
-        <v>2852</v>
+        <v>2849</v>
       </c>
       <c r="J1091" s="15"/>
     </row>
     <row r="1092" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1092" s="21" t="s">
-        <v>2853</v>
+        <v>2850</v>
       </c>
       <c r="B1092" s="15"/>
       <c r="C1092" s="17" t="s">
-        <v>2854</v>
+        <v>2851</v>
       </c>
       <c r="D1092" s="10" t="s">
         <v>2505</v>
@@ -38271,13 +38297,13 @@
       </c>
       <c r="H1092" s="15"/>
       <c r="I1092" s="15" t="s">
-        <v>2855</v>
+        <v>2852</v>
       </c>
       <c r="J1092" s="15"/>
     </row>
     <row r="1093" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1093" s="21" t="s">
-        <v>2856</v>
+        <v>2853</v>
       </c>
       <c r="B1093" s="15"/>
       <c r="C1093" s="17" t="s">
@@ -38297,23 +38323,23 @@
       </c>
       <c r="H1093" s="15"/>
       <c r="I1093" s="15" t="s">
-        <v>2857</v>
+        <v>2854</v>
       </c>
       <c r="J1093" s="15"/>
     </row>
     <row r="1094" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1094" s="15" t="s">
-        <v>2858</v>
+        <v>2855</v>
       </c>
       <c r="B1094" s="15"/>
       <c r="C1094" s="17" t="s">
-        <v>2859</v>
+        <v>2856</v>
       </c>
       <c r="D1094" s="10" t="s">
         <v>2505</v>
       </c>
       <c r="E1094" s="22" t="s">
-        <v>2667</v>
+        <v>2664</v>
       </c>
       <c r="F1094" s="15" t="s">
         <v>45</v>
@@ -38323,23 +38349,23 @@
       </c>
       <c r="H1094" s="15"/>
       <c r="I1094" s="15" t="s">
-        <v>2860</v>
+        <v>2857</v>
       </c>
       <c r="J1094" s="15"/>
     </row>
     <row r="1095" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1095" s="21" t="s">
-        <v>2861</v>
+        <v>2858</v>
       </c>
       <c r="B1095" s="15"/>
       <c r="C1095" s="17" t="s">
-        <v>2862</v>
+        <v>2859</v>
       </c>
       <c r="D1095" s="10" t="s">
         <v>2505</v>
       </c>
       <c r="E1095" s="22" t="s">
-        <v>2667</v>
+        <v>2664</v>
       </c>
       <c r="F1095" s="15" t="s">
         <v>45</v>
@@ -38349,17 +38375,17 @@
       </c>
       <c r="H1095" s="15"/>
       <c r="I1095" s="15" t="s">
-        <v>2863</v>
+        <v>2860</v>
       </c>
       <c r="J1095" s="15"/>
     </row>
     <row r="1096" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1096" s="21" t="s">
-        <v>2864</v>
+        <v>2861</v>
       </c>
       <c r="B1096" s="15"/>
       <c r="C1096" s="17" t="s">
-        <v>2865</v>
+        <v>2862</v>
       </c>
       <c r="D1096" s="10" t="s">
         <v>2505</v>
@@ -38375,17 +38401,17 @@
       </c>
       <c r="H1096" s="15"/>
       <c r="I1096" s="15" t="s">
-        <v>2866</v>
+        <v>2863</v>
       </c>
       <c r="J1096" s="15"/>
     </row>
     <row r="1097" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1097" s="21" t="s">
-        <v>2867</v>
+        <v>2864</v>
       </c>
       <c r="B1097" s="15"/>
       <c r="C1097" s="17" t="s">
-        <v>2868</v>
+        <v>2865</v>
       </c>
       <c r="D1097" s="10" t="s">
         <v>2505</v>
@@ -38401,23 +38427,23 @@
       </c>
       <c r="H1097" s="15"/>
       <c r="I1097" s="15" t="s">
-        <v>2869</v>
+        <v>2866</v>
       </c>
       <c r="J1097" s="15"/>
     </row>
     <row r="1098" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1098" s="21" t="s">
-        <v>2870</v>
+        <v>2867</v>
       </c>
       <c r="B1098" s="15"/>
       <c r="C1098" s="17" t="s">
-        <v>2871</v>
+        <v>2868</v>
       </c>
       <c r="D1098" s="10" t="s">
         <v>2505</v>
       </c>
       <c r="E1098" s="22" t="s">
-        <v>2664</v>
+        <v>2661</v>
       </c>
       <c r="F1098" s="15" t="s">
         <v>45</v>
@@ -38427,17 +38453,17 @@
       </c>
       <c r="H1098" s="15"/>
       <c r="I1098" s="15" t="s">
-        <v>2872</v>
+        <v>2869</v>
       </c>
       <c r="J1098" s="15"/>
     </row>
     <row r="1099" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1099" s="21" t="s">
-        <v>2873</v>
+        <v>2870</v>
       </c>
       <c r="B1099" s="15"/>
       <c r="C1099" s="17" t="s">
-        <v>2874</v>
+        <v>2871</v>
       </c>
       <c r="D1099" s="10" t="s">
         <v>2505</v>
@@ -38453,13 +38479,13 @@
       </c>
       <c r="H1099" s="15"/>
       <c r="I1099" s="15" t="s">
-        <v>3044</v>
+        <v>3041</v>
       </c>
       <c r="J1099" s="15"/>
     </row>
     <row r="1100" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1100" s="21" t="s">
-        <v>2617</v>
+        <v>2615</v>
       </c>
       <c r="B1100" s="15"/>
       <c r="C1100" s="17" t="s">
@@ -38479,13 +38505,13 @@
       </c>
       <c r="H1100" s="15"/>
       <c r="I1100" s="15" t="s">
-        <v>2875</v>
+        <v>2872</v>
       </c>
       <c r="J1100" s="15"/>
     </row>
     <row r="1101" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1101" s="21" t="s">
-        <v>2876</v>
+        <v>2873</v>
       </c>
       <c r="B1101" s="15"/>
       <c r="C1101" s="17"/>
@@ -38503,23 +38529,23 @@
       </c>
       <c r="H1101" s="15"/>
       <c r="I1101" s="15" t="s">
-        <v>2877</v>
+        <v>2874</v>
       </c>
       <c r="J1101" s="15"/>
     </row>
     <row r="1102" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1102" s="21" t="s">
-        <v>2878</v>
+        <v>2875</v>
       </c>
       <c r="B1102" s="15"/>
       <c r="C1102" s="17" t="s">
-        <v>2879</v>
+        <v>2876</v>
       </c>
       <c r="D1102" s="10" t="s">
         <v>2505</v>
       </c>
       <c r="E1102" s="22" t="s">
-        <v>2664</v>
+        <v>2661</v>
       </c>
       <c r="F1102" s="15" t="s">
         <v>54</v>
@@ -38529,13 +38555,13 @@
       </c>
       <c r="H1102" s="15"/>
       <c r="I1102" s="15" t="s">
-        <v>2880</v>
+        <v>2877</v>
       </c>
       <c r="J1102" s="15"/>
     </row>
     <row r="1103" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1103" s="21" t="s">
-        <v>2881</v>
+        <v>2878</v>
       </c>
       <c r="B1103" s="15"/>
       <c r="C1103" s="17"/>
@@ -38553,13 +38579,13 @@
       </c>
       <c r="H1103" s="15"/>
       <c r="I1103" s="15" t="s">
-        <v>2882</v>
+        <v>2879</v>
       </c>
       <c r="J1103" s="15"/>
     </row>
     <row r="1104" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1104" s="21" t="s">
-        <v>2883</v>
+        <v>2880</v>
       </c>
       <c r="B1104" s="15"/>
       <c r="C1104" s="17"/>
@@ -38577,13 +38603,13 @@
       </c>
       <c r="H1104" s="15"/>
       <c r="I1104" s="15" t="s">
-        <v>2884</v>
+        <v>2881</v>
       </c>
       <c r="J1104" s="15"/>
     </row>
     <row r="1105" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1105" s="21" t="s">
-        <v>2885</v>
+        <v>2882</v>
       </c>
       <c r="B1105" s="15"/>
       <c r="C1105" s="17"/>
@@ -38601,13 +38627,13 @@
       </c>
       <c r="H1105" s="15"/>
       <c r="I1105" s="15" t="s">
-        <v>2886</v>
+        <v>2883</v>
       </c>
       <c r="J1105" s="15"/>
     </row>
     <row r="1106" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1106" s="21" t="s">
-        <v>2887</v>
+        <v>2884</v>
       </c>
       <c r="B1106" s="15"/>
       <c r="C1106" s="17" t="s">
@@ -38627,65 +38653,65 @@
       </c>
       <c r="H1106" s="15"/>
       <c r="I1106" s="15" t="s">
-        <v>2888</v>
+        <v>2885</v>
       </c>
       <c r="J1106" s="15"/>
     </row>
     <row r="1107" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1107" s="21" t="s">
-        <v>2905</v>
+        <v>2902</v>
       </c>
       <c r="B1107" s="15"/>
       <c r="C1107" s="17" t="s">
-        <v>2908</v>
+        <v>2905</v>
       </c>
       <c r="D1107" s="10" t="s">
         <v>2505</v>
       </c>
       <c r="E1107" s="22" t="s">
-        <v>2907</v>
+        <v>2904</v>
       </c>
       <c r="F1107" s="15" t="s">
-        <v>2906</v>
+        <v>2903</v>
       </c>
       <c r="G1107" s="15">
         <v>1000</v>
       </c>
       <c r="H1107" s="15"/>
       <c r="I1107" s="15" t="s">
-        <v>2915</v>
+        <v>2912</v>
       </c>
       <c r="J1107" s="15"/>
     </row>
     <row r="1108" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1108" s="21" t="s">
-        <v>2909</v>
+        <v>2906</v>
       </c>
       <c r="B1108" s="15"/>
       <c r="C1108" s="17" t="s">
-        <v>2913</v>
+        <v>2910</v>
       </c>
       <c r="D1108" s="10" t="s">
         <v>2505</v>
       </c>
       <c r="E1108" s="22" t="s">
-        <v>2911</v>
+        <v>2908</v>
       </c>
       <c r="F1108" s="15" t="s">
-        <v>2912</v>
+        <v>2909</v>
       </c>
       <c r="G1108" s="15">
         <v>100</v>
       </c>
       <c r="H1108" s="15"/>
       <c r="I1108" s="15" t="s">
-        <v>2910</v>
+        <v>2907</v>
       </c>
       <c r="J1108" s="15"/>
     </row>
     <row r="1109" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1109" s="21" t="s">
-        <v>2914</v>
+        <v>2911</v>
       </c>
       <c r="B1109" s="15"/>
       <c r="C1109" s="17"/>
@@ -38693,23 +38719,23 @@
         <v>2505</v>
       </c>
       <c r="E1109" s="22" t="s">
-        <v>2917</v>
+        <v>2914</v>
       </c>
       <c r="F1109" s="15" t="s">
-        <v>2906</v>
+        <v>2903</v>
       </c>
       <c r="G1109" s="15">
         <v>50</v>
       </c>
       <c r="H1109" s="15"/>
       <c r="I1109" s="15" t="s">
-        <v>2916</v>
+        <v>2913</v>
       </c>
       <c r="J1109" s="15"/>
     </row>
     <row r="1110" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1110" s="21" t="s">
-        <v>2918</v>
+        <v>2915</v>
       </c>
       <c r="B1110" s="15"/>
       <c r="C1110" s="17"/>
@@ -38717,23 +38743,23 @@
         <v>2505</v>
       </c>
       <c r="E1110" s="22" t="s">
-        <v>2920</v>
+        <v>2917</v>
       </c>
       <c r="F1110" s="15" t="s">
-        <v>2906</v>
+        <v>2903</v>
       </c>
       <c r="G1110" s="15">
         <v>50</v>
       </c>
       <c r="H1110" s="15"/>
       <c r="I1110" s="15" t="s">
-        <v>2919</v>
+        <v>2916</v>
       </c>
       <c r="J1110" s="15"/>
     </row>
     <row r="1111" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1111" s="21" t="s">
-        <v>2921</v>
+        <v>2918</v>
       </c>
       <c r="B1111" s="15"/>
       <c r="C1111" s="17"/>
@@ -38741,23 +38767,23 @@
         <v>2505</v>
       </c>
       <c r="E1111" s="22" t="s">
-        <v>2923</v>
+        <v>2920</v>
       </c>
       <c r="F1111" s="15" t="s">
-        <v>2906</v>
+        <v>2903</v>
       </c>
       <c r="G1111" s="15">
         <v>50</v>
       </c>
       <c r="H1111" s="15"/>
       <c r="I1111" s="15" t="s">
-        <v>2922</v>
+        <v>2919</v>
       </c>
       <c r="J1111" s="15"/>
     </row>
     <row r="1112" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1112" s="21" t="s">
-        <v>2924</v>
+        <v>2921</v>
       </c>
       <c r="B1112" s="15"/>
       <c r="C1112" s="17"/>
@@ -38765,49 +38791,49 @@
         <v>2505</v>
       </c>
       <c r="E1112" s="22" t="s">
-        <v>2917</v>
+        <v>2914</v>
       </c>
       <c r="F1112" s="15" t="s">
-        <v>2906</v>
+        <v>2903</v>
       </c>
       <c r="G1112" s="15">
         <v>50</v>
       </c>
       <c r="H1112" s="15"/>
       <c r="I1112" s="15" t="s">
-        <v>2925</v>
+        <v>2922</v>
       </c>
       <c r="J1112" s="15"/>
     </row>
     <row r="1113" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1113" s="21" t="s">
-        <v>2926</v>
+        <v>2923</v>
       </c>
       <c r="B1113" s="15"/>
       <c r="C1113" s="17" t="s">
-        <v>2928</v>
+        <v>2925</v>
       </c>
       <c r="D1113" s="10" t="s">
         <v>2505</v>
       </c>
       <c r="E1113" s="22" t="s">
-        <v>2920</v>
+        <v>2917</v>
       </c>
       <c r="F1113" s="15" t="s">
-        <v>2906</v>
+        <v>2903</v>
       </c>
       <c r="G1113" s="15">
         <v>120</v>
       </c>
       <c r="H1113" s="15"/>
       <c r="I1113" s="15" t="s">
-        <v>2927</v>
+        <v>2924</v>
       </c>
       <c r="J1113" s="15"/>
     </row>
     <row r="1114" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1114" s="21" t="s">
-        <v>2929</v>
+        <v>2926</v>
       </c>
       <c r="B1114" s="15"/>
       <c r="C1114" s="17"/>
@@ -38815,49 +38841,49 @@
         <v>2505</v>
       </c>
       <c r="E1114" s="22" t="s">
-        <v>2931</v>
+        <v>2928</v>
       </c>
       <c r="F1114" s="15" t="s">
-        <v>2906</v>
+        <v>2903</v>
       </c>
       <c r="G1114" s="15">
         <v>50</v>
       </c>
       <c r="H1114" s="15"/>
       <c r="I1114" s="15" t="s">
-        <v>2930</v>
+        <v>2927</v>
       </c>
       <c r="J1114" s="15"/>
     </row>
     <row r="1115" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1115" s="21" t="s">
-        <v>2932</v>
+        <v>2929</v>
       </c>
       <c r="B1115" s="15"/>
       <c r="C1115" s="17" t="s">
-        <v>2935</v>
+        <v>2932</v>
       </c>
       <c r="D1115" s="10" t="s">
         <v>2505</v>
       </c>
       <c r="E1115" s="22" t="s">
-        <v>2934</v>
+        <v>2931</v>
       </c>
       <c r="F1115" s="15" t="s">
-        <v>2906</v>
+        <v>2903</v>
       </c>
       <c r="G1115" s="15">
         <v>300</v>
       </c>
       <c r="H1115" s="15"/>
       <c r="I1115" s="15" t="s">
-        <v>2933</v>
+        <v>2930</v>
       </c>
       <c r="J1115" s="15"/>
     </row>
     <row r="1116" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1116" s="21" t="s">
-        <v>2936</v>
+        <v>2933</v>
       </c>
       <c r="B1116" s="15"/>
       <c r="C1116" s="17"/>
@@ -38865,23 +38891,23 @@
         <v>2505</v>
       </c>
       <c r="E1116" s="22" t="s">
-        <v>2923</v>
+        <v>2920</v>
       </c>
       <c r="F1116" s="15" t="s">
-        <v>2938</v>
+        <v>2935</v>
       </c>
       <c r="G1116" s="15">
         <v>50</v>
       </c>
       <c r="H1116" s="15"/>
       <c r="I1116" s="15" t="s">
-        <v>2937</v>
+        <v>2934</v>
       </c>
       <c r="J1116" s="15"/>
     </row>
     <row r="1117" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1117" s="21" t="s">
-        <v>2939</v>
+        <v>2936</v>
       </c>
       <c r="B1117" s="15"/>
       <c r="C1117" s="17"/>
@@ -38889,23 +38915,23 @@
         <v>2505</v>
       </c>
       <c r="E1117" s="22" t="s">
-        <v>2923</v>
+        <v>2920</v>
       </c>
       <c r="F1117" s="15" t="s">
-        <v>2906</v>
+        <v>2903</v>
       </c>
       <c r="G1117" s="15">
         <v>50</v>
       </c>
       <c r="H1117" s="15"/>
       <c r="I1117" s="15" t="s">
-        <v>2940</v>
+        <v>2937</v>
       </c>
       <c r="J1117" s="15"/>
     </row>
     <row r="1118" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1118" s="21" t="s">
-        <v>2941</v>
+        <v>2938</v>
       </c>
       <c r="B1118" s="15"/>
       <c r="C1118" s="17"/>
@@ -38913,23 +38939,23 @@
         <v>2505</v>
       </c>
       <c r="E1118" s="22" t="s">
-        <v>2923</v>
+        <v>2920</v>
       </c>
       <c r="F1118" s="15" t="s">
-        <v>2906</v>
+        <v>2903</v>
       </c>
       <c r="G1118" s="15">
         <v>50</v>
       </c>
       <c r="H1118" s="15"/>
       <c r="I1118" s="15" t="s">
-        <v>2942</v>
+        <v>2939</v>
       </c>
       <c r="J1118" s="15"/>
     </row>
     <row r="1119" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1119" s="21" t="s">
-        <v>2943</v>
+        <v>2940</v>
       </c>
       <c r="B1119" s="15"/>
       <c r="C1119" s="17"/>
@@ -38937,23 +38963,23 @@
         <v>2505</v>
       </c>
       <c r="E1119" s="22" t="s">
-        <v>2945</v>
+        <v>2942</v>
       </c>
       <c r="F1119" s="15" t="s">
-        <v>2906</v>
+        <v>2903</v>
       </c>
       <c r="G1119" s="15">
         <v>50</v>
       </c>
       <c r="H1119" s="15"/>
       <c r="I1119" s="15" t="s">
-        <v>2944</v>
+        <v>2941</v>
       </c>
       <c r="J1119" s="15"/>
     </row>
     <row r="1120" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1120" s="21" t="s">
-        <v>2946</v>
+        <v>2943</v>
       </c>
       <c r="B1120" s="15"/>
       <c r="C1120" s="17"/>
@@ -38961,23 +38987,23 @@
         <v>2505</v>
       </c>
       <c r="E1120" s="22" t="s">
-        <v>2948</v>
+        <v>2945</v>
       </c>
       <c r="F1120" s="15" t="s">
-        <v>2906</v>
+        <v>2903</v>
       </c>
       <c r="G1120" s="15">
         <v>50</v>
       </c>
       <c r="H1120" s="15"/>
       <c r="I1120" s="15" t="s">
-        <v>2947</v>
+        <v>2944</v>
       </c>
       <c r="J1120" s="15"/>
     </row>
     <row r="1121" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1121" s="21" t="s">
-        <v>2949</v>
+        <v>2946</v>
       </c>
       <c r="B1121" s="15"/>
       <c r="C1121" s="17"/>
@@ -38985,23 +39011,23 @@
         <v>2505</v>
       </c>
       <c r="E1121" s="22" t="s">
-        <v>2948</v>
+        <v>2945</v>
       </c>
       <c r="F1121" s="15" t="s">
-        <v>2906</v>
+        <v>2903</v>
       </c>
       <c r="G1121" s="15">
         <v>150</v>
       </c>
       <c r="H1121" s="15"/>
       <c r="I1121" s="15" t="s">
-        <v>2950</v>
+        <v>2947</v>
       </c>
       <c r="J1121" s="15"/>
     </row>
     <row r="1122" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1122" s="21" t="s">
-        <v>2951</v>
+        <v>2948</v>
       </c>
       <c r="B1122" s="15"/>
       <c r="C1122" s="17"/>
@@ -39009,23 +39035,23 @@
         <v>2505</v>
       </c>
       <c r="E1122" s="22" t="s">
-        <v>2948</v>
+        <v>2945</v>
       </c>
       <c r="F1122" s="15" t="s">
-        <v>2906</v>
+        <v>2903</v>
       </c>
       <c r="G1122" s="15">
         <v>60</v>
       </c>
       <c r="H1122" s="15"/>
       <c r="I1122" s="15" t="s">
-        <v>2952</v>
+        <v>2949</v>
       </c>
       <c r="J1122" s="15"/>
     </row>
     <row r="1123" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1123" s="21" t="s">
-        <v>2953</v>
+        <v>2950</v>
       </c>
       <c r="B1123" s="15"/>
       <c r="C1123" s="17"/>
@@ -39033,23 +39059,23 @@
         <v>2505</v>
       </c>
       <c r="E1123" s="22" t="s">
-        <v>2907</v>
+        <v>2904</v>
       </c>
       <c r="F1123" s="15" t="s">
-        <v>2912</v>
+        <v>2909</v>
       </c>
       <c r="G1123" s="15">
         <v>100</v>
       </c>
       <c r="H1123" s="15"/>
       <c r="I1123" s="15" t="s">
-        <v>2954</v>
+        <v>2951</v>
       </c>
       <c r="J1123" s="15"/>
     </row>
     <row r="1124" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1124" s="21" t="s">
-        <v>2955</v>
+        <v>2952</v>
       </c>
       <c r="B1124" s="15"/>
       <c r="C1124" s="17"/>
@@ -39057,49 +39083,49 @@
         <v>2505</v>
       </c>
       <c r="E1124" s="22" t="s">
-        <v>2907</v>
+        <v>2904</v>
       </c>
       <c r="F1124" s="15" t="s">
-        <v>2906</v>
+        <v>2903</v>
       </c>
       <c r="G1124" s="15">
         <v>50</v>
       </c>
       <c r="H1124" s="15"/>
       <c r="I1124" s="15" t="s">
-        <v>2956</v>
+        <v>2953</v>
       </c>
       <c r="J1124" s="15"/>
     </row>
     <row r="1125" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1125" s="21" t="s">
-        <v>2957</v>
+        <v>2954</v>
       </c>
       <c r="B1125" s="15"/>
       <c r="C1125" s="17" t="s">
-        <v>2960</v>
+        <v>2957</v>
       </c>
       <c r="D1125" s="10" t="s">
         <v>2505</v>
       </c>
       <c r="E1125" s="22" t="s">
-        <v>2959</v>
+        <v>2956</v>
       </c>
       <c r="F1125" s="15" t="s">
-        <v>2906</v>
+        <v>2903</v>
       </c>
       <c r="G1125" s="15">
         <v>400</v>
       </c>
       <c r="H1125" s="15"/>
       <c r="I1125" s="15" t="s">
-        <v>2958</v>
+        <v>2955</v>
       </c>
       <c r="J1125" s="15"/>
     </row>
     <row r="1126" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1126" s="21" t="s">
-        <v>2961</v>
+        <v>2958</v>
       </c>
       <c r="B1126" s="15"/>
       <c r="C1126" s="17"/>
@@ -39107,23 +39133,23 @@
         <v>2505</v>
       </c>
       <c r="E1126" s="22" t="s">
-        <v>2963</v>
+        <v>2960</v>
       </c>
       <c r="F1126" s="15" t="s">
-        <v>2906</v>
+        <v>2903</v>
       </c>
       <c r="G1126" s="15">
         <v>50</v>
       </c>
       <c r="H1126" s="15"/>
       <c r="I1126" s="15" t="s">
-        <v>2962</v>
+        <v>2959</v>
       </c>
       <c r="J1126" s="15"/>
     </row>
     <row r="1127" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1127" s="21" t="s">
-        <v>2964</v>
+        <v>2961</v>
       </c>
       <c r="B1127" s="15"/>
       <c r="C1127" s="17"/>
@@ -39131,23 +39157,23 @@
         <v>2505</v>
       </c>
       <c r="E1127" s="22" t="s">
-        <v>2963</v>
+        <v>2960</v>
       </c>
       <c r="F1127" s="15" t="s">
-        <v>2906</v>
+        <v>2903</v>
       </c>
       <c r="G1127" s="15">
         <v>50</v>
       </c>
       <c r="H1127" s="15"/>
       <c r="I1127" s="15" t="s">
-        <v>2965</v>
+        <v>2962</v>
       </c>
       <c r="J1127" s="15"/>
     </row>
     <row r="1128" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1128" s="21" t="s">
-        <v>2966</v>
+        <v>2963</v>
       </c>
       <c r="B1128" s="15"/>
       <c r="C1128" s="17"/>
@@ -39155,23 +39181,23 @@
         <v>2505</v>
       </c>
       <c r="E1128" s="22" t="s">
-        <v>2963</v>
+        <v>2960</v>
       </c>
       <c r="F1128" s="15" t="s">
-        <v>2906</v>
+        <v>2903</v>
       </c>
       <c r="G1128" s="15">
         <v>50</v>
       </c>
       <c r="H1128" s="15"/>
       <c r="I1128" s="15" t="s">
-        <v>2967</v>
+        <v>2964</v>
       </c>
       <c r="J1128" s="15"/>
     </row>
     <row r="1129" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1129" s="21" t="s">
-        <v>2968</v>
+        <v>2965</v>
       </c>
       <c r="B1129" s="15"/>
       <c r="C1129" s="17"/>
@@ -39179,23 +39205,23 @@
         <v>2505</v>
       </c>
       <c r="E1129" s="22" t="s">
-        <v>2970</v>
+        <v>2967</v>
       </c>
       <c r="F1129" s="15" t="s">
-        <v>2906</v>
+        <v>2903</v>
       </c>
       <c r="G1129" s="15">
         <v>50</v>
       </c>
       <c r="H1129" s="15"/>
       <c r="I1129" s="15" t="s">
-        <v>2969</v>
+        <v>2966</v>
       </c>
       <c r="J1129" s="15"/>
     </row>
     <row r="1130" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1130" s="21" t="s">
-        <v>2971</v>
+        <v>2968</v>
       </c>
       <c r="B1130" s="15"/>
       <c r="C1130" s="17"/>
@@ -39203,23 +39229,23 @@
         <v>2505</v>
       </c>
       <c r="E1130" s="22" t="s">
-        <v>2973</v>
+        <v>2970</v>
       </c>
       <c r="F1130" s="15" t="s">
-        <v>2906</v>
+        <v>2903</v>
       </c>
       <c r="G1130" s="15">
         <v>50</v>
       </c>
       <c r="H1130" s="15"/>
       <c r="I1130" s="15" t="s">
-        <v>2972</v>
+        <v>2969</v>
       </c>
       <c r="J1130" s="15"/>
     </row>
     <row r="1131" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1131" s="21" t="s">
-        <v>2974</v>
+        <v>2971</v>
       </c>
       <c r="B1131" s="15"/>
       <c r="C1131" s="17"/>
@@ -39227,23 +39253,23 @@
         <v>2505</v>
       </c>
       <c r="E1131" s="22" t="s">
-        <v>2973</v>
+        <v>2970</v>
       </c>
       <c r="F1131" s="15" t="s">
-        <v>2906</v>
+        <v>2903</v>
       </c>
       <c r="G1131" s="15">
         <v>50</v>
       </c>
       <c r="H1131" s="15"/>
       <c r="I1131" s="15" t="s">
-        <v>2975</v>
+        <v>2972</v>
       </c>
       <c r="J1131" s="15"/>
     </row>
     <row r="1132" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1132" s="21" t="s">
-        <v>2976</v>
+        <v>2973</v>
       </c>
       <c r="B1132" s="15"/>
       <c r="C1132" s="17"/>
@@ -39251,23 +39277,23 @@
         <v>2505</v>
       </c>
       <c r="E1132" s="22" t="s">
-        <v>2973</v>
+        <v>2970</v>
       </c>
       <c r="F1132" s="15" t="s">
-        <v>2906</v>
+        <v>2903</v>
       </c>
       <c r="G1132" s="15">
         <v>50</v>
       </c>
       <c r="H1132" s="15"/>
       <c r="I1132" s="15" t="s">
-        <v>2977</v>
+        <v>2974</v>
       </c>
       <c r="J1132" s="15"/>
     </row>
     <row r="1133" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1133" s="21" t="s">
-        <v>2978</v>
+        <v>2975</v>
       </c>
       <c r="B1133" s="15"/>
       <c r="C1133" s="17"/>
@@ -39275,23 +39301,23 @@
         <v>2505</v>
       </c>
       <c r="E1133" s="22" t="s">
-        <v>2980</v>
+        <v>2977</v>
       </c>
       <c r="F1133" s="15" t="s">
-        <v>2906</v>
+        <v>2903</v>
       </c>
       <c r="G1133" s="15">
         <v>50</v>
       </c>
       <c r="H1133" s="15"/>
       <c r="I1133" s="15" t="s">
-        <v>2979</v>
+        <v>2976</v>
       </c>
       <c r="J1133" s="15"/>
     </row>
     <row r="1134" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1134" s="21" t="s">
-        <v>2981</v>
+        <v>2978</v>
       </c>
       <c r="B1134" s="15"/>
       <c r="C1134" s="17"/>
@@ -39299,23 +39325,23 @@
         <v>2505</v>
       </c>
       <c r="E1134" s="22" t="s">
-        <v>2980</v>
+        <v>2977</v>
       </c>
       <c r="F1134" s="15" t="s">
-        <v>2906</v>
+        <v>2903</v>
       </c>
       <c r="G1134" s="15">
         <v>500</v>
       </c>
       <c r="H1134" s="15"/>
       <c r="I1134" s="15" t="s">
-        <v>2982</v>
+        <v>2979</v>
       </c>
       <c r="J1134" s="15"/>
     </row>
     <row r="1135" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1135" s="21" t="s">
-        <v>2983</v>
+        <v>2980</v>
       </c>
       <c r="B1135" s="15"/>
       <c r="C1135" s="17"/>
@@ -39323,23 +39349,23 @@
         <v>2505</v>
       </c>
       <c r="E1135" s="15" t="s">
-        <v>2987</v>
+        <v>2984</v>
       </c>
       <c r="F1135" s="15" t="s">
-        <v>2906</v>
+        <v>2903</v>
       </c>
       <c r="G1135" s="15">
         <v>50</v>
       </c>
       <c r="H1135" s="15"/>
       <c r="I1135" s="15" t="s">
-        <v>2984</v>
+        <v>2981</v>
       </c>
       <c r="J1135" s="15"/>
     </row>
     <row r="1136" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1136" s="21" t="s">
-        <v>2985</v>
+        <v>2982</v>
       </c>
       <c r="B1136" s="15"/>
       <c r="C1136" s="17"/>
@@ -39350,20 +39376,20 @@
         <v>2544</v>
       </c>
       <c r="F1136" s="15" t="s">
-        <v>2906</v>
+        <v>2903</v>
       </c>
       <c r="G1136" s="15">
         <v>50</v>
       </c>
       <c r="H1136" s="15"/>
       <c r="I1136" s="15" t="s">
-        <v>2986</v>
+        <v>2983</v>
       </c>
       <c r="J1136" s="15"/>
     </row>
     <row r="1137" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1137" s="21" t="s">
-        <v>2988</v>
+        <v>2985</v>
       </c>
       <c r="B1137" s="15"/>
       <c r="C1137" s="17"/>
@@ -39371,23 +39397,23 @@
         <v>2505</v>
       </c>
       <c r="E1137" s="22" t="s">
-        <v>2990</v>
+        <v>2987</v>
       </c>
       <c r="F1137" s="15" t="s">
-        <v>2906</v>
+        <v>2903</v>
       </c>
       <c r="G1137" s="15">
         <v>100</v>
       </c>
       <c r="H1137" s="15"/>
       <c r="I1137" s="15" t="s">
-        <v>2989</v>
+        <v>2986</v>
       </c>
       <c r="J1137" s="15"/>
     </row>
     <row r="1138" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1138" s="21" t="s">
-        <v>2991</v>
+        <v>2988</v>
       </c>
       <c r="B1138" s="15"/>
       <c r="C1138" s="17"/>
@@ -39395,23 +39421,23 @@
         <v>2505</v>
       </c>
       <c r="E1138" s="22" t="s">
-        <v>2990</v>
+        <v>2987</v>
       </c>
       <c r="F1138" s="15" t="s">
-        <v>2906</v>
+        <v>2903</v>
       </c>
       <c r="G1138" s="15">
         <v>50</v>
       </c>
       <c r="H1138" s="15"/>
       <c r="I1138" s="15" t="s">
-        <v>2992</v>
+        <v>2989</v>
       </c>
       <c r="J1138" s="15"/>
     </row>
     <row r="1139" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1139" s="21" t="s">
-        <v>2993</v>
+        <v>2990</v>
       </c>
       <c r="B1139" s="15"/>
       <c r="C1139" s="17"/>
@@ -39419,23 +39445,23 @@
         <v>2505</v>
       </c>
       <c r="E1139" s="22" t="s">
-        <v>2990</v>
+        <v>2987</v>
       </c>
       <c r="F1139" s="15" t="s">
-        <v>2906</v>
+        <v>2903</v>
       </c>
       <c r="G1139" s="15">
         <v>50</v>
       </c>
       <c r="H1139" s="15"/>
       <c r="I1139" s="15" t="s">
-        <v>2994</v>
+        <v>2991</v>
       </c>
       <c r="J1139" s="15"/>
     </row>
     <row r="1140" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1140" s="21" t="s">
-        <v>2995</v>
+        <v>2992</v>
       </c>
       <c r="B1140" s="15"/>
       <c r="C1140" s="17"/>
@@ -39443,23 +39469,23 @@
         <v>2505</v>
       </c>
       <c r="E1140" s="22" t="s">
-        <v>2990</v>
+        <v>2987</v>
       </c>
       <c r="F1140" s="15" t="s">
-        <v>2906</v>
+        <v>2903</v>
       </c>
       <c r="G1140" s="15">
         <v>50</v>
       </c>
       <c r="H1140" s="15"/>
       <c r="I1140" s="15" t="s">
-        <v>2996</v>
+        <v>2993</v>
       </c>
       <c r="J1140" s="15"/>
     </row>
     <row r="1141" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1141" s="21" t="s">
-        <v>2997</v>
+        <v>2994</v>
       </c>
       <c r="B1141" s="15"/>
       <c r="C1141" s="17"/>
@@ -39467,23 +39493,23 @@
         <v>2505</v>
       </c>
       <c r="E1141" s="22" t="s">
-        <v>2911</v>
+        <v>2908</v>
       </c>
       <c r="F1141" s="15" t="s">
-        <v>2906</v>
+        <v>2903</v>
       </c>
       <c r="G1141" s="15">
         <v>50</v>
       </c>
       <c r="H1141" s="15"/>
       <c r="I1141" s="15" t="s">
-        <v>2998</v>
+        <v>2995</v>
       </c>
       <c r="J1141" s="15"/>
     </row>
     <row r="1142" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1142" s="21" t="s">
-        <v>2999</v>
+        <v>2996</v>
       </c>
       <c r="B1142" s="15"/>
       <c r="C1142" s="17"/>
@@ -39491,49 +39517,49 @@
         <v>2505</v>
       </c>
       <c r="E1142" s="22" t="s">
-        <v>2911</v>
+        <v>2908</v>
       </c>
       <c r="F1142" s="15" t="s">
-        <v>2906</v>
+        <v>2903</v>
       </c>
       <c r="G1142" s="15">
         <v>50</v>
       </c>
       <c r="H1142" s="15"/>
       <c r="I1142" s="15" t="s">
-        <v>3000</v>
+        <v>2997</v>
       </c>
       <c r="J1142" s="15"/>
     </row>
     <row r="1143" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1143" s="21" t="s">
-        <v>3001</v>
+        <v>2998</v>
       </c>
       <c r="B1143" s="15"/>
       <c r="C1143" s="17" t="s">
-        <v>3003</v>
+        <v>3000</v>
       </c>
       <c r="D1143" s="10" t="s">
         <v>2505</v>
       </c>
       <c r="E1143" s="22" t="s">
-        <v>2917</v>
+        <v>2914</v>
       </c>
       <c r="F1143" s="15" t="s">
-        <v>2906</v>
+        <v>2903</v>
       </c>
       <c r="G1143" s="15">
         <v>60</v>
       </c>
       <c r="H1143" s="15"/>
       <c r="I1143" s="15" t="s">
-        <v>3002</v>
+        <v>2999</v>
       </c>
       <c r="J1143" s="15"/>
     </row>
     <row r="1144" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1144" s="21" t="s">
-        <v>3004</v>
+        <v>3001</v>
       </c>
       <c r="B1144" s="15"/>
       <c r="C1144" s="17"/>
@@ -39541,23 +39567,23 @@
         <v>2505</v>
       </c>
       <c r="E1144" s="22" t="s">
-        <v>2917</v>
+        <v>2914</v>
       </c>
       <c r="F1144" s="15" t="s">
-        <v>2912</v>
+        <v>2909</v>
       </c>
       <c r="G1144" s="15">
         <v>300</v>
       </c>
       <c r="H1144" s="15"/>
       <c r="I1144" s="15" t="s">
-        <v>3005</v>
+        <v>3002</v>
       </c>
       <c r="J1144" s="15"/>
     </row>
     <row r="1145" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1145" s="21" t="s">
-        <v>3006</v>
+        <v>3003</v>
       </c>
       <c r="B1145" s="15"/>
       <c r="C1145" s="17"/>
@@ -39565,23 +39591,23 @@
         <v>2505</v>
       </c>
       <c r="E1145" s="22" t="s">
-        <v>2917</v>
+        <v>2914</v>
       </c>
       <c r="F1145" s="15" t="s">
-        <v>2906</v>
+        <v>2903</v>
       </c>
       <c r="G1145" s="15">
         <v>50</v>
       </c>
       <c r="H1145" s="15"/>
       <c r="I1145" s="15" t="s">
-        <v>3007</v>
+        <v>3004</v>
       </c>
       <c r="J1145" s="15"/>
     </row>
     <row r="1146" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1146" s="21" t="s">
-        <v>3008</v>
+        <v>3005</v>
       </c>
       <c r="B1146" s="15"/>
       <c r="C1146" s="17"/>
@@ -39589,23 +39615,23 @@
         <v>2505</v>
       </c>
       <c r="E1146" s="22" t="s">
-        <v>2917</v>
+        <v>2914</v>
       </c>
       <c r="F1146" s="15" t="s">
-        <v>2906</v>
+        <v>2903</v>
       </c>
       <c r="G1146" s="15">
         <v>50</v>
       </c>
       <c r="H1146" s="15"/>
       <c r="I1146" s="15" t="s">
-        <v>3009</v>
+        <v>3006</v>
       </c>
       <c r="J1146" s="15"/>
     </row>
     <row r="1147" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1147" s="21" t="s">
-        <v>3010</v>
+        <v>3007</v>
       </c>
       <c r="B1147" s="15"/>
       <c r="C1147" s="17"/>
@@ -39613,23 +39639,23 @@
         <v>2505</v>
       </c>
       <c r="E1147" s="22" t="s">
-        <v>2917</v>
+        <v>2914</v>
       </c>
       <c r="F1147" s="15" t="s">
-        <v>2906</v>
+        <v>2903</v>
       </c>
       <c r="G1147" s="15">
         <v>50</v>
       </c>
       <c r="H1147" s="15"/>
       <c r="I1147" s="15" t="s">
-        <v>3011</v>
+        <v>3008</v>
       </c>
       <c r="J1147" s="15"/>
     </row>
     <row r="1148" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1148" s="21" t="s">
-        <v>3012</v>
+        <v>3009</v>
       </c>
       <c r="B1148" s="15"/>
       <c r="C1148" s="17"/>
@@ -39637,23 +39663,23 @@
         <v>2505</v>
       </c>
       <c r="E1148" s="22" t="s">
-        <v>3014</v>
+        <v>3011</v>
       </c>
       <c r="F1148" s="15" t="s">
-        <v>2906</v>
+        <v>2903</v>
       </c>
       <c r="G1148" s="15">
         <v>50</v>
       </c>
       <c r="H1148" s="15"/>
       <c r="I1148" s="15" t="s">
-        <v>3013</v>
+        <v>3010</v>
       </c>
       <c r="J1148" s="15"/>
     </row>
     <row r="1149" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1149" s="21" t="s">
-        <v>3015</v>
+        <v>3012</v>
       </c>
       <c r="B1149" s="15"/>
       <c r="C1149" s="17"/>
@@ -39661,23 +39687,23 @@
         <v>2505</v>
       </c>
       <c r="E1149" s="22" t="s">
-        <v>3014</v>
+        <v>3011</v>
       </c>
       <c r="F1149" s="15" t="s">
-        <v>2906</v>
+        <v>2903</v>
       </c>
       <c r="G1149" s="15">
         <v>50</v>
       </c>
       <c r="H1149" s="15"/>
       <c r="I1149" s="15" t="s">
-        <v>3016</v>
+        <v>3013</v>
       </c>
       <c r="J1149" s="15"/>
     </row>
     <row r="1150" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1150" s="21" t="s">
-        <v>3017</v>
+        <v>3014</v>
       </c>
       <c r="B1150" s="15"/>
       <c r="C1150" s="17"/>
@@ -39685,23 +39711,23 @@
         <v>2505</v>
       </c>
       <c r="E1150" s="22" t="s">
-        <v>3014</v>
+        <v>3011</v>
       </c>
       <c r="F1150" s="15" t="s">
-        <v>2906</v>
+        <v>2903</v>
       </c>
       <c r="G1150" s="15">
         <v>50</v>
       </c>
       <c r="H1150" s="15"/>
       <c r="I1150" s="15" t="s">
-        <v>3018</v>
+        <v>3015</v>
       </c>
       <c r="J1150" s="15"/>
     </row>
     <row r="1151" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1151" s="21" t="s">
-        <v>3019</v>
+        <v>3016</v>
       </c>
       <c r="B1151" s="15"/>
       <c r="C1151" s="17"/>
@@ -39709,23 +39735,23 @@
         <v>2505</v>
       </c>
       <c r="E1151" s="22" t="s">
-        <v>3014</v>
+        <v>3011</v>
       </c>
       <c r="F1151" s="15" t="s">
-        <v>2906</v>
+        <v>2903</v>
       </c>
       <c r="G1151" s="15">
         <v>50</v>
       </c>
       <c r="H1151" s="15"/>
       <c r="I1151" s="15" t="s">
-        <v>3020</v>
+        <v>3017</v>
       </c>
       <c r="J1151" s="15"/>
     </row>
     <row r="1152" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1152" s="21" t="s">
-        <v>3021</v>
+        <v>3018</v>
       </c>
       <c r="B1152" s="15"/>
       <c r="C1152" s="17"/>
@@ -39733,23 +39759,23 @@
         <v>2505</v>
       </c>
       <c r="E1152" s="22" t="s">
-        <v>3014</v>
+        <v>3011</v>
       </c>
       <c r="F1152" s="15" t="s">
-        <v>2906</v>
+        <v>2903</v>
       </c>
       <c r="G1152" s="15">
         <v>50</v>
       </c>
       <c r="H1152" s="15"/>
       <c r="I1152" s="15" t="s">
-        <v>3022</v>
+        <v>3019</v>
       </c>
       <c r="J1152" s="15"/>
     </row>
     <row r="1153" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1153" s="21" t="s">
-        <v>3023</v>
+        <v>3020</v>
       </c>
       <c r="B1153" s="15"/>
       <c r="C1153" s="17"/>
@@ -39757,23 +39783,23 @@
         <v>2505</v>
       </c>
       <c r="E1153" s="22" t="s">
-        <v>3014</v>
+        <v>3011</v>
       </c>
       <c r="F1153" s="15" t="s">
-        <v>2906</v>
+        <v>2903</v>
       </c>
       <c r="G1153" s="15">
         <v>50</v>
       </c>
       <c r="H1153" s="15"/>
       <c r="I1153" s="15" t="s">
-        <v>3024</v>
+        <v>3021</v>
       </c>
       <c r="J1153" s="15"/>
     </row>
     <row r="1154" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1154" s="21" t="s">
-        <v>3025</v>
+        <v>3022</v>
       </c>
       <c r="B1154" s="15"/>
       <c r="C1154" s="17"/>
@@ -39781,23 +39807,23 @@
         <v>2505</v>
       </c>
       <c r="E1154" s="22" t="s">
-        <v>2907</v>
+        <v>2904</v>
       </c>
       <c r="F1154" s="15" t="s">
-        <v>2912</v>
+        <v>2909</v>
       </c>
       <c r="G1154" s="15">
         <v>500</v>
       </c>
       <c r="H1154" s="15"/>
       <c r="I1154" s="15" t="s">
-        <v>2888</v>
+        <v>2885</v>
       </c>
       <c r="J1154" s="15"/>
     </row>
     <row r="1155" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1155" s="21" t="s">
-        <v>3026</v>
+        <v>3023</v>
       </c>
       <c r="B1155" s="15"/>
       <c r="C1155" s="17"/>
@@ -39805,23 +39831,23 @@
         <v>2505</v>
       </c>
       <c r="E1155" s="22" t="s">
-        <v>2923</v>
+        <v>2920</v>
       </c>
       <c r="F1155" s="15" t="s">
-        <v>2906</v>
+        <v>2903</v>
       </c>
       <c r="G1155" s="15">
         <v>100</v>
       </c>
       <c r="H1155" s="15"/>
       <c r="I1155" s="15" t="s">
-        <v>3027</v>
+        <v>3024</v>
       </c>
       <c r="J1155" s="15"/>
     </row>
     <row r="1156" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1156" s="21" t="s">
-        <v>3028</v>
+        <v>3025</v>
       </c>
       <c r="B1156" s="15"/>
       <c r="C1156" s="17"/>
@@ -39829,23 +39855,23 @@
         <v>2505</v>
       </c>
       <c r="E1156" s="22" t="s">
-        <v>3030</v>
+        <v>3027</v>
       </c>
       <c r="F1156" s="15" t="s">
-        <v>2906</v>
+        <v>2903</v>
       </c>
       <c r="G1156" s="15">
         <v>980</v>
       </c>
       <c r="H1156" s="15"/>
       <c r="I1156" s="15" t="s">
-        <v>3029</v>
+        <v>3026</v>
       </c>
       <c r="J1156" s="15"/>
     </row>
     <row r="1157" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1157" s="21" t="s">
-        <v>3031</v>
+        <v>3028</v>
       </c>
       <c r="B1157" s="15"/>
       <c r="C1157" s="17"/>
@@ -39853,23 +39879,23 @@
         <v>2505</v>
       </c>
       <c r="E1157" s="22" t="s">
-        <v>2931</v>
+        <v>2928</v>
       </c>
       <c r="F1157" s="15" t="s">
-        <v>2906</v>
+        <v>2903</v>
       </c>
       <c r="G1157" s="15">
         <v>50</v>
       </c>
       <c r="H1157" s="15"/>
       <c r="I1157" s="15" t="s">
-        <v>3032</v>
+        <v>3029</v>
       </c>
       <c r="J1157" s="15"/>
     </row>
     <row r="1158" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1158" s="21" t="s">
-        <v>3033</v>
+        <v>3030</v>
       </c>
       <c r="B1158" s="15"/>
       <c r="C1158" s="17"/>
@@ -39877,23 +39903,23 @@
         <v>2505</v>
       </c>
       <c r="E1158" s="22" t="s">
-        <v>2931</v>
+        <v>2928</v>
       </c>
       <c r="F1158" s="15" t="s">
-        <v>2906</v>
+        <v>2903</v>
       </c>
       <c r="G1158" s="15">
         <v>160</v>
       </c>
       <c r="H1158" s="15"/>
       <c r="I1158" s="15" t="s">
-        <v>3034</v>
+        <v>3031</v>
       </c>
       <c r="J1158" s="15"/>
     </row>
     <row r="1159" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1159" s="21" t="s">
-        <v>3035</v>
+        <v>3032</v>
       </c>
       <c r="B1159" s="15"/>
       <c r="C1159" s="17"/>
@@ -39901,23 +39927,23 @@
         <v>2505</v>
       </c>
       <c r="E1159" s="22" t="s">
-        <v>2990</v>
+        <v>2987</v>
       </c>
       <c r="F1159" s="15" t="s">
-        <v>2906</v>
+        <v>2903</v>
       </c>
       <c r="G1159" s="15">
         <v>50</v>
       </c>
       <c r="H1159" s="15"/>
       <c r="I1159" s="15" t="s">
-        <v>3036</v>
+        <v>3033</v>
       </c>
       <c r="J1159" s="15"/>
     </row>
     <row r="1160" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1160" s="21" t="s">
-        <v>3037</v>
+        <v>3034</v>
       </c>
       <c r="B1160" s="15"/>
       <c r="C1160" s="17"/>
@@ -39925,23 +39951,23 @@
         <v>2505</v>
       </c>
       <c r="E1160" s="22" t="s">
-        <v>2920</v>
+        <v>2917</v>
       </c>
       <c r="F1160" s="15" t="s">
-        <v>2906</v>
+        <v>2903</v>
       </c>
       <c r="G1160" s="15">
         <v>50</v>
       </c>
       <c r="H1160" s="15"/>
       <c r="I1160" s="15" t="s">
-        <v>3038</v>
+        <v>3035</v>
       </c>
       <c r="J1160" s="15"/>
     </row>
     <row r="1161" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1161" s="21" t="s">
-        <v>3039</v>
+        <v>3036</v>
       </c>
       <c r="B1161" s="15"/>
       <c r="C1161" s="17"/>
@@ -39949,23 +39975,23 @@
         <v>2505</v>
       </c>
       <c r="E1161" s="22" t="s">
-        <v>2920</v>
+        <v>2917</v>
       </c>
       <c r="F1161" s="15" t="s">
-        <v>2906</v>
+        <v>2903</v>
       </c>
       <c r="G1161" s="15">
         <v>576</v>
       </c>
       <c r="H1161" s="15"/>
       <c r="I1161" s="15" t="s">
-        <v>3040</v>
+        <v>3037</v>
       </c>
       <c r="J1161" s="15"/>
     </row>
     <row r="1162" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1162" s="21" t="s">
-        <v>3041</v>
+        <v>3038</v>
       </c>
       <c r="B1162" s="15"/>
       <c r="C1162" s="17"/>
@@ -39973,19 +39999,33 @@
         <v>2505</v>
       </c>
       <c r="E1162" s="22" t="s">
-        <v>2934</v>
+        <v>2931</v>
       </c>
       <c r="F1162" s="15" t="s">
-        <v>2906</v>
+        <v>2903</v>
       </c>
       <c r="G1162" s="15">
         <v>50</v>
       </c>
       <c r="H1162" s="15"/>
       <c r="I1162" s="15" t="s">
+        <v>3039</v>
+      </c>
+      <c r="J1162" s="15"/>
+    </row>
+    <row r="1163" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A1163" s="23" t="s">
         <v>3042</v>
       </c>
-      <c r="J1162" s="15"/>
+      <c r="D1163" s="23" t="s">
+        <v>3043</v>
+      </c>
+      <c r="G1163" s="3">
+        <v>500</v>
+      </c>
+      <c r="I1163" s="23" t="s">
+        <v>3044</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -40013,36 +40053,36 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>2886</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2887</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2888</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2889</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2890</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>2891</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>2892</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>2893</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>2894</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>2895</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>2896</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>2897</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>2898</v>
+        <v>2895</v>
       </c>
       <c r="B2">
         <v>2014.2</v>
@@ -40054,7 +40094,7 @@
         <v>15000</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>2899</v>
+        <v>2896</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>45</v>
@@ -40063,12 +40103,12 @@
         <v>55</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>2900</v>
+        <v>2897</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>2901</v>
+        <v>2898</v>
       </c>
       <c r="B3">
         <v>2017.11</v>
@@ -40077,13 +40117,13 @@
         <v>421</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>2902</v>
+        <v>2899</v>
       </c>
       <c r="E3">
         <v>18000</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>2903</v>
+        <v>2900</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>45</v>
@@ -40092,7 +40132,7 @@
         <v>200</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>2904</v>
+        <v>2901</v>
       </c>
     </row>
   </sheetData>
